--- a/20220426_algo_v2_10/algo_results/rec_result/user_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/user_cf_recommendation_map.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21780,动态:22680,动态:22146,动态:22507,动态:21740,动态:22688,动态:22685,动态:22702,动态:21763,动态:22667,动态:21556,动态:21776,动态:7746,动态:22512,动态:21756,动态:21857,动态:4036,动态:17337,动态:21741,动态:20439,动态:22019,动态:22698,动态:20364,动态:21753,动态:20720,动态:20440,动态:22696,动态:20399,动态:21975,动态:22659,动态:21745,动态:22706,动态:21737,动态:22323,动态:21972,动态:22692,动态:21727,动态:22684,动态:21436,动态:21757,动态:22697,动态:22710</t>
+          <t>动态:20720,动态:21741,动态:22698,动态:22019,动态:22699,动态:20364,动态:21972,动态:22688,动态:21756,动态:20440,动态:21727,动态:21763,动态:21753,动态:21776,动态:21780,动态:22667,动态:22680,动态:22710,动态:22684,动态:21745,动态:22146,动态:20439,动态:4036,动态:21737,动态:21757,动态:7746,动态:22696,动态:20399,动态:22659,动态:21556,动态:22685,动态:22706,动态:21975,动态:22512,动态:22692,动态:21740,动态:22323,动态:21436,动态:22507,动态:22702,动态:22697,动态:21857,动态:17337</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21556,动态:21741,动态:21975,动态:22323,动态:21740,动态:22706,动态:22698,动态:22019,动态:20439,动态:21780,动态:22702,动态:22699,动态:22146,动态:22688,动态:22685,动态:21776,动态:22507,动态:17337,动态:22512,动态:21737,动态:22680,动态:21972,动态:21857,动态:20440,动态:21436,动态:20399,动态:20364,动态:22697,动态:21757,动态:22667,动态:21763,动态:21745,动态:22692,动态:22710,动态:22684,动态:22659,动态:21727,动态:22696,动态:20720,动态:21753,动态:7746</t>
+          <t>动态:22323,动态:7746,动态:21857,动态:21756,动态:21763,动态:21737,动态:21741,动态:20720,动态:21776,动态:21727,动态:22667,动态:22688,动态:22692,动态:22659,动态:20399,动态:22512,动态:20439,动态:22699,动态:22680,动态:22019,动态:21757,动态:22685,动态:17337,动态:22507,动态:21740,动态:21556,动态:21780,动态:22702,动态:22698,动态:21436,动态:20364,动态:22696,动态:22684,动态:21972,动态:22146,动态:20440,动态:22710,动态:22697,动态:21745,动态:22706,动态:21753,动态:21975</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21776,动态:7746,动态:21745,动态:22702,动态:21740,动态:21972,动态:20439,动态:22688,动态:22698,动态:22659,动态:21780,动态:22146,动态:21757,动态:20364,动态:21763,动态:17337,动态:22667,动态:4036,动态:20720,动态:21436,动态:21556,动态:22019,动态:21741,动态:22699,动态:20399,动态:22512,动态:22697,动态:22680,动态:21727,动态:22323,动态:21975,动态:22685,动态:21737,动态:21857,动态:21756,动态:22710,动态:22706,动态:20440,动态:22684,动态:21753,动态:22696,动态:22507</t>
+          <t>动态:22692,动态:21975,动态:22667,动态:21857,动态:22512,动态:17337,动态:21556,动态:21763,动态:22659,动态:21780,动态:7746,动态:20399,动态:21436,动态:21776,动态:22146,动态:22684,动态:4036,动态:22696,动态:22702,动态:22680,动态:22323,动态:22688,动态:21753,动态:22507,动态:21745,动态:20439,动态:22706,动态:20720,动态:21740,动态:20364,动态:22699,动态:21727,动态:22685,动态:20440,动态:21741,动态:21757,动态:21737,动态:22019,动态:22710,动态:22697,动态:22698,动态:21756,动态:21972</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21436,动态:22667,动态:22698,动态:20364,动态:20439,动态:7746,动态:22706,动态:21857,动态:20720,动态:21972,动态:22146,动态:21757,动态:21737,动态:21763,动态:22688,动态:21740,动态:21975,动态:22696,动态:17337,动态:22697,动态:22702,动态:22684,动态:20440,动态:22019,动态:21727,动态:22680,动态:21780,动态:22512,动态:4036,动态:21741,动态:21753,动态:21776,动态:22699,动态:21745,动态:22692,动态:22659,动态:21556,动态:20399,动态:22685,动态:21756,动态:22507,动态:22710</t>
+          <t>动态:21975,动态:20439,动态:22019,动态:22710,动态:22680,动态:22323,动态:21756,动态:20720,动态:21753,动态:21757,动态:20440,动态:22698,动态:21741,动态:22692,动态:21436,动态:20399,动态:22684,动态:22146,动态:22702,动态:21745,动态:21857,动态:22507,动态:7746,动态:22512,动态:22685,动态:21737,动态:22667,动态:22659,动态:21776,动态:20364,动态:21780,动态:22696,动态:21740,动态:17337,动态:22688,动态:21727,动态:22706,动态:4036,动态:21763,动态:22697,动态:21556,动态:22699,动态:21972</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22688,动态:22699,动态:22697,动态:21745,动态:22667,动态:21857,动态:20440,动态:20720,动态:22706,动态:21737,动态:22680,动态:22692,动态:22146,动态:22659,动态:22512,动态:22684,动态:21757,动态:22019,动态:7746,动态:20364,动态:21556,动态:21436,动态:22696,动态:21741,动态:21776,动态:21756,动态:21780,动态:22698,动态:22507,动态:22685,动态:22702,动态:4036,动态:21763,动态:21753,动态:22710,动态:21727,动态:21972,动态:21975,动态:20399,动态:17337,动态:20439,动态:22323</t>
+          <t>动态:20439,动态:22699,动态:21756,动态:20399,动态:22684,动态:21972,动态:22710,动态:21763,动态:21745,动态:22685,动态:17337,动态:7746,动态:22692,动态:20440,动态:21556,动态:22706,动态:22688,动态:22702,动态:22512,动态:21740,动态:22659,动态:21741,动态:22323,动态:21737,动态:21753,动态:21975,动态:21436,动态:20364,动态:21757,动态:21857,动态:4036,动态:21727,动态:20720,动态:22696,动态:22667,动态:22698,动态:22507,动态:22019,动态:21776,动态:22146,动态:22680,动态:22697,动态:21780</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21780,动态:21740,动态:21741,动态:21737,动态:22512,动态:22688,动态:21757,动态:22699,动态:22696,动态:22692,动态:22702,动态:22323,动态:21972,动态:21763,动态:7746,动态:22146,动态:22685,动态:22680,动态:22698,动态:22710,动态:20440,动态:20720,动态:22667,动态:21857,动态:20439,动态:21745,动态:21556,动态:22697,动态:21756,动态:21727,动态:22507,动态:20364,动态:22659,动态:22706,动态:20399,动态:21753,动态:17337,动态:4036,动态:22019,动态:21776,动态:21975,动态:21436</t>
+          <t>动态:22698,动态:21776,动态:21753,动态:21972,动态:22696,动态:22702,动态:21436,动态:22692,动态:22706,动态:20439,动态:17337,动态:20399,动态:21975,动态:21556,动态:21740,动态:22146,动态:4036,动态:22019,动态:22667,动态:22688,动态:22659,动态:21727,动态:22710,动态:21745,动态:21780,动态:21737,动态:22507,动态:7746,动态:20364,动态:21857,动态:21763,动态:21757,动态:21741,动态:22323,动态:22697,动态:20440,动态:22685,动态:21756,动态:22684,动态:22512,动态:22680,动态:20720,动态:22699</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22692,动态:21975,动态:22685,动态:22659,动态:22697,动态:21756,动态:22706,动态:21753,动态:21741,动态:22688,动态:21776,动态:21757,动态:21727,动态:21780,动态:22710,动态:22019,动态:21556,动态:21972,动态:20364,动态:22512,动态:21436,动态:22699,动态:7746,动态:22667,动态:22146,动态:22698,动态:21737,动态:22323,动态:22680,动态:21740,动态:20399,动态:22702,动态:20439,动态:20720,动态:21745,动态:4036,动态:20440,动态:21857,动态:17337,动态:22696,动态:22507,动态:22684</t>
+          <t>动态:4036,动态:22680,动态:22710,动态:22688,动态:22507,动态:20364,动态:21757,动态:22685,动态:22146,动态:21740,动态:21727,动态:22684,动态:22702,动态:22692,动态:21756,动态:22019,动态:22667,动态:22706,动态:21972,动态:21975,动态:21763,动态:20440,动态:21436,动态:20439,动态:21780,动态:21737,动态:21741,动态:21556,动态:22698,动态:22659,动态:17337,动态:22699,动态:21776,动态:22696,动态:22323,动态:7746,动态:21745,动态:20399,动态:20720,动态:22697,动态:21857,动态:21753,动态:22512</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:22512,动态:4036,动态:22688,动态:21753,动态:22684,动态:22696,动态:20399,动态:21741,动态:21436,动态:20720,动态:22019,动态:22697,动态:20439,动态:21763,动态:7746,动态:21756,动态:21737,动态:21727,动态:22702,动态:21740,动态:22659,动态:21556,动态:22699,动态:22507,动态:20364,动态:17337,动态:22706,动态:22698,动态:21745,动态:21972,动态:22667,动态:20440,动态:21975,动态:22146,动态:22710,动态:22685,动态:21757,动态:21780,动态:22680,动态:22692,动态:21776,动态:22323,动态:21857</t>
+          <t>动态:22146,动态:22692,动态:21436,动态:21756,动态:22019,动态:22659,动态:17337,动态:21972,动态:22512,动态:21857,动态:22507,动态:20364,动态:22667,动态:22698,动态:22697,动态:21975,动态:21727,动态:22680,动态:22702,动态:21745,动态:21780,动态:22696,动态:21757,动态:22323,动态:20440,动态:20399,动态:7746,动态:21740,动态:22699,动态:22710,动态:4036,动态:20720,动态:21556,动态:22684,动态:21776,动态:22706,动态:21741,动态:22688,动态:20439,动态:21763,动态:21737,动态:22685,动态:21753</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:21857,动态:4036,动态:22698,动态:20720,动态:21972,动态:17337,动态:22685,动态:22323,动态:20440,动态:21757,动态:21753,动态:21776,动态:21741,动态:21780,动态:21745,动态:7746,动态:21556,动态:22146,动态:22699,动态:22512,动态:21740,动态:21756,动态:21763,动态:22710,动态:22702,动态:22667,动态:22692,动态:22680,动态:20399,动态:22697,动态:22507,动态:22696,动态:22688,动态:22706,动态:22019,动态:20364,动态:21436,动态:21737,动态:20439,动态:22659,动态:21727,动态:21975,动态:22684</t>
+          <t>动态:22685,动态:22323,动态:22019,动态:22697,动态:22512,动态:22688,动态:21740,动态:21556,动态:21737,动态:21741,动态:20364,动态:21756,动态:21763,动态:20720,动态:21753,动态:21975,动态:20399,动态:21857,动态:22507,动态:21776,动态:22684,动态:22699,动态:22667,动态:22698,动态:22680,动态:22706,动态:21745,动态:22692,动态:21436,动态:4036,动态:22702,动态:7746,动态:20439,动态:22146,动态:21972,动态:22696,动态:22710,动态:22659,动态:17337,动态:21727,动态:20440,动态:21780,动态:21757</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>动态:22659,动态:20399,动态:4036,动态:22688,动态:21745,动态:22323,动态:21756,动态:22667,动态:21776,动态:22702,动态:21975,动态:22696,动态:22698,动态:17337,动态:21556,动态:22692,动态:20364,动态:21436,动态:21857,动态:21972,动态:20439,动态:22507,动态:22684,动态:22512,动态:21740,动态:22706,动态:22697,动态:21757,动态:21737,动态:22146,动态:7746,动态:20440,动态:21753,动态:21780,动态:20720,动态:22685,动态:22680,动态:22710,动态:22699,动态:22019,动态:21741,动态:21763,动态:21727</t>
+          <t>动态:21436,动态:22699,动态:22659,动态:22697,动态:22667,动态:21857,动态:20440,动态:21556,动态:22507,动态:21727,动态:21741,动态:21756,动态:22685,动态:21737,动态:20364,动态:22680,动态:22696,动态:21776,动态:21972,动态:22698,动态:17337,动态:22692,动态:21780,动态:22019,动态:21975,动态:21753,动态:22688,动态:22684,动态:21740,动态:22706,动态:7746,动态:22702,动态:4036,动态:20399,动态:20720,动态:22512,动态:22323,动态:20439,动态:22146,动态:21745,动态:21763,动态:22710,动态:21757</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22699,动态:22697,动态:22680,动态:21727,动态:21436,动态:4036,动态:21780,动态:21972,动态:22696,动态:21753,动态:21737,动态:20440,动态:21556,动态:22684,动态:22146,动态:21740,动态:21745,动态:22692,动态:21975,动态:20720,动态:17337,动态:21757,动态:21756,动态:22659,动态:20439,动态:22507,动态:7746,动态:22710,动态:22698,动态:21776,动态:22706,动态:22019,动态:22323,动态:22685,动态:21741,动态:20399,动态:22512,动态:22688,动态:21857,动态:21763,动态:22702,动态:22667</t>
+          <t>动态:22680,动态:22684,动态:21741,动态:21972,动态:21556,动态:20399,动态:21756,动态:21740,动态:22692,动态:21436,动态:22699,动态:20364,动态:22685,动态:20440,动态:17337,动态:22688,动态:22697,动态:21757,动态:22323,动态:21745,动态:22019,动态:21780,动态:21776,动态:22706,动态:21857,动态:22146,动态:21727,动态:22698,动态:22512,动态:21975,动态:22696,动态:22659,动态:21753,动态:7746,动态:22507,动态:21763,动态:20439,动态:4036,动态:22710,动态:20720,动态:22667,动态:21737,动态:22702</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21737,动态:20399,动态:22710,动态:22706,动态:22684,动态:22699,动态:22659,动态:22146,动态:22019,动态:4036,动态:17337,动态:21756,动态:21436,动态:22698,动态:21741,动态:22512,动态:21975,动态:7746,动态:21972,动态:22507,动态:21740,动态:22697,动态:22696,动态:21763,动态:22680,动态:21857,动态:20720,动态:21757,动态:21780,动态:21745,动态:22685,动态:22688,动态:20439,动态:22667,动态:21776,动态:22702,动态:21556,动态:22692,动态:22323,动态:20440,动态:21753,动态:21727</t>
+          <t>动态:21972,动态:22019,动态:22659,动态:20364,动态:22323,动态:21741,动态:4036,动态:22667,动态:21857,动态:21757,动态:22710,动态:21780,动态:20399,动态:22702,动态:7746,动态:20439,动态:22692,动态:21745,动态:21756,动态:20720,动态:22697,动态:22699,动态:21737,动态:22684,动态:22685,动态:21556,动态:22146,动态:22680,动态:22512,动态:21975,动态:21727,动态:17337,动态:22507,动态:21753,动态:22706,动态:21740,动态:20440,动态:21763,动态:22688,动态:21436,动态:21776,动态:22698,动态:22696</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:21972,动态:4036,动态:21857,动态:20364,动态:21741,动态:22684,动态:22692,动态:21776,动态:22659,动态:22698,动态:21753,动态:22323,动态:20720,动态:21436,动态:21737,动态:21727,动态:21756,动态:20440,动态:20399,动态:22688,动态:17337,动态:22710,动态:21745,动态:21556,动态:21763,动态:22019,动态:22685,动态:22702,动态:22706,动态:21740,动态:22699,动态:22667,动态:22696,动态:21975,动态:22680,动态:22697,动态:21757,动态:21780,动态:7746,动态:22512,动态:22146,动态:22507,动态:20439</t>
+          <t>动态:22667,动态:22146,动态:22696,动态:21757,动态:22710,动态:22512,动态:20399,动态:4036,动态:22699,动态:21740,动态:21857,动态:22019,动态:21556,动态:21745,动态:21763,动态:22698,动态:20439,动态:22659,动态:20364,动态:21436,动态:22702,动态:22706,动态:22680,动态:17337,动态:21756,动态:21975,动态:7746,动态:20720,动态:21972,动态:22697,动态:21776,动态:20440,动态:22684,动态:22692,动态:21727,动态:21741,动态:21737,动态:22685,动态:22688,动态:22507,动态:21753,动态:22323,动态:21780</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:20440,动态:20364,动态:21556,动态:21757,动态:17337,动态:22684,动态:22019,动态:21756,动态:21436,动态:22696,动态:22680,动态:22659,动态:22692,动态:21745,动态:21972,动态:21776,动态:21740,动态:22323,动态:21780,动态:22507,动态:22702,动态:4036,动态:21737,动态:22710,动态:20439,动态:22697,动态:20720,动态:22688,动态:7746,动态:21857,动态:21741,动态:21975,动态:20399,动态:21763,动态:21753,动态:22706,动态:22699,动态:22685,动态:22146,动态:21727,动态:22667,动态:22698,动态:22512</t>
+          <t>动态:22659,动态:22698,动态:21745,动态:22680,动态:20439,动态:20720,动态:22696,动态:21740,动态:17337,动态:22684,动态:21753,动态:22685,动态:21727,动态:21763,动态:21776,动态:22710,动态:22512,动态:22019,动态:22699,动态:22507,动态:22667,动态:21857,动态:22146,动态:20440,动态:22323,动态:7746,动态:21556,动态:21737,动态:21756,动态:20364,动态:21741,动态:20399,动态:22692,动态:21972,动态:22702,动态:4036,动态:21780,动态:21436,动态:21975,动态:22697,动态:21757,动态:22706,动态:22688</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:22692,动态:20720,动态:22706,动态:22659,动态:20399,动态:21857,动态:22697,动态:22684,动态:22323,动态:21776,动态:21436,动态:22146,动态:4036,动态:22019,动态:17337,动态:7746,动态:22696,动态:22698,动态:22680,动态:22667,动态:21975,动态:21740,动态:21556,动态:21763,动态:21972,动态:22685,动态:22710,动态:22507,动态:21737,动态:22688,动态:21727,动态:21756,动态:21753,动态:20439,动态:20364,动态:22512,动态:21757,动态:20440,动态:22699,动态:21780,动态:21745,动态:22702,动态:21741</t>
+          <t>动态:20720,动态:22692,动态:21763,动态:17337,动态:22684,动态:21776,动态:21757,动态:20440,动态:22702,动态:4036,动态:21436,动态:21727,动态:22688,动态:21745,动态:22659,动态:22323,动态:22146,动态:20364,动态:21740,动态:22699,动态:20399,动态:22019,动态:21975,动态:21857,动态:21972,动态:22696,动态:22710,动态:22667,动态:21753,动态:22706,动态:22507,动态:21556,动态:7746,动态:22680,动态:21756,动态:22685,动态:21741,动态:22698,动态:22697,动态:20439,动态:21780,动态:21737,动态:22512</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21757,动态:22699,动态:22692,动态:21776,动态:17337,动态:22688,动态:21556,动态:22667,动态:22706,动态:22698,动态:22684,动态:21975,动态:21741,动态:22019,动态:20720,动态:21745,动态:21727,动态:21763,动态:21756,动态:21737,动态:22507,动态:22680,动态:21857,动态:20399,动态:21972,动态:22697,动态:7746,动态:22146,动态:21740,动态:22512,动态:22702,动态:22685,动态:22696,动态:22323,动态:22659,动态:21436,动态:20364,动态:21753,动态:22710</t>
+          <t>动态:21436,动态:22684,动态:22692,动态:22680,动态:21727,动态:22696,动态:21737,动态:22702,动态:21745,动态:22706,动态:20720,动态:21776,动态:22710,动态:21756,动态:22685,动态:22659,动态:21780,动态:21740,动态:21757,动态:21975,动态:21741,动态:17337,动态:22667,动态:7746,动态:21763,动态:22699,动态:22512,动态:22323,动态:22697,动态:21753,动态:22698,动态:20364,动态:22507,动态:21857,动态:22688,动态:22146,动态:20399,动态:21972,动态:22019,动态:21556</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:21556,动态:21763,动态:22146,动态:21776,动态:22680,动态:20440,动态:21857,动态:22697,动态:22507,动态:22685,动态:21780,动态:4036,动态:21757,动态:22698,动态:20720,动态:22323,动态:22512,动态:20364,动态:22684,动态:21727,动态:22696,动态:22692,动态:21740,动态:22710,动态:22688,动态:20399,动态:21972,动态:22667,动态:21737,动态:22699,动态:17337,动态:21756,动态:21753,动态:21745,动态:20439,动态:21741,动态:22702,动态:22659,动态:21975,动态:22706,动态:21436,动态:22019,动态:7746</t>
+          <t>动态:21975,动态:21757,动态:20440,动态:22688,动态:22692,动态:21776,动态:20399,动态:22507,动态:21753,动态:21556,动态:20439,动态:21972,动态:22680,动态:20720,动态:17337,动态:22698,动态:22697,动态:22710,动态:22696,动态:21737,动态:21780,动态:21763,动态:21745,动态:22659,动态:22667,动态:20364,动态:22146,动态:21741,动态:22702,动态:7746,动态:22685,动态:22512,动态:21756,动态:22019,动态:22706,动态:4036,动态:21740,动态:21727,动态:22323,动态:22699,动态:21857,动态:21436,动态:22684</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:22019,动态:20399,动态:21757,动态:22697,动态:21857,动态:21740,动态:21745,动态:21763,动态:22685,动态:22696,动态:17337,动态:21741,动态:22323,动态:22512,动态:20720,动态:21756,动态:21556,动态:22684,动态:21780,动态:20364,动态:22706,动态:4036,动态:22680,动态:21727,动态:21776,动态:22692,动态:22146,动态:21753,动态:21737,动态:21975,动态:21436,动态:22698,动态:20439,动态:22702,动态:21972,动态:20440,动态:22507,动态:22667,动态:22699,动态:22710,动态:22659,动态:22688,动态:7746</t>
+          <t>动态:20439,动态:21756,动态:22507,动态:22688,动态:20440,动态:22706,动态:4036,动态:21757,动态:20364,动态:21763,动态:7746,动态:21737,动态:22684,动态:22698,动态:22659,动态:21857,动态:21975,动态:21776,动态:21753,动态:22710,动态:22697,动态:20720,动态:17337,动态:22323,动态:22680,动态:22512,动态:22702,动态:20399,动态:22146,动态:21436,动态:21780,动态:21727,动态:22696,动态:21972,动态:21740,动态:22685,动态:22019,动态:21556,动态:22667,动态:22692,动态:21741,动态:22699,动态:21745</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>动态:22659,动态:21737,动态:21727,动态:22696,动态:22685,动态:20399,动态:7746,动态:22702,动态:21756,动态:22706,动态:22699,动态:22680,动态:21757,动态:4036,动态:21556,动态:21975,动态:22692,动态:22146,动态:21857,动态:21741,动态:21780,动态:22019,动态:22512,动态:21753,动态:22507,动态:22667,动态:22323,动态:21745,动态:21763,动态:22697,动态:20364,动态:22710,动态:20439,动态:21436,动态:21776,动态:21972,动态:22688,动态:22698,动态:21740,动态:20440,动态:20720,动态:17337,动态:22684</t>
+          <t>动态:21436,动态:22692,动态:22698,动态:21756,动态:20364,动态:22710,动态:22688,动态:17337,动态:22685,动态:22702,动态:21737,动态:20439,动态:21745,动态:20720,动态:21757,动态:22680,动态:22706,动态:20440,动态:22323,动态:22684,动态:22146,动态:21753,动态:22699,动态:22507,动态:22019,动态:22512,动态:21556,动态:22659,动态:22696,动态:21972,动态:21740,动态:21741,动态:4036,动态:21763,动态:7746,动态:22667,动态:21975,动态:21780,动态:21776,动态:21727,动态:22697,动态:20399,动态:21857</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22146,动态:22507,动态:21972,动态:22685,动态:21757,动态:17337,动态:21737,动态:22692,动态:22512,动态:20439,动态:21740,动态:21975,动态:21776,动态:22696,动态:21857,动态:22019,动态:21756,动态:22688,动态:22697,动态:4036,动态:21556,动态:22702,动态:22684,动态:21780,动态:21727,动态:7746,动态:22680,动态:21745,动态:21763,动态:22710,动态:21753,动态:22659,动态:20399,动态:22698,动态:22699,动态:22706,动态:20440,动态:20720,动态:22323,动态:22667,动态:21436,动态:20364</t>
+          <t>动态:22706,动态:21436,动态:22702,动态:21763,动态:22685,动态:21741,动态:4036,动态:21757,动态:21780,动态:22146,动态:21753,动态:21745,动态:22698,动态:20364,动态:22697,动态:22696,动态:22323,动态:22692,动态:21975,动态:17337,动态:21972,动态:22019,动态:21857,动态:22710,动态:20440,动态:22684,动态:22507,动态:20399,动态:22680,动态:21756,动态:20720,动态:22688,动态:21776,动态:21737,动态:22667,动态:21556,动态:7746,动态:21727,动态:22659,动态:22699,动态:22512,动态:20439,动态:21740</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21757,动态:21436,动态:22323,动态:20399,动态:22019,动态:21737,动态:21753,动态:22699,动态:22507,动态:22702,动态:22659,动态:22692,动态:20440,动态:21776,动态:22697,动态:21740,动态:21741,动态:4036,动态:21556,动态:22512,动态:21972,动态:7746,动态:22696,动态:22688,动态:20364,动态:21975,动态:22706,动态:20720,动态:20439,动态:22710,动态:22680,动态:21780,动态:21745,动态:21857,动态:17337,动态:22698,动态:22667,动态:22684,动态:21763,动态:22685,动态:21727,动态:21756</t>
+          <t>动态:22146,动态:21780,动态:21776,动态:21753,动态:17337,动态:22696,动态:4036,动态:21763,动态:21740,动态:22684,动态:22685,动态:21556,动态:22323,动态:22507,动态:22706,动态:21857,动态:20399,动态:20440,动态:21975,动态:21756,动态:22698,动态:7746,动态:22659,动态:21741,动态:22692,动态:20720,动态:22699,动态:21972,动态:22667,动态:21727,动态:22710,动态:22688,动态:21436,动态:21757,动态:21737,动态:20364,动态:22680,动态:20439,动态:21745,动态:22702,动态:22019,动态:22512,动态:22697</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:21776,动态:21745,动态:17337,动态:22692,动态:22659,动态:21975,动态:22696,动态:22512,动态:21740,动态:22706,动态:21727,动态:21972,动态:22323,动态:21757,动态:20399,动态:22146,动态:20720,动态:21857,动态:22688,动态:21737,动态:21436,动态:22697,动态:22684,动态:20439,动态:22699,动态:21763,动态:21780,动态:21756,动态:21753,动态:22667,动态:4036,动态:22019,动态:22710,动态:22698,动态:21741,动态:7746,动态:20440,动态:22680,动态:22685,动态:22507,动态:20364,动态:22702,动态:21556</t>
+          <t>动态:21975,动态:22684,动态:22019,动态:22685,动态:7746,动态:22512,动态:22696,动态:22688,动态:20439,动态:21780,动态:20440,动态:21763,动态:21745,动态:21741,动态:22323,动态:17337,动态:21556,动态:4036,动态:21436,动态:22146,动态:22659,动态:21776,动态:22680,动态:21972,动态:20720,动态:22692,动态:22698,动态:22702,动态:21740,动态:22697,动态:21757,动态:22507,动态:21727,动态:20364,动态:22710,动态:21737,动态:20399,动态:21756,动态:22667,动态:21857,动态:22699,动态:22706,动态:21753</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21756,动态:22702,动态:22688,动态:22698,动态:21753,动态:22667,动态:21857,动态:17337,动态:22512,动态:21727,动态:22697,动态:21737,动态:20440,动态:20720,动态:21436,动态:21740,动态:21745,动态:22699,动态:22706,动态:22507,动态:22692,动态:22323,动态:20399,动态:21556,动态:22696,动态:22146,动态:21776,动态:22659,动态:22684,动态:21763,动态:4036,动态:21757,动态:20439,动态:22685,动态:22019,动态:21972,动态:22680,动态:20364,动态:21780,动态:22710,动态:21975,动态:7746</t>
+          <t>动态:21436,动态:20399,动态:21556,动态:21745,动态:22512,动态:20364,动态:21975,动态:7746,动态:21727,动态:22684,动态:21737,动态:22696,动态:20440,动态:22507,动态:22323,动态:22706,动态:22698,动态:22685,动态:22146,动态:21753,动态:21763,动态:22699,动态:17337,动态:20720,动态:21780,动态:21972,动态:21740,动态:22680,动态:22667,动态:22692,动态:22702,动态:22688,动态:20439,动态:22697,动态:21776,动态:22019,动态:4036,动态:21857,动态:22659,动态:22710,动态:21756,动态:21741,动态:21757</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21740,动态:22667,动态:21857,动态:21737,动态:22706,动态:17337,动态:21745,动态:21776,动态:22697,动态:7746,动态:22692,动态:21753,动态:22702,动态:22699,动态:22323,动态:21727,动态:20720,动态:22659,动态:21763,动态:20364,动态:20399,动态:21436,动态:22710,动态:22019,动态:22684,动态:22688,动态:21972,动态:22696,动态:22507,动态:21741,动态:21757,动态:22698,动态:20440,动态:20439,动态:21556,动态:22685,动态:4036,动态:22146,动态:21780,动态:21756,动态:22680,动态:22512</t>
+          <t>动态:22667,动态:21776,动态:21756,动态:21972,动态:22696,动态:20440,动态:21741,动态:22697,动态:22699,动态:21737,动态:22688,动态:21857,动态:22698,动态:22702,动态:22659,动态:22323,动态:20439,动态:21556,动态:17337,动态:20399,动态:22684,动态:21757,动态:21740,动态:20720,动态:4036,动态:22692,动态:21753,动态:22706,动态:21745,动态:22512,动态:22685,动态:21727,动态:21780,动态:21975,动态:22680,动态:21436,动态:22146,动态:7746,动态:22710,动态:21763,动态:20364,动态:22507,动态:22019</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22696,动态:22706,动态:21745,动态:20720,动态:20399,动态:22710,动态:22659,动态:21975,动态:22698,动态:22702,动态:22019,动态:21740,动态:22323,动态:22692,动态:17337,动态:20364,动态:22697,动态:21727,动态:22699,动态:21741,动态:21857,动态:21436,动态:21763,动态:20440,动态:21756,动态:22685,动态:21776,动态:21556,动态:7746,动态:21753,动态:22688,动态:21757,动态:22680,动态:22667,动态:22507,动态:22146,动态:21737,动态:22512,动态:21780,动态:4036,动态:21972,动态:22684</t>
+          <t>动态:21857,动态:21757,动态:22692,动态:22685,动态:20439,动态:21753,动态:21737,动态:22706,动态:21763,动态:20364,动态:22659,动态:20399,动态:22688,动态:22512,动态:7746,动态:21780,动态:21745,动态:21556,动态:22323,动态:21756,动态:21740,动态:17337,动态:22710,动态:21727,动态:22696,动态:21975,动态:22702,动态:22019,动态:22698,动态:22146,动态:4036,动态:21741,动态:21972,动态:20720,动态:22697,动态:21436,动态:22507,动态:22667,动态:20440,动态:22680,动态:21776,动态:22699,动态:22684</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21745,动态:17337,动态:22702,动态:21753,动态:22323,动态:21857,动态:21436,动态:21756,动态:20439,动态:20720,动态:21740,动态:22684,动态:22659,动态:21727,动态:22019,动态:21780,动态:22696,动态:21556,动态:21972,动态:21763,动态:22146,动态:22685,动态:7746,动态:21741,动态:20399,动态:22667,动态:22680,动态:22512,动态:22507,动态:22706,动态:21757,动态:22698,动态:22699,动态:20440,动态:22688,动态:4036,动态:21776,动态:21975,动态:22692,动态:22710,动态:21737,动态:20364</t>
+          <t>动态:21737,动态:21727,动态:22659,动态:20439,动态:21972,动态:21740,动态:22684,动态:22710,动态:22706,动态:20399,动态:21741,动态:22667,动态:22512,动态:20720,动态:22692,动态:7746,动态:21753,动态:21756,动态:22698,动态:21745,动态:22507,动态:21975,动态:21763,动态:21776,动态:21556,动态:22697,动态:22688,动态:21757,动态:22323,动态:22699,动态:17337,动态:4036,动态:22019,动态:22680,动态:22696,动态:21436,动态:20440,动态:21857,动态:22702,动态:22685,动态:22146,动态:20364,动态:21780</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22699,动态:22667,动态:21757,动态:22659,动态:21975,动态:21972,动态:22710,动态:17337,动态:22684,动态:20399,动态:21756,动态:20440,动态:21727,动态:22019,动态:21737,动态:22692,动态:4036,动态:21556,动态:22702,动态:21780,动态:22698,动态:22696,动态:22323,动态:22706,动态:22685,动态:20364,动态:22146,动态:7746,动态:21857,动态:22688,动态:22697,动态:21436,动态:22507,动态:22680,动态:22512,动态:20720,动态:21741,动态:21763,动态:21753,动态:21740,动态:20439,动态:21776</t>
+          <t>动态:21741,动态:21857,动态:22019,动态:21975,动态:21753,动态:21972,动态:22512,动态:22680,动态:21756,动态:22688,动态:21763,动态:21776,动态:17337,动态:22710,动态:20720,动态:22697,动态:21740,动态:20399,动态:22146,动态:22659,动态:22684,动态:21745,动态:4036,动态:7746,动态:22699,动态:22667,动态:21757,动态:20364,动态:22706,动态:22698,动态:22692,动态:22685,动态:22507,动态:20439,动态:21436,动态:21737,动态:22323,动态:20440,动态:22702,动态:21556,动态:21727,动态:21780,动态:22696</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22699,动态:22323,动态:22710,动态:22507,动态:21776,动态:21753,动态:22684,动态:21727,动态:21975,动态:22680,动态:22706,动态:22685,动态:22692,动态:21741,动态:21857,动态:21737,动态:22688,动态:4036,动态:17337,动态:22019,动态:21780,动态:20439,动态:21972,动态:22697,动态:22698,动态:22146,动态:22512,动态:21757,动态:20364,动态:21763,动态:22667,动态:20440,动态:21556,动态:22659,动态:22696,动态:20399,动态:7746,动态:21745,动态:21436,动态:21756,动态:20720,动态:21740</t>
+          <t>动态:21756,动态:20720,动态:21776,动态:21753,动态:22659,动态:21745,动态:22019,动态:22323,动态:22667,动态:21972,动态:22507,动态:22684,动态:20440,动态:21727,动态:22692,动态:22685,动态:20399,动态:22698,动态:7746,动态:22699,动态:4036,动态:21741,动态:21780,动态:22706,动态:22146,动态:22688,动态:21436,动态:21740,动态:22512,动态:22696,动态:22710,动态:22697,动态:21556,动态:21975,动态:20439,动态:21757,动态:17337,动态:21763,动态:20364,动态:22680,动态:21737,动态:22702,动态:21857</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21763,动态:22667,动态:21556,动态:20399,动态:21737,动态:22685,动态:20364,动态:22710,动态:21975,动态:20720,动态:21780,动态:21745,动态:21857,动态:4036,动态:7746,动态:21972,动态:21753,动态:21776,动态:21741,动态:17337,动态:20439,动态:22512,动态:22702,动态:22507,动态:22696,动态:22680,动态:21740,动态:21436,动态:22684,动态:22323,动态:22659,动态:22688,动态:21756,动态:21727,动态:20440,动态:22146,动态:22692,动态:22699,动态:21757,动态:22697,动态:22019,动态:22706</t>
+          <t>动态:20720,动态:22706,动态:21737,动态:22667,动态:22688,动态:22507,动态:21972,动态:21975,动态:21753,动态:20439,动态:22698,动态:20440,动态:21756,动态:22697,动态:21857,动态:22512,动态:21780,动态:22684,动态:22323,动态:21436,动态:21556,动态:7746,动态:22702,动态:22019,动态:17337,动态:22659,动态:20399,动态:22696,动态:21727,动态:21763,动态:22692,动态:22680,动态:21745,动态:21740,动态:21776,动态:22710,动态:21757,动态:20364,动态:4036,动态:22146,动态:22685,动态:21741,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21727,动态:22698,动态:22696,动态:21753,动态:21436,动态:21776,动态:22512,动态:20720,动态:22684,动态:22685,动态:22710,动态:22702,动态:17337,动态:22667,动态:22688,动态:22692,动态:20440,动态:22699,动态:21857,动态:22507,动态:21763,动态:21972,动态:22697,动态:21757,动态:21780,动态:21737,动态:7746,动态:20364,动态:22146,动态:21740,动态:22680,动态:4036,动态:21556,动态:22019,动态:22659,动态:21741,动态:21756,动态:21975,动态:20399,动态:21745,动态:22323,动态:20439</t>
+          <t>动态:20720,动态:21776,动态:22702,动态:21556,动态:22019,动态:22706,动态:22698,动态:21780,动态:22680,动态:21857,动态:21727,动态:22710,动态:21741,动态:22692,动态:21737,动态:21745,动态:20440,动态:22507,动态:21436,动态:21740,动态:22512,动态:20439,动态:22323,动态:22697,动态:21753,动态:22684,动态:21763,动态:4036,动态:22146,动态:22696,动态:22699,动态:21757,动态:21756,动态:17337,动态:22659,动态:20364,动态:22667,动态:21972,动态:7746,动态:21975,动态:22685,动态:20399,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22507,动态:21780,动态:22702,动态:17337,动态:21763,动态:22146,动态:20439,动态:4036,动态:21776,动态:21741,动态:22710,动态:22323,动态:21745,动态:21857,动态:21972,动态:21756,动态:22698,动态:21727,动态:20440,动态:21975,动态:22512,动态:22684,动态:22667,动态:22688,动态:22697,动态:22685,动态:7746,动态:20720,动态:22696,动态:22659,动态:21757,动态:21740,动态:22692,动态:21753,动态:22699,动态:20364,动态:21737,动态:22706,动态:22680,动态:20399,动态:21556,动态:21436</t>
+          <t>动态:21436,动态:20440,动态:22688,动态:22019,动态:17337,动态:21776,动态:22698,动态:7746,动态:22699,动态:21972,动态:22512,动态:21780,动态:21753,动态:21757,动态:22680,动态:22702,动态:21857,动态:21756,动态:21740,动态:22146,动态:22685,动态:22692,动态:21737,动态:22507,动态:21763,动态:21556,动态:22710,动态:20364,动态:22659,动态:21741,动态:20439,动态:22706,动态:4036,动态:20399,动态:22667,动态:21975,动态:21727,动态:22696,动态:20720,动态:21745,动态:22697,动态:22323,动态:22684</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:7746,动态:21756,动态:20439,动态:22697,动态:22659,动态:21776,动态:22684,动态:21780,动态:21740,动态:20399,动态:21741,动态:22702,动态:21737,动态:22507,动态:21556,动态:21757,动态:21436,动态:22146,动态:22688,动态:22323,动态:20720,动态:22667,动态:20364,动态:21727,动态:20440,动态:21975,动态:22698,动态:21745,动态:22696,动态:22706,动态:22692,动态:21972,动态:21857,动态:17337,动态:22685,动态:22512,动态:22699,动态:21763,动态:21753,动态:22710,动态:22680,动态:4036,动态:22019</t>
+          <t>动态:21436,动态:22697,动态:22323,动态:21727,动态:22688,动态:21857,动态:21975,动态:22692,动态:21737,动态:21972,动态:22507,动态:22684,动态:21741,动态:22667,动态:22019,动态:22685,动态:7746,动态:21776,动态:21740,动态:21757,动态:20720,动态:22512,动态:21753,动态:20440,动态:21745,动态:21763,动态:22696,动态:21556,动态:22659,动态:22702,动态:22710,动态:22698,动态:21756,动态:20364,动态:17337,动态:22706,动态:4036,动态:20439,动态:21780,动态:22699,动态:22680,动态:22146,动态:20399</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:21436,动态:20364,动态:4036,动态:21756,动态:20720,动态:22692,动态:22706,动态:21972,动态:20439,动态:22667,动态:22019,动态:21740,动态:20440,动态:22507,动态:22697,动态:21975,动态:21556,动态:22685,动态:22680,动态:22688,动态:20399,动态:21737,动态:21780,动态:22702,动态:21857,动态:17337,动态:21741,动态:7746,动态:21763,动态:22699,动态:22698,动态:22512,动态:21727,动态:22710,动态:22684,动态:22659,动态:21753,动态:21776,动态:21745,动态:21757,动态:22323,动态:22696,动态:22146</t>
+          <t>动态:22680,动态:22710,动态:21745,动态:22684,动态:21776,动态:21753,动态:7746,动态:20440,动态:21727,动态:22659,动态:21741,动态:21757,动态:17337,动态:22323,动态:21972,动态:22667,动态:20399,动态:21556,动态:21737,动态:22706,动态:21756,动态:21740,动态:21857,动态:22688,动态:22146,动态:22507,动态:20720,动态:20439,动态:22699,动态:21763,动态:21975,动态:22685,动态:22512,动态:22019,动态:21780,动态:21436,动态:20364,动态:4036,动态:22697,动态:22696,动态:22698,动态:22692,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21436,动态:4036,动态:22692,动态:22696,动态:22659,动态:21757,动态:21763,动态:21556,动态:21780,动态:22685,动态:20440,动态:22512,动态:7746,动态:21756,动态:21753,动态:22684,动态:22680,动态:21776,动态:22688,动态:22697,动态:22019,动态:22706,动态:21972,动态:22507,动态:22146,动态:22323,动态:20720,动态:21741,动态:22699,动态:21727,动态:20399,动态:21857,动态:21975,动态:22702,动态:22710,动态:17337,动态:20364,动态:21740,动态:22698,动态:20439,动态:21737,动态:22667</t>
+          <t>动态:22698,动态:20364,动态:22684,动态:21972,动态:21727,动态:22685,动态:22512,动态:22697,动态:21975,动态:22019,动态:21757,动态:21756,动态:21436,动态:21780,动态:22696,动态:21741,动态:21737,动态:20720,动态:20399,动态:22659,动态:22146,动态:22702,动态:21740,动态:22323,动态:22699,动态:22680,动态:21745,动态:21776,动态:17337,动态:22710,动态:22507,动态:22692,动态:22688,动态:20439,动态:21556,动态:7746,动态:22706,动态:21857,动态:22667,动态:4036,动态:21763,动态:21753,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21757,动态:22696,动态:22685,动态:22323,动态:22507,动态:22699,动态:4036,动态:22146,动态:21556,动态:21776,动态:21436,动态:21740,动态:20399,动态:21756,动态:22698,动态:22680,动态:21763,动态:22692,动态:21745,动态:22702,动态:22688,动态:22019,动态:21975,动态:20440,动态:21972,动态:21753,动态:21857,动态:17337,动态:21727,动态:22659,动态:22697,动态:20364,动态:21741,动态:22512,动态:22706,动态:7746,动态:22710,动态:20439,动态:21780,动态:20720,动态:21737,动态:22684</t>
+          <t>动态:20440,动态:22323,动态:22685,动态:22680,动态:22706,动态:22019,动态:21757,动态:22697,动态:22696,动态:21972,动态:21763,动态:22702,动态:22667,动态:20439,动态:22692,动态:20364,动态:21753,动态:22710,动态:21975,动态:22688,动态:22699,动态:21740,动态:21737,动态:21745,动态:7746,动态:21780,动态:17337,动态:22146,动态:4036,动态:21857,动态:21436,动态:21741,动态:21756,动态:22684,动态:21727,动态:21556,动态:20399,动态:22512,动态:21776,动态:22659,动态:22698,动态:20720,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>动态:22685,动态:7746,动态:21737,动态:20720,动态:22684,动态:22146,动态:22697,动态:22710,动态:20440,动态:20399,动态:22702,动态:21776,动态:22680,动态:22507,动态:21975,动态:22698,动态:21757,动态:22699,动态:22659,动态:4036,动态:22706,动态:17337,动态:22696,动态:21727,动态:21745,动态:22667,动态:21740,动态:21753,动态:20364,动态:21741,动态:21756,动态:21780,动态:21972,动态:21556,动态:21436,动态:20439,动态:22323,动态:21763,动态:22512,动态:22692,动态:21857,动态:22688,动态:22019</t>
+          <t>动态:22692,动态:21776,动态:20720,动态:21556,动态:21741,动态:7746,动态:20440,动态:22702,动态:21740,动态:22680,动态:22146,动态:20399,动态:22507,动态:22685,动态:21737,动态:22323,动态:22696,动态:21975,动态:21727,动态:21753,动态:17337,动态:22698,动态:21857,动态:21780,动态:22667,动态:22697,动态:21756,动态:21745,动态:21436,动态:22659,动态:22706,动态:22019,动态:22699,动态:22684,动态:22710,动态:21757,动态:20439,动态:4036,动态:22688,动态:21972,动态:21763,动态:22512,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:22019,动态:21975,动态:21757,动态:22702,动态:20439,动态:20364,动态:22146,动态:21756,动态:21972,动态:20399,动态:22680,动态:22684,动态:21753,动态:22692,动态:21780,动态:22706,动态:22699,动态:22685,动态:21740,动态:22696,动态:21763,动态:20720,动态:21745,动态:21436,动态:21741,动态:22710,动态:22323,动态:22507,动态:22512,动态:21857,动态:22667,动态:21556,动态:21737,动态:22659,动态:7746,动态:20440,动态:22698,动态:21776,动态:4036,动态:22697,动态:22688,动态:21727,动态:17337</t>
+          <t>动态:22692,动态:22146,动态:21727,动态:20720,动态:22684,动态:20439,动态:21753,动态:22512,动态:21975,动态:21972,动态:22710,动态:22699,动态:20399,动态:20364,动态:22667,动态:21756,动态:21780,动态:21745,动态:22706,动态:22659,动态:22323,动态:22680,动态:22698,动态:21757,动态:22685,动态:22702,动态:21556,动态:21763,动态:21776,动态:21857,动态:17337,动态:22019,动态:22688,动态:22696,动态:21741,动态:7746,动态:20440,动态:21436,动态:22697,动态:22507,动态:21737,动态:4036,动态:21740</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21763,动态:17337,动态:20440,动态:21975,动态:21745,动态:20364,动态:20399,动态:21753,动态:22323,动态:21857,动态:20720,动态:21756,动态:22684,动态:21780,动态:22710,动态:22706,动态:21776,动态:22685,动态:22667,动态:22697,动态:22680,动态:22688,动态:22019,动态:21972,动态:22698,动态:21556,动态:22696,动态:21436,动态:22512,动态:21737,动态:22699,动态:21740,动态:21757,动态:21727,动态:20439,动态:22659,动态:22692,动态:22146,动态:22702,动态:22507</t>
+          <t>动态:22702,动态:20439,动态:21757,动态:22688,动态:21776,动态:21756,动态:22680,动态:21780,动态:22698,动态:22019,动态:21741,动态:22699,动态:21972,动态:17337,动态:22696,动态:21763,动态:20720,动态:21745,动态:21436,动态:22684,动态:21740,动态:22323,动态:22507,动态:22667,动态:22692,动态:22706,动态:21753,动态:22512,动态:22146,动态:22710,动态:22685,动态:20440,动态:22659,动态:21857,动态:22697,动态:20399,动态:20364,动态:21556,动态:21975,动态:21737,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:22706,动态:22702,动态:22667,动态:21857,动态:21740,动态:21753,动态:22696,动态:22146,动态:4036,动态:21436,动态:20440,动态:21776,动态:22323,动态:21975,动态:21757,动态:22699,动态:20720,动态:21727,动态:17337,动态:22512,动态:21756,动态:22684,动态:22688,动态:7746,动态:21780,动态:21737,动态:20439,动态:22019,动态:21745,动态:21972,动态:22507,动态:22659,动态:20399,动态:21741,动态:21556,动态:22692,动态:22680,动态:22685,动态:22698,动态:22697,动态:21763,动态:22710,动态:20364</t>
+          <t>动态:21727,动态:20364,动态:22680,动态:22684,动态:20439,动态:22685,动态:21972,动态:22697,动态:21763,动态:22710,动态:21757,动态:20440,动态:21740,动态:4036,动态:22146,动态:21776,动态:22696,动态:20399,动态:21857,动态:21756,动态:21556,动态:17337,动态:21436,动态:22019,动态:22323,动态:7746,动态:21975,动态:22692,动态:22706,动态:22667,动态:22699,动态:22688,动态:22702,动态:20720,动态:21780,动态:21737,动态:21745,动态:21741,动态:22507,动态:21753,动态:22698,动态:22512,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21776,动态:21780,动态:22667,动态:22685,动态:21975,动态:20399,动态:21972,动态:21757,动态:21556,动态:21740,动态:22702,动态:21756,动态:22507,动态:21857,动态:20720,动态:17337,动态:21745,动态:22684,动态:22659,动态:22692,动态:20364,动态:4036,动态:22710,动态:22512,动态:22696,动态:22706,动态:22019,动态:21436,动态:20440,动态:21737,动态:21753,动态:22697,动态:22323,动态:21763,动态:22698,动态:22699,动态:21727,动态:22680,动态:7746,动态:21741,动态:20439,动态:22688</t>
+          <t>动态:22696,动态:22507,动态:22692,动态:21972,动态:20364,动态:22512,动态:4036,动态:22323,动态:21436,动态:21756,动态:21740,动态:22685,动态:21727,动态:22688,动态:22146,动态:22667,动态:22684,动态:21737,动态:21975,动态:21857,动态:22698,动态:7746,动态:20440,动态:22019,动态:22697,动态:17337,动态:20399,动态:21753,动态:22706,动态:22702,动态:20720,动态:21556,动态:21780,动态:21763,动态:22680,动态:22710,动态:21757,动态:22659,动态:21776,动态:21741,动态:20439,动态:21745,动态:22699</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>动态:21436,动态:20720,动态:21857,动态:22019,动态:21727,动态:21740,动态:21737,动态:7746,动态:21756,动态:4036,动态:22512,动态:21763,动态:21975,动态:22146,动态:20399,动态:21741,动态:21745,动态:20364,动态:21776,动态:22659,动态:22685,动态:21556,动态:17337,动态:22692,动态:21780,动态:22706,动态:22684,动态:22710,动态:22702,动态:22507,动态:22697,动态:22696,动态:21757,动态:22698,动态:22680,动态:21972,动态:21753,动态:22667,动态:22688,动态:22323,动态:22699</t>
+          <t>动态:7746,动态:22702,动态:22667,动态:22507,动态:22019,动态:21763,动态:22706,动态:17337,动态:22692,动态:21436,动态:21741,动态:21756,动态:21972,动态:21745,动态:22710,动态:22698,动态:21776,动态:20720,动态:21737,动态:22684,动态:22697,动态:22696,动态:22685,动态:22688,动态:22323,动态:21975,动态:20399,动态:22512,动态:21780,动态:4036,动态:21556,动态:21857,动态:20364,动态:21727,动态:22146,动态:22659,动态:21757,动态:22699,动态:21753,动态:21740,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>动态:22019,动态:20364,动态:21780,动态:21740,动态:22512,动态:22692,动态:22699,动态:22698,动态:22702,动态:22323,动态:22659,动态:22684,动态:22710,动态:21753,动态:21857,动态:20720,动态:21757,动态:22507,动态:21737,动态:22146,动态:22680,动态:4036,动态:21972,动态:20399,动态:21727,动态:21745,动态:22697,动态:22688,动态:21556,动态:22685,动态:22706,动态:20439,动态:21436,动态:21756,动态:7746,动态:21776,动态:22667,动态:21975,动态:22696,动态:21741,动态:17337,动态:21763</t>
+          <t>动态:22323,动态:21727,动态:21753,动态:21780,动态:21763,动态:22507,动态:22697,动态:21756,动态:20399,动态:21737,动态:22698,动态:22706,动态:21745,动态:7746,动态:22696,动态:21741,动态:22667,动态:22702,动态:21975,动态:22659,动态:22512,动态:21857,动态:21757,动态:20439,动态:20720,动态:21556,动态:17337,动态:21776,动态:22692,动态:22146,动态:22680,动态:21972,动态:22684,动态:20364,动态:22019,动态:21740,动态:4036,动态:22688,动态:21436,动态:22699,动态:22685,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22659,动态:21763,动态:20399,动态:21776,动态:22688,动态:22706,动态:21737,动态:22507,动态:22696,动态:21727,动态:21857,动态:22685,动态:20364,动态:22680,动态:22019,动态:22692,动态:21436,动态:21757,动态:21756,动态:22702,动态:21975,动态:22667,动态:7746,动态:17337,动态:20440,动态:22697,动态:22684,动态:21753,动态:20720,动态:21556,动态:4036,动态:21745,动态:22512,动态:20439,动态:21780,动态:22698,动态:21972,动态:22146,动态:22710,动态:21740,动态:22699,动态:22323</t>
+          <t>动态:22684,动态:21776,动态:21740,动态:22702,动态:22697,动态:21757,动态:21737,动态:21975,动态:22667,动态:22692,动态:22706,动态:20364,动态:21763,动态:22507,动态:21727,动态:22659,动态:22019,动态:20440,动态:21756,动态:22146,动态:20720,动态:21556,动态:22323,动态:22698,动态:21741,动态:21745,动态:21857,动态:21780,动态:22680,动态:20439,动态:22685,动态:21972,动态:22710,动态:21753,动态:22512,动态:7746,动态:21436,动态:22699,动态:4036,动态:17337,动态:20399,动态:22696,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:20837,动态:12901,动态:18075,动态:6522,动态:12898,动态:20672,动态:12719,动态:12690,动态:21417,动态:17582,动态:8128,动态:20673,动态:12896,动态:12727,动态:12589,动态:18325,动态:12595,动态:12593,动态:12592,动态:18314,动态:12711,动态:20089,动态:22667,动态:16607,动态:19783,动态:22707,动态:22708,动态:20310,动态:20200,动态:7062,动态:18868,动态:6622,动态:19208,动态:18871,动态:19007,动态:16821,动态:16602,动态:19995,动态:19829,动态:16385,动态:19935,动态:16395,动态:16401,动态:6472,动态:20005,动态:17625,动态:6691,动态:7124,动态:19469,动态:19821</t>
+          <t>动态:20837,动态:12901,动态:18075,动态:6522,动态:12898,动态:20672,动态:12719,动态:12690,动态:21417,动态:17582,动态:8128,动态:20673,动态:12896,动态:12727,动态:12589,动态:18325,动态:12595,动态:12593,动态:12592,动态:18314,动态:12711,动态:20089,动态:22667,动态:16607,动态:19783,动态:22707,动态:22708,动态:20310,动态:20200,动态:7062,动态:18868,动态:6622,动态:19208,动态:18871,动态:19007,动态:16821,动态:16602,动态:19995,动态:19829,动态:16385,动态:19935,动态:16395,动态:16401,动态:6472,动态:20005,动态:6637,动态:21970,动态:17471,动态:21757,动态:4302</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22659,动态:22692,动态:21857,动态:21972,动态:20720,动态:22698,动态:20439,动态:21556,动态:21763,动态:22323,动态:20440,动态:20399,动态:22667,动态:21737,动态:4036,动态:21756,动态:21780,动态:21740,动态:22507,动态:21727,动态:22680,动态:22684,动态:22697,动态:21757,动态:20364,动态:22696,动态:22699,动态:22512,动态:22706,动态:22702,动态:21753,动态:22710,动态:21975,动态:22688,动态:21741,动态:21776,动态:22685,动态:17337,动态:7746,动态:21436,动态:21745,动态:22146</t>
+          <t>动态:22019,动态:17337,动态:22698,动态:21975,动态:22699,动态:21727,动态:22512,动态:22685,动态:4036,动态:22323,动态:21757,动态:20439,动态:21741,动态:22146,动态:21763,动态:20720,动态:21972,动态:22680,动态:21436,动态:21857,动态:20399,动态:21756,动态:22684,动态:21745,动态:20364,动态:21556,动态:22710,动态:22706,动态:22507,动态:21776,动态:22702,动态:22688,动态:22697,动态:7746,动态:21740,动态:21753,动态:21737,动态:21780,动态:22667,动态:20440,动态:22692,动态:22696,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21975,动态:21740,动态:22680,动态:21745,动态:22659,动态:22019,动态:21556,动态:21776,动态:22685,动态:22512,动态:21741,动态:20364,动态:21737,动态:22692,动态:22702,动态:22684,动态:22698,动态:20720,动态:22710,动态:22688,动态:22667,动态:22697,动态:21757,动态:22706,动态:21756,动态:21727,动态:22696,动态:21436,动态:22507,动态:20440,动态:4036,动态:21780,动态:22699,动态:21753,动态:21857,动态:21763,动态:20439,动态:17337,动态:22146,动态:20399,动态:22323,动态:7746</t>
+          <t>动态:20399,动态:22698,动态:21737,动态:22019,动态:20364,动态:22696,动态:22146,动态:21757,动态:22685,动态:20440,动态:20439,动态:21753,动态:21556,动态:21436,动态:21740,动态:22323,动态:21780,动态:21745,动态:22507,动态:21857,动态:22697,动态:22684,动态:21763,动态:7746,动态:21727,动态:22699,动态:22702,动态:22706,动态:4036,动态:22692,动态:21972,动态:17337,动态:22710,动态:22512,动态:22680,动态:22667,动态:22688,动态:21776,动态:21741,动态:20720,动态:22659,动态:21975,动态:21756</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22706,动态:22688,动态:22146,动态:21757,动态:21556,动态:22692,动态:21436,动态:22512,动态:21780,动态:22699,动态:21975,动态:21737,动态:22019,动态:22684,动态:20439,动态:21776,动态:21753,动态:4036,动态:21745,动态:22697,动态:22696,动态:22698,动态:22667,动态:20364,动态:21727,动态:22659,动态:22710,动态:21740,动态:7746,动态:21972,动态:20440,动态:22702,动态:17337,动态:22685,动态:20399,动态:20720,动态:22507,动态:22323,动态:21857,动态:22680,动态:21763,动态:21741</t>
+          <t>动态:17337,动态:22323,动态:21972,动态:22698,动态:21756,动态:21753,动态:22696,动态:21776,动态:21741,动态:22685,动态:22697,动态:4036,动态:20440,动态:21737,动态:21436,动态:21556,动态:20439,动态:20399,动态:21780,动态:22019,动态:22680,动态:22659,动态:21757,动态:22146,动态:21727,动态:22667,动态:22706,动态:20720,动态:22512,动态:21975,动态:22692,动态:20364,动态:22699,动态:21857,动态:7746,动态:22702,动态:21745,动态:21740,动态:22684,动态:22507,动态:22710,动态:21763,动态:22688</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:22699,动态:7746,动态:22685,动态:21756,动态:22507,动态:21975,动态:22146,动态:21763,动态:21757,动态:20364,动态:21740,动态:21741,动态:22019,动态:22710,动态:22706,动态:22323,动态:21776,动态:21857,动态:21556,动态:17337,动态:20439,动态:21737,动态:21436,动态:21972,动态:21780,动态:22698,动态:22696,动态:21753,动态:21745,动态:20399,动态:22684,动态:22692,动态:22659,动态:22702,动态:22688,动态:22512,动态:22697,动态:20440,动态:20720,动态:22667,动态:21727,动态:4036,动态:22680</t>
+          <t>动态:21741,动态:22512,动态:21972,动态:22685,动态:21757,动态:21740,动态:21857,动态:21737,动态:22710,动态:21556,动态:22697,动态:7746,动态:22507,动态:22684,动态:22698,动态:22692,动态:21753,动态:22706,动态:22323,动态:20720,动态:21745,动态:22019,动态:20364,动态:22680,动态:20440,动态:20399,动态:17337,动态:22667,动态:22699,动态:21436,动态:21776,动态:21780,动态:21727,动态:22702,动态:22146,动态:21975,动态:20439,动态:4036,动态:22696,动态:22688,动态:21756,动态:21763,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:21780,动态:20364,动态:21756,动态:21757,动态:22710,动态:22019,动态:22684,动态:21776,动态:20439,动态:22685,动态:21763,动态:21436,动态:21727,动态:22696,动态:22702,动态:21972,动态:4036,动态:21745,动态:21740,动态:20440,动态:22697,动态:22507,动态:22692,动态:22667,动态:21741,动态:20399,动态:21737,动态:21857,动态:22680,动态:20720,动态:22698,动态:22706,动态:21753,动态:22688,动态:21556,动态:22699,动态:22512,动态:7746,动态:22146,动态:21975,动态:22323,动态:22659,动态:17337</t>
+          <t>动态:21745,动态:22688,动态:22698,动态:21753,动态:21757,动态:17337,动态:22692,动态:22667,动态:22706,动态:4036,动态:20364,动态:22699,动态:20720,动态:7746,动态:22697,动态:21776,动态:21975,动态:21972,动态:22685,动态:21857,动态:22323,动态:22684,动态:21740,动态:20440,动态:22507,动态:21763,动态:21741,动态:22696,动态:21780,动态:20399,动态:22019,动态:22710,动态:21756,动态:22702,动态:21436,动态:22512,动态:21556,动态:22659,动态:21727,动态:20439,动态:21737,动态:22146,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21972,动态:22667,动态:22512,动态:20439,动态:22706,动态:21727,动态:7746,动态:22680,动态:22659,动态:22323,动态:22698,动态:21737,动态:22702,动态:20440,动态:22146,动态:22697,动态:21757,动态:21776,动态:21745,动态:20364,动态:21741,动态:22696,动态:21763,动态:22019,动态:21857,动态:22684,动态:21753,动态:21556,动态:17337,动态:21740,动态:20399,动态:22710,动态:21975,动态:22688,动态:21436,动态:21780,动态:22685,动态:22507,动态:20720,动态:22692,动态:22699,动态:4036</t>
+          <t>动态:20440,动态:22692,动态:20364,动态:21745,动态:22512,动态:21972,动态:21975,动态:4036,动态:22146,动态:20439,动态:22667,动态:22688,动态:22323,动态:22706,动态:21757,动态:21753,动态:22696,动态:22680,动态:21741,动态:21737,动态:17337,动态:21763,动态:21436,动态:22685,动态:22659,动态:22699,动态:21857,动态:21740,动态:21776,动态:22684,动态:22710,动态:21556,动态:20399,动态:22698,动态:21756,动态:20720,动态:22697,动态:21727,动态:7746,动态:22507,动态:22702,动态:21780,动态:22019</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22512,动态:21756,动态:7746,动态:22507,动态:22692,动态:22688,动态:17337,动态:21753,动态:22702,动态:21972,动态:22323,动态:21436,动态:4036,动态:21763,动态:22659,动态:21727,动态:22710,动态:22680,动态:22019,动态:21740,动态:22667,动态:22146,动态:22684,动态:21780,动态:20439,动态:22699,动态:21776,动态:22697,动态:21737,动态:21745,动态:22706,动态:21556,动态:21975,动态:22696,动态:22685,动态:20364,动态:22698,动态:21741,动态:20440,动态:21857,动态:20399,动态:21757</t>
+          <t>动态:21745,动态:21975,动态:21780,动态:22698,动态:21436,动态:22667,动态:21763,动态:22507,动态:21740,动态:17337,动态:20720,动态:22696,动态:21756,动态:22688,动态:22684,动态:20440,动态:21556,动态:22512,动态:21972,动态:20399,动态:4036,动态:22659,动态:22702,动态:21727,动态:22323,动态:20439,动态:21741,动态:21737,动态:22146,动态:22699,动态:7746,动态:20364,动态:22710,动态:21776,动态:22685,动态:22019,动态:22697,动态:21757,动态:22706,动态:21857,动态:21753,动态:22680,动态:22692</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>动态:20399,动态:21753,动态:22507,动态:21857,动态:21556,动态:22680,动态:4036,动态:22697,动态:22146,动态:20439,动态:22512,动态:20720,动态:21975,动态:21436,动态:22684,动态:22692,动态:21776,动态:20364,动态:22702,动态:21741,动态:22706,动态:21763,动态:22688,动态:21727,动态:21972,动态:22019,动态:21756,动态:22685,动态:17337,动态:22699,动态:21757,动态:21740,动态:7746,动态:21737,动态:22710,动态:21780,动态:22698,动态:20440,动态:22323,动态:22696,动态:22667,动态:22659,动态:21745</t>
+          <t>动态:21757,动态:20439,动态:17337,动态:22699,动态:7746,动态:21737,动态:22685,动态:22688,动态:22710,动态:22684,动态:22697,动态:22507,动态:22692,动态:22323,动态:21763,动态:20720,动态:21436,动态:22698,动态:21745,动态:22146,动态:21972,动态:22667,动态:22512,动态:22019,动态:21857,动态:21740,动态:20399,动态:21556,动态:22696,动态:21776,动态:22702,动态:21741,动态:22706,动态:4036,动态:21756,动态:22659,动态:21753,动态:20364,动态:21727,动态:22680,动态:21975,动态:20440,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:22699,动态:20364,动态:21737,动态:21975,动态:4036,动态:22702,动态:21763,动态:22706,动态:21727,动态:17337,动态:22667,动态:22697,动态:21556,动态:21753,动态:20439,动态:21972,动态:21756,动态:22512,动态:21776,动态:21745,动态:21436,动态:22659,动态:22685,动态:22684,动态:22696,动态:22710,动态:21741,动态:21757,动态:20440,动态:21780,动态:20399,动态:22323,动态:21740,动态:21857,动态:22698,动态:22146,动态:22688,动态:20720,动态:22692,动态:22680,动态:22019,动态:22507,动态:7746</t>
+          <t>动态:20364,动态:22706,动态:21436,动态:22702,动态:21556,动态:22696,动态:21740,动态:22684,动态:22685,动态:22659,动态:21857,动态:21753,动态:22699,动态:21727,动态:21745,动态:21737,动态:21756,动态:20440,动态:22512,动态:21780,动态:20439,动态:17337,动态:21776,动态:21763,动态:21972,动态:22019,动态:22697,动态:22688,动态:22680,动态:20720,动态:22698,动态:22507,动态:22146,动态:21757,动态:22692,动态:4036,动态:21741,动态:22667,动态:22323,动态:7746,动态:20399,动态:21975,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:7746,动态:20440,动态:22692,动态:21756,动态:21763,动态:21776,动态:22146,动态:22667,动态:22684,动态:20439,动态:22698,动态:22699,动态:22702,动态:20720,动态:22696,动态:21753,动态:21745,动态:22680,动态:20399,动态:21436,动态:21780,动态:4036,动态:22697,动态:22706,动态:22688,动态:22019,动态:21741,动态:21740,动态:22685,动态:22512,动态:21727,动态:22710,动态:22507,动态:21975,动态:22659,动态:20364,动态:21972,动态:17337,动态:21737,动态:22323,动态:21857,动态:21556,动态:21757</t>
+          <t>动态:22698,动态:21972,动态:22146,动态:21741,动态:20439,动态:21556,动态:7746,动态:22684,动态:22702,动态:20440,动态:21753,动态:21975,动态:22019,动态:20720,动态:22667,动态:22699,动态:21757,动态:20364,动态:20399,动态:21763,动态:22323,动态:21436,动态:22685,动态:22659,动态:22697,动态:22688,动态:21776,动态:22696,动态:21745,动态:22706,动态:22512,动态:21740,动态:21780,动态:4036,动态:22692,动态:21727,动态:17337,动态:21737,动态:22680,动态:21756,动态:21857,动态:22710,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:22699,动态:21727,动态:21753,动态:22659,动态:21740,动态:20720,动态:21763,动态:22507,动态:22697,动态:21436,动态:21741,动态:22512,动态:21857,动态:7746,动态:20364,动态:21745,动态:21780,动态:22685,动态:21757,动态:22696,动态:21756,动态:20399,动态:22680,动态:21972,动态:22710,动态:20440,动态:20439,动态:22684,动态:22323,动态:22692,动态:17337,动态:21556,动态:4036,动态:21975,动态:22706,动态:22019,动态:22667,动态:22688,动态:22698,动态:21737,动态:22702,动态:21776,动态:22146</t>
+          <t>动态:22680,动态:22685,动态:22699,动态:21745,动态:17337,动态:22688,动态:21753,动态:22710,动态:22512,动态:22323,动态:22667,动态:4036,动态:21780,动态:22698,动态:21436,动态:22702,动态:7746,动态:21975,动态:21857,动态:21763,动态:21556,动态:22507,动态:22659,动态:20364,动态:20720,动态:22697,动态:20399,动态:21741,动态:22684,动态:22019,动态:21727,动态:21740,动态:21756,动态:21757,动态:21737,动态:22696,动态:21972,动态:21776,动态:22706,动态:22146,动态:22692,动态:20439,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21436,动态:22323,动态:21753,动态:17337,动态:22507,动态:21756,动态:22697,动态:20439,动态:21556,动态:4036,动态:21741,动态:21757,动态:22710,动态:20364,动态:21972,动态:7746,动态:22667,动态:20720,动态:22680,动态:21745,动态:22146,动态:21857,动态:21776,动态:22684,动态:22706,动态:22659,动态:21737,动态:20399,动态:22512,动态:22019,动态:21763,动态:22699,动态:22702,动态:22692,动态:22685,动态:21780,动态:22688,动态:20440,动态:21740,动态:21727,动态:22696,动态:21975</t>
+          <t>动态:22696,动态:21780,动态:20720,动态:21556,动态:21975,动态:20440,动态:21757,动态:21776,动态:21727,动态:21753,动态:22019,动态:21972,动态:21436,动态:20439,动态:7746,动态:22323,动态:22512,动态:17337,动态:22685,动态:21745,动态:22706,动态:22507,动态:22680,动态:22688,动态:21737,动态:22146,动态:21740,动态:22699,动态:21763,动态:22698,动态:22692,动态:21857,动态:22710,动态:21741,动态:22702,动态:4036,动态:22684,动态:22659,动态:22667,动态:22697,动态:21756,动态:20399,动态:20364</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21972,动态:21741,动态:21756,动态:22146,动态:22710,动态:22659,动态:20720,动态:22706,动态:21745,动态:20439,动态:22688,动态:4036,动态:21780,动态:7746,动态:21737,动态:20399,动态:21776,动态:21975,动态:22697,动态:21857,动态:22692,动态:22684,动态:22019,动态:22323,动态:21740,动态:20440,动态:22685,动态:22507,动态:22702,动态:21436,动态:20364,动态:22698,动态:21757,动态:22667,动态:21556,动态:22680,动态:21753,动态:22699,动态:22512,动态:21763,动态:22696,动态:17337</t>
+          <t>动态:22323,动态:22512,动态:21753,动态:22146,动态:21741,动态:21780,动态:22685,动态:22659,动态:4036,动态:22702,动态:21740,动态:22698,动态:21972,动态:22019,动态:21975,动态:22667,动态:22696,动态:22697,动态:21756,动态:21776,动态:20439,动态:21763,动态:21727,动态:20720,动态:22507,动态:22692,动态:22699,动态:21745,动态:7746,动态:20364,动态:21757,动态:17337,动态:21436,动态:22684,动态:21857,动态:21737,动态:22706,动态:22680,动态:21556,动态:20440,动态:22688,动态:20399,动态:22710</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:22710,动态:20399,动态:21727,动态:22699,动态:21436,动态:21740,动态:22688,动态:21737,动态:22507,动态:21556,动态:21972,动态:21745,动态:22685,动态:21741,动态:22702,动态:22680,动态:22684,动态:22692,动态:21780,动态:4036,动态:22667,动态:17337,动态:21857,动态:7746,动态:22323,动态:20364,动态:22696,动态:21757,动态:20720,动态:20439,动态:21753,动态:20440,动态:21776,动态:22706,动态:22019,动态:22146,动态:22512,动态:22697,动态:22659,动态:22698,动态:21763,动态:21975</t>
+          <t>动态:22692,动态:20440,动态:21737,动态:20364,动态:22680,动态:21556,动态:21763,动态:20439,动态:21436,动态:22019,动态:21753,动态:22706,动态:21740,动态:22512,动态:22684,动态:21727,动态:22688,动态:22659,动态:21972,动态:21975,动态:22698,动态:22323,动态:21745,动态:20399,动态:22699,动态:22710,动态:7746,动态:22697,动态:22696,动态:4036,动态:22685,动态:22667,动态:17337,动态:21857,动态:21757,动态:22146,动态:20720,动态:21780,动态:21776,动态:22702,动态:21741,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>动态:22664,动态:22658,动态:22146,动态:22609,动态:22642,动态:22625,动态:22659,动态:22657,动态:22654,动态:22656,动态:22653,动态:21737,动态:22019,动态:21740,动态:21763,动态:22710,动态:22692,动态:21741,动态:22680,动态:21753,动态:22688,动态:22512,动态:22702,动态:21727,动态:22507,动态:21757,动态:20440,动态:21972,动态:21975,动态:21436,动态:22698,动态:21556,动态:7746,动态:21857,动态:21776,动态:20439,动态:20399,动态:21756,动态:22684,动态:22706,动态:17337,动态:20720,动态:4036,动态:22697,动态:22699,动态:22323,动态:21745</t>
+          <t>动态:22664,动态:22658,动态:22146,动态:22609,动态:22642,动态:22625,动态:22659,动态:22657,动态:22654,动态:22656,动态:22653,动态:21737,动态:21857,动态:17337,动态:22710,动态:22667,动态:22684,动态:21436,动态:21780,动态:21757,动态:22680,动态:21740,动态:22019,动态:22323,动态:22702,动态:21745,动态:22692,动态:7746,动态:21727,动态:22706,动态:22697,动态:21975,动态:20440,动态:21741,动态:21763,动态:21972,动态:20399,动态:20364,动态:22698,动态:22685,动态:21753,动态:22507,动态:21776,动态:20720,动态:22696,动态:21556,动态:20439</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:20440,动态:21753,动态:21737,动态:21756,动态:22699,动态:22684,动态:20439,动态:22512,动态:20720,动态:22685,动态:22696,动态:21436,动态:22659,动态:17337,动态:22507,动态:21975,动态:22698,动态:22323,动态:21763,动态:21972,动态:22688,动态:22706,动态:21556,动态:22146,动态:22667,动态:7746,动态:21757,动态:21745,动态:21780,动态:21740,动态:21741,动态:22697,动态:21776,动态:22710,动态:22019,动态:4036,动态:21857,动态:20399,动态:22702,动态:21727,动态:20364,动态:22680,动态:22692</t>
+          <t>动态:20364,动态:22702,动态:22697,动态:21763,动态:21741,动态:21975,动态:21972,动态:17337,动态:21756,动态:21776,动态:22323,动态:22512,动态:22019,动态:22706,动态:4036,动态:22699,动态:22684,动态:21737,动态:22696,动态:7746,动态:21436,动态:20399,动态:22710,动态:22688,动态:22692,动态:20720,动态:22507,动态:22667,动态:22685,动态:21857,动态:20440,动态:21757,动态:21727,动态:21740,动态:21753,动态:21556,动态:22680,动态:22659,动态:20439,动态:22698,动态:22146,动态:21745,动态:21780</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:21757,动态:22659,动态:22702,动态:22146,动态:22684,动态:21727,动态:21745,动态:22710,动态:21556,动态:7746,动态:21776,动态:22692,动态:22696,动态:21753,动态:21780,动态:21740,动态:20439,动态:22697,动态:22507,动态:22688,动态:22019,动态:21975,动态:21857,动态:22685,动态:21972,动态:22698,动态:21741,动态:21737,动态:22699,动态:20720,动态:20399,动态:20440,动态:20364,动态:17337,动态:22667,动态:4036,动态:21436,动态:22706,动态:22680,动态:21756,动态:22323,动态:21763,动态:22512</t>
+          <t>动态:22697,动态:22323,动态:22659,动态:21753,动态:20720,动态:21745,动态:22684,动态:21757,动态:21776,动态:20364,动态:22706,动态:22710,动态:21780,动态:21972,动态:22680,动态:21436,动态:21975,动态:22685,动态:21857,动态:21737,动态:22696,动态:22512,动态:21556,动态:4036,动态:22692,动态:22699,动态:22702,动态:22688,动态:21727,动态:20440,动态:22667,动态:21756,动态:22019,动态:20399,动态:21763,动态:20439,动态:7746,动态:22698,动态:22146,动态:21740,动态:22507,动态:17337,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:21972,动态:22659,动态:22697,动态:22696,动态:21741,动态:21757,动态:21727,动态:21857,动态:22710,动态:20720,动态:21780,动态:20439,动态:22146,动态:22698,动态:21556,动态:22019,动态:22699,动态:22667,动态:22507,动态:21740,动态:21763,动态:22692,动态:20399,动态:21737,动态:22684,动态:21975,动态:22702,动态:7746,动态:4036,动态:20440,动态:22688,动态:20364,动态:22323,动态:21756,动态:21753,动态:22680,动态:21745,动态:17337,动态:21436,动态:22512,动态:21776,动态:22685,动态:22706</t>
+          <t>动态:22323,动态:20364,动态:21753,动态:21741,动态:22146,动态:22692,动态:21556,动态:21740,动态:22512,动态:22685,动态:21756,动态:22688,动态:21776,动态:22684,动态:22697,动态:20439,动态:22702,动态:17337,动态:22680,动态:20399,动态:20440,动态:4036,动态:22706,动态:22710,动态:21737,动态:22699,动态:22507,动态:21757,动态:21975,动态:22698,动态:22019,动态:22696,动态:21763,动态:21780,动态:22659,动态:22667,动态:21857,动态:21436,动态:21745,动态:21972,动态:21727,动态:7746,动态:20720</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21753,动态:21780,动态:21756,动态:22692,动态:21737,动态:22512,动态:22697,动态:21972,动态:22710,动态:22659,动态:22699,动态:21776,动态:21556,动态:21740,动态:20364,动态:20399,动态:21436,动态:22696,动态:20720,动态:21727,动态:22698,动态:22684,动态:20439,动态:21745,动态:4036,动态:21975,动态:22507,动态:22323,动态:21741,动态:22146,动态:22685,动态:22702,动态:21757,动态:22667,动态:21857,动态:22019,动态:7746,动态:22706,动态:22688,动态:17337,动态:20440,动态:22680</t>
+          <t>动态:22685,动态:21972,动态:22688,动态:21780,动态:22698,动态:22146,动态:22667,动态:22507,动态:20364,动态:22710,动态:22699,动态:20399,动态:21436,动态:22697,动态:22684,动态:21741,动态:20439,动态:21556,动态:22019,动态:21745,动态:22512,动态:21753,动态:21737,动态:21740,动态:17337,动态:22323,动态:20440,动态:21857,动态:22706,动态:22659,动态:22702,动态:22692,动态:21975,动态:22696,动态:20720,动态:21756,动态:21763,动态:7746,动态:21727,动态:4036,动态:22680,动态:21776,动态:21757</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22667,动态:21776,动态:22684,动态:22323,动态:22696,动态:22685,动态:22698,动态:4036,动态:22680,动态:22019,动态:21753,动态:20439,动态:21857,动态:22507,动态:22146,动态:21780,动态:22688,动态:22512,动态:22706,动态:21727,动态:21741,动态:21763,动态:21975,动态:22699,动态:21436,动态:20399,动态:21972,动态:17337,动态:22692,动态:21745,动态:20720,动态:21757,动态:22697,动态:21740,动态:22710,动态:22659,动态:20440,动态:22702,动态:7746</t>
+          <t>动态:21756,动态:21776,动态:17337,动态:7746,动态:22698,动态:21972,动态:22696,动态:4036,动态:22710,动态:22323,动态:20440,动态:22692,动态:22146,动态:20399,动态:21857,动态:21436,动态:22706,动态:20720,动态:21727,动态:22688,动态:21757,动态:22659,动态:22702,动态:21975,动态:22667,动态:21780,动态:22684,动态:21753,动态:22685,动态:22699,动态:22680,动态:22512,动态:21763,动态:21740,动态:21741,动态:22697,动态:22019,动态:22507,动态:21745,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21972,动态:21436,动态:7746,动态:21741,动态:21975,动态:22507,动态:22323,动态:21737,动态:22696,动态:22706,动态:22659,动态:22698,动态:20720,动态:22684,动态:21745,动态:21757,动态:21776,动态:22692,动态:20399,动态:22667,动态:21556,动态:22702,动态:22512,动态:22680,动态:20440,动态:20439,动态:22146,动态:21740,动态:22685,动态:22688,动态:22699,动态:4036,动态:22019,动态:21753,动态:21857,动态:22710,动态:20364,动态:22697,动态:21756,动态:21727,动态:21780,动态:17337</t>
+          <t>动态:21727,动态:22507,动态:22659,动态:21436,动态:22680,动态:21857,动态:21740,动态:22685,动态:21972,动态:21753,动态:22146,动态:21757,动态:21556,动态:20720,动态:22323,动态:22512,动态:22706,动态:20399,动态:22667,动态:7746,动态:22697,动态:21737,动态:22019,动态:20440,动态:22684,动态:20364,动态:22702,动态:21741,动态:21745,动态:21756,动态:22710,动态:21975,动态:22698,动态:22699,动态:22692,动态:21780,动态:21776,动态:22688,动态:21763,动态:4036,动态:17337,动态:20439,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21741,动态:21727,动态:22019,动态:4036,动态:21753,动态:20439,动态:22680,动态:22702,动态:22710,动态:20364,动态:21737,动态:21740,动态:21436,动态:22659,动态:22323,动态:17337,动态:21972,动态:22699,动态:7746,动态:20720,动态:22667,动态:22706,动态:21745,动态:22512,动态:21780,动态:21757,动态:22688,动态:22684,动态:22507,动态:20399,动态:21556,动态:22692,动态:21776,动态:22696,动态:20440,动态:22698,动态:21763,动态:22685,动态:21857,动态:22697,动态:21975,动态:21756</t>
+          <t>动态:22710,动态:20720,动态:21727,动态:22697,动态:22019,动态:17337,动态:21857,动态:21780,动态:21757,动态:22685,动态:22507,动态:21776,动态:22699,动态:22692,动态:20439,动态:21556,动态:21756,动态:22696,动态:21737,动态:21975,动态:22680,动态:22688,动态:22667,动态:20440,动态:4036,动态:21972,动态:22706,动态:22698,动态:21740,动态:7746,动态:22702,动态:22512,动态:21745,动态:22146,动态:22323,动态:21436,动态:22659,动态:21753,动态:22684,动态:21741,动态:20399,动态:21763,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:22512,动态:21556,动态:21753,动态:22507,动态:22688,动态:21740,动态:22019,动态:21436,动态:21745,动态:4036,动态:22697,动态:20440,动态:22323,动态:21972,动态:21780,动态:21975,动态:20364,动态:21741,动态:22667,动态:17337,动态:22692,动态:22710,动态:22699,动态:20439,动态:22706,动态:7746,动态:20399,动态:22698,动态:20720,动态:22702,动态:22685,动态:22680,动态:21737,动态:21756,动态:21757,动态:21857,动态:21727,动态:21763,动态:22696,动态:21776,动态:22146,动态:22659,动态:22684</t>
+          <t>动态:21975,动态:22680,动态:22706,动态:21556,动态:21737,动态:21745,动态:22019,动态:20364,动态:22667,动态:22692,动态:4036,动态:21436,动态:21857,动态:21757,动态:22146,动态:22696,动态:20399,动态:20440,动态:22512,动态:20439,动态:22685,动态:21740,动态:21763,动态:21780,动态:21972,动态:22702,动态:22684,动态:22698,动态:21753,动态:22699,动态:7746,动态:22710,动态:21741,动态:22688,动态:21756,动态:17337,动态:21776,动态:22323,动态:22697,动态:22659,动态:20720,动态:22507,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21753,动态:21741,动态:21975,动态:22659,动态:4036,动态:20440,动态:22507,动态:22685,动态:20720,动态:22667,动态:22702,动态:20364,动态:21780,动态:21857,动态:22699,动态:7746,动态:22710,动态:22697,动态:21745,动态:22512,动态:17337,动态:21757,动态:21972,动态:22323,动态:22706,动态:21776,动态:21556,动态:21737,动态:22692,动态:21727,动态:21756,动态:22688,动态:22146,动态:22696,动态:20399,动态:22698,动态:22019,动态:22680,动态:21763,动态:21740,动态:20439,动态:21436</t>
+          <t>动态:21757,动态:22706,动态:21727,动态:22146,动态:22659,动态:22680,动态:20440,动态:21975,动态:22507,动态:22692,动态:22702,动态:22697,动态:21745,动态:20439,动态:20364,动态:22698,动态:21763,动态:22323,动态:21740,动态:22710,动态:22512,动态:21776,动态:17337,动态:22688,动态:21741,动态:22685,动态:21556,动态:7746,动态:22667,动态:21753,动态:21780,动态:22699,动态:20399,动态:22684,动态:21737,动态:20720,动态:21756,动态:21857,动态:22019,动态:21436,动态:4036,动态:22696,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:21975,动态:20440,动态:21727,动态:22667,动态:21756,动态:21745,动态:22706,动态:22685,动态:21741,动态:20364,动态:22698,动态:22512,动态:22680,动态:22019,动态:22696,动态:4036,动态:21436,动态:22699,动态:22692,动态:21972,动态:22710,动态:17337,动态:21857,动态:22684,动态:20399,动态:21753,动态:20439,动态:7746,动态:22507,动态:21740,动态:22323,动态:21556,动态:20720,动态:22702,动态:22659,动态:21757,动态:22688,动态:22146,动态:21737,动态:21780,动态:21776,动态:22697,动态:21763</t>
+          <t>动态:21740,动态:22323,动态:21763,动态:22019,动态:21741,动态:20720,动态:21975,动态:21737,动态:22685,动态:4036,动态:22688,动态:21776,动态:22667,动态:21745,动态:22696,动态:22507,动态:21436,动态:21556,动态:21972,动态:22680,动态:20399,动态:22706,动态:21753,动态:22697,动态:22710,动态:22692,动态:21756,动态:17337,动态:22512,动态:21780,动态:22659,动态:7746,动态:21857,动态:21727,动态:22146,动态:21757,动态:20364,动态:20439,动态:22699,动态:22684,动态:22702,动态:20440,动态:22698</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22698,动态:21756,动态:22688,动态:21757,动态:21857,动态:22692,动态:20440,动态:20364,动态:22710,动态:21780,动态:22323,动态:21753,动态:21727,动态:22702,动态:22684,动态:21763,动态:7746,动态:21975,动态:22146,动态:22680,动态:22699,动态:22659,动态:22696,动态:22697,动态:21776,动态:22507,动态:17337,动态:20439,动态:22512,动态:21745,动态:20720,动态:22685,动态:21741,动态:22667,动态:21556,动态:21436,动态:22706,动态:20399,动态:21740,动态:4036,动态:21737,动态:21972</t>
+          <t>动态:22659,动态:21753,动态:22697,动态:21436,动态:22019,动态:20440,动态:20364,动态:22667,动态:22146,动态:21975,动态:21780,动态:22706,动态:17337,动态:22507,动态:20399,动态:7746,动态:20720,动态:21763,动态:21556,动态:21737,动态:22512,动态:21857,动态:21756,动态:22688,动态:20439,动态:21740,动态:4036,动态:22696,动态:22692,动态:22684,动态:21741,动态:22680,动态:22699,动态:21972,动态:22698,动态:21727,动态:22710,动态:21745,动态:22323,动态:22702,动态:22685,动态:21776,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22323,动态:20440,动态:21776,动态:20439,动态:21756,动态:22688,动态:20364,动态:22697,动态:22685,动态:22696,动态:22684,动态:21757,动态:20399,动态:22146,动态:22702,动态:21745,动态:22659,动态:21740,动态:22507,动态:22698,动态:21436,动态:22699,动态:17337,动态:21753,动态:21737,动态:21727,动态:21763,动态:22512,动态:21975,动态:21741,动态:22692,动态:22667,动态:22680,动态:20720,动态:22710,动态:22706,动态:21857,动态:4036,动态:21556,动态:22019,动态:21972,动态:21780</t>
+          <t>动态:21763,动态:22688,动态:22146,动态:20439,动态:22706,动态:20440,动态:22697,动态:21756,动态:22667,动态:21740,动态:21972,动态:17337,动态:22692,动态:21745,动态:22659,动态:22019,动态:20720,动态:21776,动态:20399,动态:21737,动态:22684,动态:22699,动态:21727,动态:22507,动态:21556,动态:21780,动态:21436,动态:22323,动态:21975,动态:22685,动态:22710,动态:22512,动态:21753,动态:21757,动态:22702,动态:21741,动态:20364,动态:7746,动态:22696,动态:21857,动态:22680,动态:22698,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22710,动态:21857,动态:22685,动态:22323,动态:21436,动态:21740,动态:22667,动态:21753,动态:21741,动态:22702,动态:20364,动态:22699,动态:4036,动态:21972,动态:7746,动态:20440,动态:17337,动态:21780,动态:22146,动态:22659,动态:22697,动态:22688,动态:21745,动态:22507,动态:22684,动态:21757,动态:20439,动态:22706,动态:22019,动态:21556,动态:21763,动态:21756,动态:21776,动态:22692,动态:20399,动态:21737,动态:22680,动态:22696,动态:22512,动态:21727,动态:22698,动态:20720</t>
+          <t>动态:22710,动态:21756,动态:22706,动态:21753,动态:20439,动态:21737,动态:21776,动态:21763,动态:22684,动态:21556,动态:4036,动态:22667,动态:7746,动态:20720,动态:22659,动态:21741,动态:22680,动态:22685,动态:21780,动态:20399,动态:17337,动态:22697,动态:21757,动态:21975,动态:21727,动态:22512,动态:22692,动态:22146,动态:21745,动态:22696,动态:21857,动态:22019,动态:22323,动态:20364,动态:20440,动态:22699,动态:22688,动态:22507,动态:21740,动态:21436,动态:22698,动态:21972,动态:22702</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22146,动态:22696,动态:7746,动态:21763,动态:17337,动态:22699,动态:4036,动态:21740,动态:22684,动态:22019,动态:22710,动态:22659,动态:22692,动态:22507,动态:22697,动态:22688,动态:21753,动态:20720,动态:21727,动态:22667,动态:21737,动态:20439,动态:21436,动态:20399,动态:21556,动态:22685,动态:21780,动态:22512,动态:22702,动态:21757,动态:22323,动态:20440,动态:21972,动态:20364,动态:22698,动态:21857,动态:22706,动态:21741,动态:21756,动态:21975,动态:21776,动态:21745</t>
+          <t>动态:20440,动态:20720,动态:17337,动态:21972,动态:22698,动态:21857,动态:22685,动态:22019,动态:22323,动态:22684,动态:21757,动态:21780,动态:20364,动态:22696,动态:7746,动态:21740,动态:21753,动态:21975,动态:22702,动态:21776,动态:21741,动态:21745,动态:21436,动态:21556,动态:4036,动态:22692,动态:22680,动态:22507,动态:21763,动态:21737,动态:22667,动态:22146,动态:20399,动态:21756,动态:22697,动态:22699,动态:21727,动态:22688,动态:20439,动态:22710,动态:22659,动态:22512,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22684,动态:22146,动态:20720,动态:20439,动态:22699,动态:22706,动态:21972,动态:22507,动态:22696,动态:21740,动态:21757,动态:22680,动态:21975,动态:22667,动态:17337,动态:20364,动态:22512,动态:22710,动态:22323,动态:21436,动态:21727,动态:21745,动态:21556,动态:22659,动态:21776,动态:20399,动态:21741,动态:20440,动态:4036,动态:22698,动态:21857,动态:21753,动态:7746,动态:22685,动态:21737,动态:22019,动态:21763,动态:21756,动态:22688,动态:22692,动态:22697,动态:22702</t>
+          <t>动态:22688,动态:21972,动态:20364,动态:22019,动态:21757,动态:20399,动态:21740,动态:21737,动态:22696,动态:21556,动态:20720,动态:22680,动态:22512,动态:4036,动态:22146,动态:7746,动态:22684,动态:22659,动态:21436,动态:22702,动态:21745,动态:20439,动态:22323,动态:21776,动态:22706,动态:22507,动态:21741,动态:22699,动态:21727,动态:21857,动态:21763,动态:17337,动态:21780,动态:22698,动态:22692,动态:22697,动态:21756,动态:20440,动态:21975,动态:22685,动态:22710,动态:22667,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21740,动态:21436,动态:21975,动态:22323,动态:22702,动态:22684,动态:22698,动态:22710,动态:20399,动态:22680,动态:21757,动态:7746,动态:21741,动态:22697,动态:22667,动态:20440,动态:21763,动态:21745,动态:22146,动态:21972,动态:22685,动态:21857,动态:21753,动态:22659,动态:22696,动态:22019,动态:21756,动态:20364,动态:22692,动态:4036,动态:21737,动态:21556,动态:20439,动态:22699,动态:21780,动态:21776,动态:17337,动态:22507,动态:22706,动态:22512,动态:22688,动态:20720</t>
+          <t>动态:22146,动态:22706,动态:21436,动态:21745,动态:20720,动态:21780,动态:21757,动态:21857,动态:22699,动态:20399,动态:21756,动态:20439,动态:7746,动态:21741,动态:22680,动态:22696,动态:22688,动态:22710,动态:22659,动态:21972,动态:22323,动态:21556,动态:22019,动态:21975,动态:21740,动态:21727,动态:21753,动态:17337,动态:21737,动态:22667,动态:22507,动态:22702,动态:4036,动态:22685,动态:21776,动态:22512,动态:22698,动态:20364,动态:20440,动态:21763,动态:22692,动态:22684,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:22512,动态:7746,动态:20364,动态:22019,动态:21857,动态:21776,动态:21436,动态:17337,动态:20439,动态:22688,动态:22710,动态:20399,动态:20440,动态:22698,动态:4036,动态:20720,动态:21780,动态:21972,动态:21756,动态:22699,动态:22507,动态:22680,动态:21556,动态:21741,动态:22146,动态:22667,动态:22706,动态:21740,动态:21727,动态:21737,动态:21757,动态:22697,动态:22323,动态:21763,动态:21753,动态:22696,动态:22684,动态:21975,动态:22702,动态:21745,动态:22692,动态:22685,动态:22659</t>
+          <t>动态:22696,动态:21737,动态:22710,动态:21763,动态:22706,动态:21776,动态:21972,动态:21857,动态:21756,动态:22698,动态:21727,动态:22667,动态:21757,动态:22699,动态:4036,动态:22019,动态:22688,动态:22323,动态:22702,动态:22507,动态:21436,动态:20364,动态:21745,动态:17337,动态:21741,动态:22680,动态:21975,动态:22685,动态:20399,动态:22659,动态:22692,动态:21556,动态:22697,动态:21780,动态:20440,动态:22684,动态:21753,动态:7746,动态:20720,动态:22512,动态:21740,动态:20439,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:6784,动态:6782,动态:6694,动态:6786,动态:6693,动态:6902,动态:6872,动态:6845,动态:6777,动态:6773,动态:6779,动态:6767,动态:6666,动态:6790,动态:6692,动态:6752,动态:6755,动态:6761,动态:6762,动态:6848,动态:6652,动态:6770,动态:6764,动态:6691,动态:20399,动态:20720,动态:22323,动态:22710,动态:22019,动态:21780,动态:21436,动态:22699,动态:22692,动态:21763,动态:21756,动态:21741,动态:21975,动态:22512,动态:21727,动态:22680,动态:20439,动态:4036,动态:21972,动态:22688,动态:21757,动态:22696,动态:21745,动态:21740,动态:22697,动态:20364</t>
+          <t>动态:6784,动态:6782,动态:6694,动态:6786,动态:6693,动态:6902,动态:6872,动态:6845,动态:6777,动态:6773,动态:6779,动态:6767,动态:6666,动态:6790,动态:6692,动态:6752,动态:6755,动态:6761,动态:6762,动态:6848,动态:6652,动态:6770,动态:6764,动态:6691,动态:22684,动态:22507,动态:21776,动态:21780,动态:22323,动态:7746,动态:21757,动态:21975,动态:22667,动态:20364,动态:21436,动态:22699,动态:22697,动态:21857,动态:20399,动态:4036,动态:21972,动态:22696,动态:21556,动态:21756,动态:22706,动态:20440,动态:22019,动态:21727,动态:21763,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22019,动态:22706,动态:21972,动态:21776,动态:22702,动态:22684,动态:22697,动态:20439,动态:22507,动态:22323,动态:22699,动态:21763,动态:20364,动态:21745,动态:22146,动态:22680,动态:22688,动态:22667,动态:17337,动态:22512,动态:22659,动态:22698,动态:4036,动态:21756,动态:21740,动态:21741,动态:21757,动态:21975,动态:22692,动态:21727,动态:21780,动态:22696,动态:21436,动态:22685,动态:21753,动态:21556,动态:21737,动态:20399,动态:21857,动态:20720,动态:22710,动态:7746</t>
+          <t>动态:21776,动态:22659,动态:22146,动态:22323,动态:21745,动态:21763,动态:21436,动态:22684,动态:21857,动态:20399,动态:21727,动态:22507,动态:21756,动态:21975,动态:22019,动态:20440,动态:22710,动态:22667,动态:20439,动态:21757,动态:22680,动态:7746,动态:22692,动态:21740,动态:17337,动态:22696,动态:4036,动态:21556,动态:22702,动态:22698,动态:22688,动态:20364,动态:22697,动态:22685,动态:21741,动态:22699,动态:21780,动态:22512,动态:21753,动态:22706,动态:21737,动态:21972,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22685,动态:21753,动态:22688,动态:20440,动态:22702,动态:22706,动态:21737,动态:22698,动态:21780,动态:21436,动态:22146,动态:21756,动态:20399,动态:21727,动态:21857,动态:22507,动态:22710,动态:22697,动态:21975,动态:20720,动态:21972,动态:21745,动态:20364,动态:21556,动态:7746,动态:20439,动态:17337,动态:21776,动态:22699,动态:21763,动态:22684,动态:22692,动态:22659,动态:22680,动态:22323,动态:4036,动态:21757,动态:22667,动态:22512,动态:21741,动态:22696,动态:21740</t>
+          <t>动态:22146,动态:20364,动态:22323,动态:21776,动态:22692,动态:17337,动态:22698,动态:7746,动态:21556,动态:21972,动态:21436,动态:21740,动态:22019,动态:21857,动态:22702,动态:22507,动态:21741,动态:22710,动态:21757,动态:21745,动态:22699,动态:22706,动态:22696,动态:22684,动态:20720,动态:21763,动态:22659,动态:22697,动态:4036,动态:21753,动态:21737,动态:22688,动态:20440,动态:22685,动态:21727,动态:20399,动态:22667,动态:22680,动态:21975,动态:22512,动态:21780,动态:20439,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21757,动态:22698,动态:21776,动态:22697,动态:21763,动态:22688,动态:4036,动态:21556,动态:22699,动态:22146,动态:22659,动态:21737,动态:20439,动态:7746,动态:22680,动态:22706,动态:22507,动态:21780,动态:20364,动态:22684,动态:22710,动态:20720,动态:22019,动态:21756,动态:20440,动态:21727,动态:21857,动态:21972,动态:22692,动态:21741,动态:22667,动态:22512,动态:21436,动态:17337,动态:22702,动态:21740,动态:22685,动态:20399,动态:22323,动态:22696,动态:21753,动态:21745</t>
+          <t>动态:22507,动态:22323,动态:22698,动态:22706,动态:22680,动态:17337,动态:22699,动态:21776,动态:22697,动态:21780,动态:22019,动态:21745,动态:21740,动态:22512,动态:21757,动态:20720,动态:22146,动态:22702,动态:21727,动态:20440,动态:21737,动态:21741,动态:22685,动态:22692,动态:22659,动态:20364,动态:22696,动态:22667,动态:21975,动态:21857,动态:7746,动态:21763,动态:21972,动态:20399,动态:21753,动态:21556,动态:22688,动态:22710,动态:20439,动态:22684,动态:21436,动态:4036,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:21436,动态:21745,动态:21756,动态:22019,动态:22146,动态:22710,动态:21975,动态:21556,动态:21972,动态:21753,动态:21740,动态:17337,动态:22692,动态:7746,动态:21857,动态:22680,动态:22512,动态:22688,动态:22684,动态:21737,动态:20440,动态:21776,动态:22323,动态:20364,动态:22706,动态:4036,动态:21741,动态:22699,动态:22685,动态:22698,动态:22697,动态:21727,动态:20439,动态:22702,动态:22507,动态:22696,动态:22659,动态:20399,动态:21780,动态:21763,动态:20720,动态:21757,动态:22667</t>
+          <t>动态:21741,动态:21972,动态:20364,动态:22685,动态:22667,动态:22688,动态:21763,动态:21857,动态:22706,动态:22699,动态:21727,动态:22512,动态:21780,动态:22697,动态:22684,动态:22659,动态:20720,动态:20440,动态:21745,动态:21776,动态:21756,动态:7746,动态:22702,动态:21740,动态:20399,动态:22692,动态:22710,动态:22680,动态:21753,动态:21757,动态:4036,动态:22019,动态:22696,动态:21436,动态:22323,动态:21975,动态:17337,动态:20439,动态:22507,动态:21737,动态:21556,动态:22698,动态:22146</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:20364,动态:20439,动态:21745,动态:7746,动态:22146,动态:22706,动态:21737,动态:22702,动态:21756,动态:21556,动态:22512,动态:22684,动态:22699,动态:21776,动态:20720,动态:21757,动态:21763,动态:21740,动态:20399,动态:21857,动态:4036,动态:22019,动态:21436,动态:22688,动态:22323,动态:22680,动态:22692,动态:20440,动态:21741,动态:22667,动态:22698,动态:17337,动态:21972,动态:22659,动态:21753,动态:21780,动态:21975,动态:22685,动态:22697,动态:21727,动态:22507,动态:22710,动态:22696</t>
+          <t>动态:20440,动态:20364,动态:22146,动态:7746,动态:21436,动态:21741,动态:21757,动态:22512,动态:21780,动态:21763,动态:21756,动态:22019,动态:22507,动态:22692,动态:22698,动态:22323,动态:21857,动态:22685,动态:22696,动态:22702,动态:22680,动态:22706,动态:22697,动态:21972,动态:21753,动态:22684,动态:21737,动态:4036,动态:21975,动态:21740,动态:21727,动态:20399,动态:22710,动态:20720,动态:20439,动态:22659,动态:21745,动态:22667,动态:22688,动态:21556,动态:21776,动态:22699,动态:17337</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:20720,动态:21857,动态:22692,动态:17337,动态:22706,动态:22699,动态:21975,动态:22659,动态:4036,动态:20399,动态:22507,动态:22146,动态:22019,动态:21740,动态:20439,动态:7746,动态:22697,动态:21727,动态:22696,动态:21756,动态:22667,动态:21776,动态:22684,动态:22702,动态:22710,动态:22680,动态:21763,动态:21741,动态:20364,动态:21745,动态:20440,动态:21737,动态:21436,动态:21780,动态:21972,动态:22698,动态:22512,动态:22685,动态:21757,动态:22688,动态:21556,动态:22323,动态:21753</t>
+          <t>动态:21740,动态:22146,动态:22512,动态:21776,动态:21753,动态:20720,动态:21745,动态:22684,动态:22667,动态:22659,动态:20440,动态:20439,动态:22698,动态:22507,动态:7746,动态:22688,动态:22680,动态:22692,动态:21975,动态:22019,动态:21972,动态:21727,动态:21556,动态:22696,动态:21757,动态:20399,动态:21780,动态:21763,动态:22699,动态:4036,动态:21737,动态:21857,动态:22323,动态:22697,动态:21741,动态:21756,动态:22706,动态:22710,动态:22685,动态:17337,动态:20364,动态:21436,动态:22702</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22680,动态:22667,动态:20364,动态:22699,动态:4036,动态:20439,动态:21776,动态:22697,动态:21975,动态:22702,动态:21780,动态:21727,动态:20720,动态:22659,动态:17337,动态:22688,动态:21972,动态:20440,动态:22706,动态:20399,动态:21757,动态:21737,动态:21756,动态:22692,动态:21556,动态:21753,动态:22698,动态:21740,动态:22685,动态:21741,动态:21857,动态:22323,动态:22684,动态:22710,动态:22512,动态:22696,动态:21763,动态:21436,动态:21745,动态:22507,动态:7746,动态:22019</t>
+          <t>动态:20440,动态:20399,动态:22512,动态:22659,动态:17337,动态:22685,动态:21776,动态:22692,动态:22146,动态:21975,动态:4036,动态:21740,动态:21727,动态:21753,动态:21745,动态:21972,动态:20364,动态:21780,动态:22702,动态:20720,动态:21857,动态:22698,动态:21737,动态:20439,动态:22710,动态:22680,动态:22697,动态:21741,动态:21436,动态:22667,动态:22019,动态:21556,动态:22696,动态:22507,动态:22688,动态:7746,动态:22699,动态:22706,动态:21757,动态:21763,动态:22684,动态:22323,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:22512,动态:22684,动态:21975,动态:22019,动态:21857,动态:20364,动态:21763,动态:22698,动态:22507,动态:21757,动态:4036,动态:22667,动态:22659,动态:22710,动态:20399,动态:21972,动态:21556,动态:21436,动态:21776,动态:21741,动态:17337,动态:20439,动态:22146,动态:21753,动态:22323,动态:21740,动态:22692,动态:22697,动态:7746,动态:21745,动态:22696,动态:21756,动态:20720,动态:22685,动态:21780,动态:22680,动态:22702,动态:22699,动态:22706,动态:20440,动态:21737,动态:22688,动态:21727</t>
+          <t>动态:22710,动态:21756,动态:21436,动态:22019,动态:22667,动态:22684,动态:20364,动态:7746,动态:21972,动态:22659,动态:22696,动态:22146,动态:21727,动态:22699,动态:22323,动态:22706,动态:20399,动态:21556,动态:21753,动态:20440,动态:21741,动态:22507,动态:21737,动态:21740,动态:21780,动态:4036,动态:22698,动态:22702,动态:21757,动态:21776,动态:21763,动态:21745,动态:21857,动态:22685,动态:22512,动态:22692,动态:22688,动态:22697,动态:20439,动态:20720,动态:22680,动态:17337,动态:21975</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22323,动态:21780,动态:20364,动态:21745,动态:22659,动态:22698,动态:20439,动态:4036,动态:20399,动态:22699,动态:22692,动态:21737,动态:21857,动态:22146,动态:21727,动态:21756,动态:21741,动态:22685,动态:22019,动态:21972,动态:22697,动态:22688,动态:21776,动态:22710,动态:21753,动态:22706,动态:21436,动态:22680,动态:17337,动态:21757,动态:21740,动态:21556,动态:22667,动态:22507,动态:22684,动态:22696,动态:22512,动态:21763,动态:20720,动态:21975,动态:22702,动态:20440</t>
+          <t>动态:21745,动态:20399,动态:22684,动态:22323,动态:21737,动态:22507,动态:22512,动态:20439,动态:22019,动态:20720,动态:21741,动态:21740,动态:22697,动态:22698,动态:20364,动态:21972,动态:21556,动态:21780,动态:21753,动态:4036,动态:21436,动态:22667,动态:21763,动态:22688,动态:22699,动态:22685,动态:17337,动态:21757,动态:7746,动态:20440,动态:21857,动态:22710,动态:22692,动态:22702,动态:21776,动态:22696,动态:22146,动态:21756,动态:21975,动态:22680,动态:22706,动态:22659,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22659,动态:22710,动态:22680,动态:21776,动态:22684,动态:21753,动态:22706,动态:22699,动态:21975,动态:21972,动态:22507,动态:21737,动态:22667,动态:21756,动态:21741,动态:21757,动态:20440,动态:21763,动态:21556,动态:22692,动态:20720,动态:20364,动态:7746,动态:22019,动态:22697,动态:22146,动态:20399,动态:22688,动态:4036,动态:22698,动态:22323,动态:21740,动态:21857,动态:20439,动态:21727,动态:22685,动态:22512,动态:21436,动态:21780,动态:22696,动态:22702,动态:17337</t>
+          <t>动态:21757,动态:7746,动态:22698,动态:22685,动态:21740,动态:21972,动态:22688,动态:21763,动态:21737,动态:20399,动态:21776,动态:20440,动态:21745,动态:22697,动态:4036,动态:22699,动态:21436,动态:22146,动态:22696,动态:21857,动态:22680,动态:21780,动态:17337,动态:21556,动态:22019,动态:22702,动态:21756,动态:22323,动态:22684,动态:20439,动态:22706,动态:21741,动态:20720,动态:20364,动态:22659,动态:22512,动态:22507,动态:21727,动态:21975,动态:22710,动态:22667,动态:21753,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22698,动态:22659,动态:21556,动态:22512,动态:22692,动态:21776,动态:21745,动态:22697,动态:22706,动态:21436,动态:22696,动态:20720,动态:22680,动态:20399,动态:21857,动态:21740,动态:21763,动态:22019,动态:21741,动态:7746,动态:20440,动态:22710,动态:21757,动态:22699,动态:20439,动态:21780,动态:21737,动态:22507,动态:21975,动态:22684,动态:22685,动态:21756,动态:22702,动态:21972,动态:21753,动态:22667,动态:20364,动态:22146,动态:17337,动态:21727,动态:4036,动态:22688</t>
+          <t>动态:22146,动态:22659,动态:22323,动态:21756,动态:21753,动态:22507,动态:21737,动态:20364,动态:20440,动态:22702,动态:22697,动态:21745,动态:17337,动态:22667,动态:22688,动态:21741,动态:22684,动态:22706,动态:22692,动态:21556,动态:21780,动态:21857,动态:22019,动态:22710,动态:21763,动态:20399,动态:21727,动态:7746,动态:20439,动态:21975,动态:22696,动态:22698,动态:21740,动态:20720,动态:22685,动态:4036,动态:22680,动态:21972,动态:21757,动态:21436,动态:21776,动态:22512,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21745,动态:22667,动态:20399,动态:21776,动态:4036,动态:22659,动态:21757,动态:21763,动态:21436,动态:20439,动态:7746,动态:20720,动态:22692,动态:22680,动态:21556,动态:21857,动态:22710,动态:21972,动态:22685,动态:22323,动态:21975,动态:22696,动态:22019,动态:22706,动态:20364,动态:22684,动态:21740,动态:21741,动态:22507,动态:21756,动态:17337,动态:21727,动态:22698,动态:22699,动态:21780,动态:22702,动态:22697,动态:22146,动态:22512,动态:21737,动态:21753,动态:20440</t>
+          <t>动态:21972,动态:21727,动态:22323,动态:20364,动态:22512,动态:20399,动态:22699,动态:22659,动态:21737,动态:21753,动态:21740,动态:7746,动态:21975,动态:21556,动态:22507,动态:17337,动态:22697,动态:22688,动态:21757,动态:21741,动态:21745,动态:22146,动态:21780,动态:20440,动态:22710,动态:21436,动态:21776,动态:22702,动态:22706,动态:4036,动态:22685,动态:21857,动态:21756,动态:20720,动态:22692,动态:22667,动态:22019,动态:22680,动态:22696,动态:22684,动态:21763,动态:22698,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22692,动态:22680,动态:22697,动态:22710,动态:20720,动态:22685,动态:21753,动态:22684,动态:21745,动态:21556,动态:22696,动态:22507,动态:21741,动态:21780,动态:22702,动态:20399,动态:21763,动态:22699,动态:22019,动态:21857,动态:22146,动态:22667,动态:20364,动态:22706,动态:21776,动态:21740,动态:22688,动态:4036,动态:21757,动态:22698,动态:22659,动态:21972,动态:21756,动态:21737,动态:21727,动态:21436,动态:7746,动态:22323,动态:22512,动态:21975</t>
+          <t>动态:22146,动态:22697,动态:22698,动态:22019,动态:22692,动态:21975,动态:7746,动态:22323,动态:21763,动态:22702,动态:20399,动态:21740,动态:17337,动态:21776,动态:21972,动态:21857,动态:22696,动态:22507,动态:22710,动态:22512,动态:21741,动态:21757,动态:22685,动态:22667,动态:21753,动态:21756,动态:21727,动态:22688,动态:21556,动态:20720,动态:20364,动态:21737,动态:21745,动态:22699,动态:22680,动态:22659,动态:21436,动态:21780,动态:22706,动态:4036,动态:22684</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:21763,动态:21972,动态:22667,动态:22507,动态:7746,动态:21975,动态:21756,动态:22684,动态:22512,动态:22680,动态:22697,动态:21737,动态:22688,动态:21857,动态:20720,动态:21776,动态:22710,动态:22702,动态:22699,动态:21436,动态:21757,动态:22019,动态:22696,动态:22706,动态:22659,动态:21556,动态:21740,动态:22692,动态:20440,动态:4036,动态:21741,动态:21753,动态:22685,动态:20399,动态:17337,动态:21780,动态:20439,动态:21727,动态:21745,动态:20364,动态:22323,动态:22698,动态:22146</t>
+          <t>动态:22684,动态:22680,动态:20720,动态:22706,动态:22710,动态:20439,动态:22512,动态:21763,动态:22019,动态:21727,动态:22696,动态:22698,动态:22692,动态:21740,动态:21753,动态:22659,动态:20399,动态:21776,动态:22507,动态:22146,动态:20364,动态:22697,动态:21857,动态:21741,动态:7746,动态:21972,动态:20440,动态:22667,动态:22699,动态:21975,动态:17337,动态:21737,动态:22685,动态:22688,动态:21780,动态:21756,动态:21556,动态:21745,动态:21436,动态:22702,动态:4036,动态:22323,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:22692,动态:22667,动态:20440,动态:17337,动态:21556,动态:21780,动态:22702,动态:21745,动态:21756,动态:22697,动态:20364,动态:21857,动态:21727,动态:22685,动态:21975,动态:20439,动态:22659,动态:22684,动态:21737,动态:22680,动态:21740,动态:22696,动态:22698,动态:21753,动态:22710,动态:21776,动态:7746,动态:21741,动态:21436,动态:20720,动态:22146,动态:22699,动态:21757,动态:22323,动态:22507,动态:22512,动态:22706,动态:20399,动态:22688,动态:21763,动态:4036,动态:22019,动态:21972</t>
+          <t>动态:21756,动态:22698,动态:22680,动态:22323,动态:21763,动态:22696,动态:22688,动态:21857,动态:21753,动态:21556,动态:22146,动态:21780,动态:17337,动态:22706,动态:21745,动态:22692,动态:20440,动态:4036,动态:22702,动态:21757,动态:21737,动态:21972,动态:22699,动态:22697,动态:22512,动态:22659,动态:20364,动态:22019,动态:7746,动态:21740,动态:22667,动态:21741,动态:21436,动态:22684,动态:20720,动态:21776,动态:20439,动态:20399,动态:22685,动态:21975,动态:22507,动态:21727,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22659,动态:22323,动态:20439,动态:22146,动态:22699,动态:21741,动态:20720,动态:21780,动态:22698,动态:21753,动态:21740,动态:22684,动态:22019,动态:21436,动态:22692,动态:20440,动态:21745,动态:22688,动态:22710,动态:21756,动态:21972,动态:20399,动态:22507,动态:21975,动态:21737,动态:20364,动态:17337,动态:22702,动态:21757,动态:22512,动态:22696,动态:22706,动态:22685,动态:22667,动态:22680,动态:21556,动态:21857,动态:21763,动态:4036,动态:21727,动态:21776,动态:22697</t>
+          <t>动态:22659,动态:22699,动态:22710,动态:22512,动态:21972,动态:22706,动态:21741,动态:22685,动态:22323,动态:22019,动态:22697,动态:4036,动态:21740,动态:21556,动态:7746,动态:20440,动态:22146,动态:21436,动态:22507,动态:21745,动态:22698,动态:21763,动态:21780,动态:17337,动态:22692,动态:21753,动态:21776,动态:21756,动态:20439,动态:20720,动态:21857,动态:20364,动态:21757,动态:22688,动态:22696,动态:20399,动态:22702,动态:21737,动态:21975,动态:22684,动态:22680,动态:21727,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22684,动态:22692,动态:7746,动态:20720,动态:20439,动态:22019,动态:21741,动态:22706,动态:21745,动态:21857,动态:22146,动态:21753,动态:22680,动态:21556,动态:20399,动态:21436,动态:21972,动态:21737,动态:22659,动态:21740,动态:22685,动态:21780,动态:17337,动态:22710,动态:22696,动态:22699,动态:22702,动态:22512,动态:21975,动态:21727,动态:22507,动态:22697,动态:21763,动态:21776,动态:22667,动态:22688,动态:22698,动态:21756,动态:21757,动态:22323,动态:20364,动态:4036</t>
+          <t>动态:21745,动态:21740,动态:22512,动态:22684,动态:22706,动态:20399,动态:22698,动态:21436,动态:22688,动态:22680,动态:7746,动态:20364,动态:21741,动态:4036,动态:21780,动态:20720,动态:21975,动态:21756,动态:21753,动态:22667,动态:22697,动态:21763,动态:22699,动态:22019,动态:22146,动态:22323,动态:22692,动态:22507,动态:21556,动态:21857,动态:22710,动态:17337,动态:22696,动态:21972,动态:22659,动态:20439,动态:22702,动态:22685,动态:21776,动态:21737,动态:20440,动态:21757,动态:21727</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:4036,动态:20439,动态:21737,动态:22699,动态:22323,动态:21975,动态:22680,动态:22696,动态:21857,动态:21780,动态:22019,动态:21972,动态:22706,动态:20399,动态:22659,动态:21753,动态:21556,动态:22507,动态:17337,动态:20720,动态:22512,动态:22710,动态:21436,动态:22667,动态:21745,动态:22697,动态:22146,动态:21763,动态:22698,动态:22688,动态:21776,动态:21740,动态:22684,动态:22685,动态:22702,动态:21756,动态:20440,动态:21757,动态:21741,动态:22692,动态:20364,动态:7746,动态:21727</t>
+          <t>动态:21776,动态:22667,动态:20364,动态:22692,动态:21972,动态:20440,动态:22685,动态:21780,动态:22710,动态:22019,动态:22684,动态:21741,动态:21745,动态:7746,动态:21556,动态:22680,动态:4036,动态:20720,动态:21740,动态:22323,动态:22659,动态:22146,动态:20399,动态:21756,动态:21857,动态:22696,动态:22702,动态:21763,动态:17337,动态:22507,动态:21727,动态:22699,动态:21975,动态:21436,动态:22512,动态:20439,动态:21757,动态:22698,动态:22688,动态:22706,动态:21737,动态:21753,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21737,动态:4036,动态:21776,动态:22146,动态:21741,动态:20399,动态:21975,动态:21972,动态:22696,动态:20440,动态:22699,动态:22702,动态:22323,动态:22667,动态:7746,动态:17337,动态:22697,动态:21763,动态:21780,动态:22680,动态:21740,动态:22512,动态:22688,动态:20439,动态:20364,动态:22507,动态:22698,动态:21556,动态:21727,动态:21857,动态:21753,动态:20720,动态:21745,动态:22692,动态:22019,动态:21756,动态:22710,动态:21436,动态:22684,动态:22685,动态:21757,动态:22659</t>
+          <t>动态:21727,动态:21753,动态:21556,动态:22146,动态:21436,动态:20364,动态:22706,动态:22710,动态:21972,动态:22019,动态:20399,动态:22698,动态:22685,动态:21737,动态:22667,动态:21745,动态:22697,动态:20720,动态:22692,动态:21756,动态:22688,动态:17337,动态:22684,动态:22507,动态:21763,动态:22680,动态:22699,动态:21741,动态:21740,动态:21857,动态:20440,动态:22323,动态:20439,动态:4036,动态:21780,动态:22702,动态:22659,动态:22512,动态:7746,动态:21975,动态:21776,动态:22696,动态:21757</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:22697,动态:21857,动态:20720,动态:22323,动态:22512,动态:22692,动态:22696,动态:22699,动态:17337,动态:20440,动态:21745,动态:21556,动态:22706,动态:22667,动态:21975,动态:22659,动态:21737,动态:21436,动态:21757,动态:22688,动态:21756,动态:21753,动态:21740,动态:22019,动态:22698,动态:22684,动态:20399,动态:20364,动态:7746,动态:21727,动态:20439,动态:21780,动态:21763,动态:21776,动态:22146,动态:22702,动态:21741,动态:22710,动态:22507,动态:21972,动态:22680,动态:4036,动态:22685</t>
+          <t>动态:22019,动态:22507,动态:22702,动态:20440,动态:17337,动态:22680,动态:22696,动态:22706,动态:21740,动态:22667,动态:20439,动态:21975,动态:21756,动态:22512,动态:21727,动态:22688,动态:22659,动态:20399,动态:21780,动态:22685,动态:21436,动态:22699,动态:21745,动态:21753,动态:21972,动态:21556,动态:22692,动态:22698,动态:21741,动态:21737,动态:21763,动态:20364,动态:21857,动态:22323,动态:22710,动态:22684,动态:4036,动态:21776,动态:22697,动态:21757,动态:20720,动态:22146,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:22702,动态:20364,动态:22696,动态:22019,动态:21776,动态:22710,动态:22699,动态:4036,动态:21727,动态:21975,动态:21753,动态:21972,动态:22692,动态:7746,动态:21737,动态:22697,动态:20439,动态:22706,动态:21757,动态:20399,动态:22507,动态:22684,动态:21763,动态:22698,动态:21756,动态:22667,动态:22323,动态:17337,动态:21780,动态:22680,动态:22659,动态:22146,动态:21740,动态:22688,动态:21436,动态:21556,动态:20440,动态:20720,动态:21745,动态:22512,动态:22685,动态:21741,动态:21857</t>
+          <t>动态:21745,动态:20440,动态:20399,动态:22512,动态:21757,动态:22698,动态:22507,动态:21972,动态:20720,动态:21737,动态:21436,动态:22696,动态:22680,动态:21556,动态:21741,动态:7746,动态:22692,动态:20364,动态:21780,动态:21753,动态:21740,动态:22659,动态:21776,动态:22323,动态:21727,动态:22684,动态:21763,动态:22019,动态:22697,动态:21756,动态:22146,动态:22699,动态:20439,动态:17337,动态:21857,动态:22702,动态:22706,动态:22688,动态:21975,动态:22667,动态:4036,动态:22710,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22323,动态:22710,动态:21727,动态:20720,动态:22698,动态:22507,动态:21740,动态:22684,动态:21763,动态:22702,动态:22696,动态:17337,动态:4036,动态:21756,动态:20399,动态:21972,动态:22667,动态:22688,动态:21776,动态:22692,动态:22512,动态:20364,动态:22706,动态:22699,动态:22680,动态:22697,动态:22019,动态:21556,动态:21753,动态:21975,动态:22146,动态:21745,动态:7746,动态:21757,动态:22659,动态:21741,动态:20439,动态:21737,动态:21436,动态:22685,动态:21857,动态:21780</t>
+          <t>动态:22667,动态:17337,动态:22680,动态:20364,动态:22696,动态:20440,动态:4036,动态:22692,动态:21857,动态:20399,动态:22706,动态:22507,动态:22710,动态:21776,动态:21737,动态:22323,动态:21745,动态:22685,动态:22702,动态:22146,动态:21727,动态:22699,动态:21780,动态:22512,动态:7746,动态:21740,动态:20720,动态:21753,动态:22659,动态:22688,动态:21975,动态:22684,动态:20439,动态:21741,动态:22698,动态:21972,动态:22697,动态:21436,动态:21556,动态:21756,动态:21757,动态:22019,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21740,动态:21756,动态:21741,动态:21737,动态:17337,动态:21727,动态:21436,动态:22680,动态:22692,动态:21857,动态:21780,动态:22507,动态:4036,动态:21745,动态:22688,动态:7746,动态:20720,动态:20440,动态:22706,动态:21975,动态:22659,动态:22702,动态:21776,动态:20399,动态:22699,动态:22512,动态:20364,动态:22667,动态:20439,动态:21757,动态:22323,动态:22697,动态:21972,动态:21753,动态:22019,动态:22698,动态:21763,动态:22685,动态:21556,动态:22696,动态:22710,动态:22684</t>
+          <t>动态:22507,动态:22692,动态:22702,动态:22680,动态:21776,动态:22146,动态:22688,动态:22696,动态:20440,动态:22667,动态:22698,动态:22684,动态:21857,动态:21436,动态:20720,动态:21740,动态:20399,动态:21745,动态:22697,动态:21753,动态:21556,动态:4036,动态:22659,动态:21727,动态:20439,动态:22512,动态:17337,动态:22699,动态:21757,动态:21763,动态:20364,动态:7746,动态:21737,动态:22710,动态:22706,动态:22323,动态:22019,动态:21741,动态:21780,动态:22685,动态:21975,动态:21756,动态:21972</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:20364,动态:21556,动态:22710,动态:21740,动态:22680,动态:7746,动态:4036,动态:21756,动态:17337,动态:20439,动态:21757,动态:21975,动态:21857,动态:22323,动态:22684,动态:22706,动态:21753,动态:22696,动态:22146,动态:22699,动态:20720,动态:22697,动态:22659,动态:21780,动态:22685,动态:22702,动态:20440,动态:20399,动态:22019,动态:22512,动态:22692,动态:21436,动态:21972,动态:21737,动态:21741,动态:21776,动态:21763,动态:22698,动态:21745,动态:22507,动态:22667,动态:21727,动态:22688</t>
+          <t>动态:21776,动态:22512,动态:21741,动态:22699,动态:21757,动态:21727,动态:22019,动态:20439,动态:22706,动态:21556,动态:21857,动态:21740,动态:21737,动态:22680,动态:22696,动态:20364,动态:21780,动态:4036,动态:21745,动态:22692,动态:21763,动态:21436,动态:20720,动态:21972,动态:20399,动态:17337,动态:22507,动态:22659,动态:22688,动态:22667,动态:22146,动态:22698,动态:22697,动态:22684,动态:22323,动态:21753,动态:7746,动态:22710,动态:20440,动态:22685,动态:21975,动态:22702,动态:21756</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21357,动态:20759,动态:20364,动态:20178,动态:20836,动态:20840,动态:20837,动态:20839,动态:21084,动态:22097,动态:21556,动态:21103,动态:21741,动态:22685,动态:20440,动态:21753,动态:17337,动态:21740,动态:22698,动态:22692,动态:21972,动态:22688,动态:22697,动态:22696,动态:21757,动态:22667,动态:22680,动态:22507,动态:21780,动态:22699,动态:22659,动态:21727,动态:21745,动态:22684,动态:22146,动态:21975,动态:21436,动态:4036,动态:22706,动态:21776,动态:22710,动态:22512,动态:20439,动态:22019,动态:21857,动态:22702</t>
+          <t>动态:21737,动态:21357,动态:20759,动态:20364,动态:20178,动态:20836,动态:20840,动态:20837,动态:20839,动态:21084,动态:22097,动态:21556,动态:21103,动态:22507,动态:22702,动态:21763,动态:7746,动态:21857,动态:21740,动态:22692,动态:22710,动态:21756,动态:22706,动态:22512,动态:21436,动态:21972,动态:21741,动态:21975,动态:20439,动态:4036,动态:21727,动态:22688,动态:22698,动态:22667,动态:22146,动态:21753,动态:22684,动态:22697,动态:21780,动态:20720,动态:17337,动态:22659,动态:22680,动态:21776,动态:22019,动态:21757,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:22710,动态:22702,动态:21780,动态:21556,动态:21436,动态:21737,动态:21972,动态:21745,动态:20720,动态:22696,动态:22659,动态:22688,动态:22019,动态:21975,动态:7746,动态:20439,动态:4036,动态:22697,动态:22667,动态:20364,动态:21763,动态:21776,动态:21741,动态:21756,动态:22698,动态:22684,动态:21727,动态:21753,动态:17337,动态:21757,动态:22706,动态:22680,动态:22685,动态:21740,动态:20399,动态:22507,动态:22692,动态:20440,动态:22699,动态:22146,动态:21857,动态:22323,动态:22512</t>
+          <t>动态:22323,动态:22507,动态:22698,动态:22512,动态:21972,动态:20364,动态:22019,动态:4036,动态:22684,动态:22699,动态:20399,动态:22697,动态:20439,动态:21780,动态:22680,动态:21436,动态:20720,动态:21737,动态:17337,动态:21776,动态:22146,动态:22688,动态:21740,动态:22702,动态:21763,动态:7746,动态:21857,动态:22710,动态:22685,动态:21727,动态:22696,动态:22692,动态:21741,动态:21975,动态:21745,动态:21757,动态:21753,动态:21556,动态:22706,动态:21756,动态:20440,动态:22659,动态:22667</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:22697,动态:7746,动态:21780,动态:22699,动态:22710,动态:21737,动态:22680,动态:21436,动态:21857,动态:21972,动态:22696,动态:17337,动态:20399,动态:21757,动态:21741,动态:22146,动态:21756,动态:21975,动态:21740,动态:22688,动态:21776,动态:22667,动态:22698,动态:22706,动态:22702,动态:21556,动态:20440,动态:22512,动态:22684,动态:22323,动态:21727,动态:22659,动态:22507,动态:21763,动态:22685,动态:22692,动态:20364,动态:22019,动态:4036,动态:20439,动态:20720</t>
+          <t>动态:21436,动态:22667,动态:20720,动态:22688,动态:22706,动态:22698,动态:21776,动态:7746,动态:21727,动态:22019,动态:22685,动态:22702,动态:22512,动态:22699,动态:21857,动态:22696,动态:20440,动态:21756,动态:21740,动态:20364,动态:21556,动态:17337,动态:4036,动态:21741,动态:21763,动态:22710,动态:21757,动态:22507,动态:21780,动态:22659,动态:22697,动态:22684,动态:22323,动态:22680,动态:21975,动态:22146,动态:22692,动态:21972,动态:20399,动态:21737,动态:20439</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:22697,动态:20399,动态:20720,动态:21727,动态:21740,动态:21757,动态:20364,动态:22688,动态:22667,动态:22684,动态:21763,动态:22507,动态:21776,动态:20439,动态:21745,动态:21556,动态:22710,动态:20440,动态:22702,动态:21857,动态:22698,动态:21972,动态:22659,动态:22706,动态:22685,动态:21753,动态:22146,动态:7746,动态:21436,动态:21741,动态:22680,动态:4036,动态:21737,动态:22692,动态:21780,动态:17337,动态:22696,动态:22512,动态:22699,动态:21975,动态:22323,动态:22019</t>
+          <t>动态:22323,动态:22019,动态:22680,动态:21975,动态:22684,动态:21753,动态:22146,动态:22659,动态:4036,动态:21727,动态:21737,动态:20440,动态:21745,动态:21776,动态:21556,动态:21780,动态:22512,动态:21740,动态:22692,动态:22698,动态:22702,动态:22699,动态:22697,动态:7746,动态:21763,动态:22667,动态:20720,动态:22688,动态:22706,动态:22710,动态:20364,动态:22507,动态:21972,动态:17337,动态:21757,动态:20399,动态:21741,动态:21436,动态:22696,动态:20439,动态:21857,动态:22685</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:21857,动态:17337,动态:20399,动态:22512,动态:20364,动态:22697,动态:21741,动态:21556,动态:22702,动态:22692,动态:21975,动态:21776,动态:22659,动态:7746,动态:20440,动态:21756,动态:21436,动态:20720,动态:20439,动态:21727,动态:22323,动态:21740,动态:21780,动态:21757,动态:21972,动态:21763,动态:21753,动态:22698,动态:22667,动态:22146,动态:22710,动态:21737,动态:22019,动态:22706,动态:22699,动态:22684,动态:4036,动态:21745,动态:22685,动态:22696,动态:22507</t>
+          <t>动态:22146,动态:22697,动态:22507,动态:22692,动态:20439,动态:21757,动态:22706,动态:20364,动态:22019,动态:22698,动态:21780,动态:21740,动态:22710,动态:22667,动态:21756,动态:21741,动态:21753,动态:4036,动态:22684,动态:7746,动态:22512,动态:22699,动态:21975,动态:21436,动态:22696,动态:21727,动态:20440,动态:22685,动态:21972,动态:21556,动态:20720,动态:21776,动态:21857,动态:22323,动态:17337,动态:20399,动态:22659,动态:21737,动态:21745,动态:22702,动态:21763</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21745,动态:22019,动态:21757,动态:20364,动态:20439,动态:22684,动态:22680,动态:22323,动态:22696,动态:21737,动态:7746,动态:21727,动态:20399,动态:4036,动态:22688,动态:22667,动态:21857,动态:22699,动态:22697,动态:21436,动态:22659,动态:21975,动态:22698,动态:21972,动态:21776,动态:21740,动态:22512,动态:20720,动态:22685,动态:22706,动态:21756,动态:20440,动态:22507,动态:22710,动态:22692,动态:21763,动态:21556,动态:21753,动态:22146,动态:21741,动态:17337,动态:22702</t>
+          <t>动态:4036,动态:21753,动态:22684,动态:22698,动态:21756,动态:20364,动态:22323,动态:22688,动态:21763,动态:20439,动态:22685,动态:7746,动态:22659,动态:21740,动态:22680,动态:21757,动态:21436,动态:21857,动态:22696,动态:22710,动态:22019,动态:21975,动态:22512,动态:22146,动态:21556,动态:22699,动态:20440,动态:22706,动态:21776,动态:22507,动态:22702,动态:20399,动态:22667,动态:21727,动态:21741,动态:22697,动态:17337,动态:21745,动态:21737,动态:20720,动态:21972,动态:21780,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22019,动态:22692,动态:22667,动态:21737,动态:22696,动态:21975,动态:20364,动态:20720,动态:21972,动态:7746,动态:21745,动态:22688,动态:22710,动态:21556,动态:21753,动态:22685,动态:22323,动态:21727,动态:22680,动态:22697,动态:21757,动态:22699,动态:22146,动态:22684,动态:22512,动态:22507,动态:21857,动态:4036,动态:21763,动态:22706,动态:20440,动态:20439,动态:22698,动态:17337,动态:22659,动态:21740,动态:21436,动态:21780,动态:20399,动态:21741</t>
+          <t>动态:22692,动态:21741,动态:22680,动态:22688,动态:22684,动态:22697,动态:17337,动态:21436,动态:20364,动态:22659,动态:22323,动态:4036,动态:20439,动态:22706,动态:21972,动态:22698,动态:22512,动态:21975,动态:20440,动态:21753,动态:21740,动态:22699,动态:21857,动态:21556,动态:21780,动态:22146,动态:22696,动态:22710,动态:20399,动态:22019,动态:21737,动态:22507,动态:22702,动态:20720,动态:21727,动态:22685,动态:21763,动态:7746,动态:21757,动态:21745,动态:22667</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:21780,动态:21763,动态:22019,动态:20364,动态:21737,动态:21741,动态:22692,动态:22699,动态:21776,动态:21556,动态:21857,动态:22680,动态:22697,动态:22146,动态:17337,动态:22507,动态:22688,动态:21756,动态:22512,动态:21975,动态:20440,动态:22702,动态:20439,动态:22696,动态:20399,动态:21745,动态:21436,动态:22698,动态:21727,动态:22667,动态:22323,动态:22710,动态:22659,动态:20720,动态:21757,动态:22706,动态:4036,动态:21740,动态:21753,动态:22685,动态:7746,动态:21972</t>
+          <t>动态:21741,动态:17337,动态:21753,动态:22507,动态:22710,动态:4036,动态:22698,动态:22702,动态:21972,动态:22680,动态:21756,动态:22699,动态:21776,动态:21745,动态:21780,动态:21857,动态:21975,动态:22667,动态:20720,动态:21727,动态:22659,动态:22688,动态:22146,动态:22019,动态:21763,动态:22685,动态:21436,动态:22696,动态:22323,动态:22706,动态:22692,动态:22697,动态:20439,动态:20440,动态:21740,动态:20399,动态:7746,动态:20364,动态:21556,动态:22512,动态:21757,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>动态:21556,动态:22684,动态:22697,动态:22710,动态:22680,动态:22019,动态:22706,动态:22659,动态:22685,动态:21740,动态:21757,动态:21745,动态:22323,动态:21975,动态:22667,动态:21776,动态:21780,动态:22688,动态:21756,动态:4036,动态:22507,动态:20720,动态:22696,动态:22698,动态:20399,动态:21972,动态:20440,动态:21857,动态:21727,动态:20439,动态:22512,动态:17337,动态:22692,动态:21436,动态:7746,动态:22146,动态:21737,动态:22699,动态:20364,动态:21741,动态:21763</t>
+          <t>动态:17337,动态:21757,动态:22688,动态:22659,动态:22697,动态:20399,动态:22019,动态:22692,动态:21780,动态:22146,动态:21740,动态:22706,动态:22667,动态:22684,动态:22507,动态:20439,动态:22710,动态:21556,动态:20720,动态:21763,动态:7746,动态:22699,动态:21741,动态:22696,动态:22323,动态:21776,动态:4036,动态:22698,动态:20440,动态:22512,动态:21727,动态:21975,动态:21972,动态:21745,动态:22685,动态:21737,动态:21857,动态:20364,动态:22680,动态:21756,动态:21436</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22146,动态:22512,动态:22697,动态:21757,动态:7746,动态:22702,动态:21740,动态:21737,动态:20399,动态:20720,动态:21436,动态:22698,动态:21780,动态:22659,动态:22706,动态:21763,动态:4036,动态:21727,动态:22685,动态:22680,动态:22710,动态:21857,动态:20439,动态:20364,动态:22323,动态:22699,动态:20440,动态:21753,动态:22667,动态:17337,动态:21741,动态:22019,动态:22688,动态:21745,动态:22692,动态:21975,动态:21972,动态:22684,动态:22696</t>
+          <t>动态:22710,动态:22696,动态:20720,动态:21737,动态:22697,动态:22684,动态:22692,动态:22699,动态:22688,动态:4036,动态:22659,动态:21780,动态:21727,动态:20439,动态:21757,动态:21975,动态:21436,动态:20364,动态:21972,动态:7746,动态:21857,动态:20440,动态:22685,动态:22323,动态:22667,动态:22512,动态:21740,动态:21753,动态:21741,动态:22019,动态:22146,动态:22706,动态:22680,动态:17337,动态:22698,动态:21745,动态:20399,动态:22702,动态:21763,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:22710,动态:17337,动态:21776,动态:22659,动态:22512,动态:22667,动态:22697,动态:20440,动态:21763,动态:22698,动态:4036,动态:21975,动态:21556,动态:20439,动态:21972,动态:22146,动态:21436,动态:20364,动态:21740,动态:22685,动态:21780,动态:21745,动态:22706,动态:7746,动态:22696,动态:20399,动态:22323,动态:22692,动态:21741,动态:20720,动态:21727,动态:22019,动态:21737,动态:22699,动态:21857,动态:22688,动态:22507,动态:22702,动态:21757,动态:22684,动态:22680</t>
+          <t>动态:21780,动态:22685,动态:4036,动态:22702,动态:20440,动态:22696,动态:22692,动态:21745,动态:21972,动态:22699,动态:21757,动态:22697,动态:21741,动态:7746,动态:22323,动态:20720,动态:22710,动态:22698,动态:20439,动态:22507,动态:22684,动态:22706,动态:22688,动态:20399,动态:21740,动态:21737,动态:22019,动态:22680,动态:21857,动态:22512,动态:21776,动态:21975,动态:20364,动态:21727,动态:21763,动态:22659,动态:17337,动态:21436,动态:22146,动态:21556,动态:22667</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21780,动态:22688,动态:21737,动态:22667,动态:22699,动态:22512,动态:22692,动态:20720,动态:22697,动态:21857,动态:7746,动态:21975,动态:20440,动态:21436,动态:21556,动态:20439,动态:22507,动态:22019,动态:21741,动态:21776,动态:4036,动态:22684,动态:22685,动态:22659,动态:21727,动态:22698,动态:21972,动态:22710,动态:22323,动态:21753,动态:22706,动态:22696,动态:22702,动态:22146,动态:20399,动态:22680,动态:20364,动态:21757,动态:17337,动态:21763,动态:21740</t>
+          <t>动态:20720,动态:22323,动态:22685,动态:20364,动态:21745,动态:22688,动态:22146,动态:21975,动态:22699,动态:7746,动态:22706,动态:21741,动态:20399,动态:22512,动态:21556,动态:20439,动态:22697,动态:20440,动态:21753,动态:22667,动态:21737,动态:22702,动态:22680,动态:17337,动态:22698,动态:21727,动态:21972,动态:22659,动态:21776,动态:21740,动态:21436,动态:22710,动态:22696,动态:22684,动态:21757,动态:22019,动态:21763,动态:22507,动态:21780,动态:21857,动态:4036,动态:22692</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22692,动态:22019,动态:20399,动态:22667,动态:21753,动态:21975,动态:22696,动态:21745,动态:20439,动态:22699,动态:22507,动态:22684,动态:21740,动态:22680,动态:21436,动态:22698,动态:21556,动态:22512,动态:21780,动态:21972,动态:22688,动态:22323,动态:20440,动态:21857,动态:21776,动态:22659,动态:21757,动态:20364,动态:22702,动态:21741,动态:21737,动态:7746,动态:17337,动态:21756,动态:20720,动态:22146,动态:21763,动态:22710,动态:21727,动态:22706,动态:22697,动态:22685</t>
+          <t>动态:22323,动态:21757,动态:22697,动态:21753,动态:21556,动态:22507,动态:22706,动态:21727,动态:7746,动态:21737,动态:21780,动态:21745,动态:22019,动态:22710,动态:21975,动态:22667,动态:22692,动态:21857,动态:20364,动态:22688,动态:20399,动态:21763,动态:22512,动态:22659,动态:22699,动态:20720,动态:21740,动态:21972,动态:22684,动态:21436,动态:22702,动态:20440,动态:21756,动态:22146,动态:17337,动态:22680,动态:20439,动态:22698,动态:21741,动态:4036,动态:22685,动态:22696,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22706,动态:21975,动态:22688,动态:21556,动态:21741,动态:21972,动态:22019,动态:22512,动态:17337,动态:21776,动态:20439,动态:21737,动态:22323,动态:22507,动态:22146,动态:22659,动态:20364,动态:22692,动态:22680,动态:21763,动态:4036,动态:22684,动态:22685,动态:21857,动态:21780,动态:21436,动态:21727,动态:22710,动态:20440,动态:22698,动态:20720,动态:22667,动态:22702,动态:21753,动态:21756,动态:22699,动态:20399,动态:22696,动态:7746,动态:21757</t>
+          <t>动态:22692,动态:21556,动态:21972,动态:21780,动态:22684,动态:21753,动态:22680,动态:4036,动态:20364,动态:17337,动态:21741,动态:21763,动态:22667,动态:7746,动态:22507,动态:22146,动态:22696,动态:22706,动态:20440,动态:21756,动态:21857,动态:22323,动态:21776,动态:22688,动态:21727,动态:22702,动态:20720,动态:21436,动态:21757,动态:22512,动态:22019,动态:22659,动态:20439,动态:21737,动态:20399,动态:21975,动态:22698,动态:22697,动态:22685,动态:22699,动态:22710</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22323,动态:21741,动态:21740,动态:20364,动态:21857,动态:20439,动态:22146,动态:21975,动态:21756,动态:21745,动态:21776,动态:21753,动态:20440,动态:20399,动态:20720,动态:22512,动态:22684,动态:21763,动态:21727,动态:22680,动态:22696,动态:21737,动态:21757,动态:22692,动态:22697,动态:21436,动态:22507,动态:4036,动态:22706,动态:21972,动态:7746,动态:22688,动态:17337,动态:21780,动态:22699,动态:22659,动态:22685,动态:22667,动态:21556,动态:22019,动态:22698,动态:22710</t>
+          <t>动态:22702,动态:22507,动态:21740,动态:21556,动态:4036,动态:22019,动态:21753,动态:21436,动态:22680,动态:21745,动态:22696,动态:22512,动态:22323,动态:17337,动态:21763,动态:21756,动态:22688,动态:21757,动态:21975,动态:20720,动态:20364,动态:21857,动态:22667,动态:21737,动态:22697,动态:21776,动态:22692,动态:22698,动态:22699,动态:21727,动态:22706,动态:22684,动态:20440,动态:22659,动态:20399,动态:7746,动态:22710,动态:21780,动态:22146,动态:21972,动态:20439,动态:21741,动态:22685</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21857,动态:21745,动态:22692,动态:17337,动态:21763,动态:22512,动态:22696,动态:22323,动态:22667,动态:7746,动态:22659,动态:21556,动态:21741,动态:21975,动态:22146,动态:20440,动态:22699,动态:21740,动态:4036,动态:22698,动态:21753,动态:22706,动态:22507,动态:21757,动态:22688,动态:22697,动态:21756,动态:20439,动态:20399,动态:21780,动态:22702,动态:21776,动态:22684,动态:20364,动态:22685,动态:22019,动态:21727,动态:20720,动态:21737,动态:21972,动态:21436,动态:22680</t>
+          <t>动态:21740,动态:22680,动态:22702,动态:7746,动态:21757,动态:22684,动态:21972,动态:21857,动态:21780,动态:22710,动态:22699,动态:20439,动态:21556,动态:21763,动态:22697,动态:21776,动态:20399,动态:4036,动态:20364,动态:21727,动态:22512,动态:22659,动态:22019,动态:22706,动态:22507,动态:21745,动态:20720,动态:22685,动态:22692,动态:17337,动态:22696,动态:21436,动态:22323,动态:20440,动态:22688,动态:22146,动态:21737,动态:22698,动态:21741,动态:21975,动态:22667,动态:21753,动态:21756</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:21972,动态:7746,动态:21556,动态:21737,动态:21753,动态:21776,动态:22684,动态:20720,动态:21745,动态:22699,动态:21763,动态:22702,动态:4036,动态:20439,动态:21740,动态:22696,动态:21727,动态:22667,动态:22692,动态:21857,动态:21756,动态:22507,动态:21436,动态:22698,动态:22146,动态:20364,动态:17337,动态:22697,动态:21975,动态:22323,动态:22706,动态:22710,动态:21757,动态:21741,动态:20440,动态:22019,动态:21780,动态:20399,动态:22512,动态:22688,动态:22680,动态:22659,动态:22685</t>
+          <t>动态:22019,动态:22706,动态:21745,动态:22692,动态:22512,动态:21737,动态:22667,动态:21753,动态:22696,动态:21757,动态:22685,动态:4036,动态:22323,动态:21436,动态:21740,动态:22684,动态:22680,动态:17337,动态:22146,动态:21776,动态:21857,动态:22710,动态:7746,动态:21780,动态:22698,动态:21756,动态:21556,动态:22659,动态:22697,动态:21763,动态:22702,动态:20439,动态:21727,动态:21741,动态:20399,动态:20440,动态:21975,动态:21972,动态:22507,动态:22699,动态:20364,动态:20720,动态:22688</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21756,动态:21780,动态:22118,动态:22659,动态:22146,动态:22075,动态:22702,动态:22493,动态:22323,动态:21858,动态:21727,动态:21964,动态:22692,动态:20364,动态:21757,动态:20399,动态:7746,动态:21436,动态:22680,动态:21741,动态:21857,动态:21745,动态:22696,动态:21556,动态:22507,动态:22698,动态:20720,动态:22688,动态:22512,动态:22685,动态:20439,动态:22019,动态:21737,动态:21763,动态:22706,动态:21975,动态:4036,动态:21753,动态:21776,动态:22699,动态:22697</t>
+          <t>动态:22710,动态:21756,动态:21780,动态:22118,动态:22659,动态:22146,动态:22075,动态:22702,动态:22493,动态:22323,动态:21858,动态:21727,动态:21964,动态:22685,动态:7746,动态:21556,动态:22667,动态:17337,动态:22692,动态:22688,动态:21737,动态:20720,动态:20440,动态:22698,动态:22697,动态:21972,动态:4036,动态:21740,动态:22680,动态:21763,动态:22696,动态:22019,动态:21436,动态:22684,动态:20399,动态:21753,动态:22699,动态:21757,动态:22512,动态:21975,动态:21741,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22096,动态:21537,动态:22350,动态:21756,动态:22103,动态:22688,动态:22085,动态:22702,动态:21776,动态:21975,动态:22710,动态:21737,动态:21757,动态:21965,动态:22696,动态:21857,动态:22507,动态:4036,动态:21436,动态:22697,动态:22667,动态:21740,动态:21972,动态:22692,动态:22685,动态:22323,动态:22146,动态:20440,动态:22684,动态:22512,动态:20364,动态:20399,动态:21753,动态:21727,动态:22699,动态:22698,动态:20439,动态:20720,动态:17337,动态:22019</t>
+          <t>动态:21763,动态:22096,动态:21537,动态:22350,动态:21756,动态:22103,动态:22688,动态:22085,动态:22702,动态:21776,动态:21975,动态:22710,动态:21737,动态:21757,动态:21965,动态:22696,动态:22323,动态:20720,动态:21753,动态:17337,动态:22685,动态:20440,动态:22680,动态:7746,动态:21556,动态:20364,动态:21780,动态:21857,动态:21436,动态:22512,动态:22692,动态:21741,动态:20439,动态:21972,动态:22697,动态:21740,动态:22507,动态:22684,动态:20399,动态:22706,动态:4036,动态:22698,动态:21727</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22706,动态:20440,动态:22688,动态:22146,动态:21763,动态:20720,动态:22323,动态:22659,动态:21741,动态:21780,动态:22019,动态:22684,动态:22692,动态:7746,动态:22698,动态:22512,动态:21740,动态:21972,动态:22680,动态:4036,动态:22685,动态:20364,动态:21745,动态:21857,动态:21737,动态:21776,动态:21556,动态:20399,动态:22702,动态:22710,动态:21436,动态:22696,动态:22699,动态:21753,动态:21756,动态:21757,动态:22697,动态:22667,动态:20439,动态:21727,动态:17337,动态:21975</t>
+          <t>动态:22667,动态:22699,动态:21757,动态:17337,动态:22507,动态:21436,动态:22684,动态:21776,动态:21756,动态:22680,动态:22688,动态:21972,动态:22692,动态:21753,动态:21763,动态:21737,动态:22696,动态:4036,动态:20364,动态:22512,动态:7746,动态:21556,动态:22702,动态:21745,动态:22698,动态:21857,动态:22146,动态:22019,动态:22710,动态:20720,动态:22706,动态:22323,动态:21975,动态:21727,动态:22697,动态:21741,动态:20440,动态:20399,动态:20439,动态:22685,动态:21740,动态:22659,动态:21780</t>
         </is>
       </c>
     </row>

--- a/20220426_algo_v2_10/algo_results/rec_result/user_cf_recommendation_map.xlsx
+++ b/20220426_algo_v2_10/algo_results/rec_result/user_cf_recommendation_map.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>动态:20720,动态:21741,动态:22698,动态:22019,动态:22699,动态:20364,动态:21972,动态:22688,动态:21756,动态:20440,动态:21727,动态:21763,动态:21753,动态:21776,动态:21780,动态:22667,动态:22680,动态:22710,动态:22684,动态:21745,动态:22146,动态:20439,动态:4036,动态:21737,动态:21757,动态:7746,动态:22696,动态:20399,动态:22659,动态:21556,动态:22685,动态:22706,动态:21975,动态:22512,动态:22692,动态:21740,动态:22323,动态:21436,动态:22507,动态:22702,动态:22697,动态:21857,动态:17337</t>
+          <t>动态:21763,动态:21776,动态:17337,动态:21757,动态:22696,动态:22698,动态:21745,动态:22684,动态:20399,动态:22659,动态:21740,动态:22323,动态:22710,动态:22685,动态:21436,动态:21756,动态:21780,动态:21972,动态:20440,动态:22680,动态:4036,动态:22702,动态:22512,动态:22699,动态:21741,动态:22019,动态:21737,动态:22706,动态:20439,动态:21556,动态:22697,动态:22146,动态:21857,动态:20364,动态:22688,动态:22692,动态:21753,动态:22507,动态:21727,动态:20720,动态:7746,动态:22667,动态:21975</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>动态:22323,动态:7746,动态:21857,动态:21756,动态:21763,动态:21737,动态:21741,动态:20720,动态:21776,动态:21727,动态:22667,动态:22688,动态:22692,动态:22659,动态:20399,动态:22512,动态:20439,动态:22699,动态:22680,动态:22019,动态:21757,动态:22685,动态:17337,动态:22507,动态:21740,动态:21556,动态:21780,动态:22702,动态:22698,动态:21436,动态:20364,动态:22696,动态:22684,动态:21972,动态:22146,动态:20440,动态:22710,动态:22697,动态:21745,动态:22706,动态:21753,动态:21975</t>
+          <t>动态:20439,动态:22697,动态:22692,动态:22680,动态:21740,动态:21745,动态:22667,动态:21753,动态:21975,动态:22699,动态:22323,动态:22702,动态:22696,动态:21780,动态:22698,动态:21737,动态:21741,动态:22685,动态:22710,动态:21857,动态:22146,动态:20364,动态:22512,动态:20399,动态:21756,动态:22706,动态:21757,动态:21763,动态:21556,动态:22507,动态:22659,动态:22688,动态:20440,动态:21436,动态:21776,动态:17337,动态:21972,动态:22684,动态:22019,动态:7746,动态:21727,动态:20720</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21975,动态:22667,动态:21857,动态:22512,动态:17337,动态:21556,动态:21763,动态:22659,动态:21780,动态:7746,动态:20399,动态:21436,动态:21776,动态:22146,动态:22684,动态:4036,动态:22696,动态:22702,动态:22680,动态:22323,动态:22688,动态:21753,动态:22507,动态:21745,动态:20439,动态:22706,动态:20720,动态:21740,动态:20364,动态:22699,动态:21727,动态:22685,动态:20440,动态:21741,动态:21757,动态:21737,动态:22019,动态:22710,动态:22697,动态:22698,动态:21756,动态:21972</t>
+          <t>动态:20440,动态:21745,动态:22706,动态:22710,动态:22323,动态:22697,动态:21740,动态:22702,动态:20439,动态:21753,动态:21857,动态:22699,动态:21741,动态:21756,动态:21975,动态:22685,动态:22667,动态:21556,动态:21757,动态:7746,动态:22692,动态:22146,动态:4036,动态:21737,动态:22507,动态:22698,动态:21763,动态:17337,动态:20399,动态:21727,动态:20364,动态:21436,动态:20720,动态:22688,动态:22696,动态:22684,动态:21780,动态:21972,动态:22019,动态:22680,动态:22512,动态:21776,动态:22659</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>动态:21975,动态:20439,动态:22019,动态:22710,动态:22680,动态:22323,动态:21756,动态:20720,动态:21753,动态:21757,动态:20440,动态:22698,动态:21741,动态:22692,动态:21436,动态:20399,动态:22684,动态:22146,动态:22702,动态:21745,动态:21857,动态:22507,动态:7746,动态:22512,动态:22685,动态:21737,动态:22667,动态:22659,动态:21776,动态:20364,动态:21780,动态:22696,动态:21740,动态:17337,动态:22688,动态:21727,动态:22706,动态:4036,动态:21763,动态:22697,动态:21556,动态:22699,动态:21972</t>
+          <t>动态:22680,动态:22659,动态:22710,动态:21745,动态:21753,动态:22706,动态:21436,动态:21740,动态:21756,动态:21741,动态:20399,动态:22697,动态:21757,动态:20440,动态:21780,动态:21737,动态:21972,动态:22507,动态:22685,动态:22699,动态:21556,动态:22696,动态:20720,动态:22512,动态:21763,动态:21857,动态:22702,动态:22688,动态:17337,动态:22667,动态:20364,动态:20439,动态:22323,动态:21727,动态:7746,动态:22698,动态:22692,动态:22146,动态:22019,动态:4036,动态:21776,动态:22684,动态:21975</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>动态:20439,动态:22699,动态:21756,动态:20399,动态:22684,动态:21972,动态:22710,动态:21763,动态:21745,动态:22685,动态:17337,动态:7746,动态:22692,动态:20440,动态:21556,动态:22706,动态:22688,动态:22702,动态:22512,动态:21740,动态:22659,动态:21741,动态:22323,动态:21737,动态:21753,动态:21975,动态:21436,动态:20364,动态:21757,动态:21857,动态:4036,动态:21727,动态:20720,动态:22696,动态:22667,动态:22698,动态:22507,动态:22019,动态:21776,动态:22146,动态:22680,动态:22697,动态:21780</t>
+          <t>动态:22710,动态:20720,动态:21740,动态:17337,动态:7746,动态:22684,动态:22697,动态:20399,动态:20440,动态:20364,动态:21975,动态:22507,动态:22702,动态:22692,动态:21780,动态:22680,动态:22667,动态:21556,动态:22323,动态:22146,动态:22685,动态:21857,动态:22659,动态:22706,动态:21756,动态:21727,动态:21763,动态:22512,动态:21753,动态:22696,动态:21776,动态:4036,动态:21741,动态:21737,动态:21757,动态:22688,动态:21436,动态:22698,动态:22019,动态:22699,动态:20439,动态:21972,动态:21745</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21776,动态:21753,动态:21972,动态:22696,动态:22702,动态:21436,动态:22692,动态:22706,动态:20439,动态:17337,动态:20399,动态:21975,动态:21556,动态:21740,动态:22146,动态:4036,动态:22019,动态:22667,动态:22688,动态:22659,动态:21727,动态:22710,动态:21745,动态:21780,动态:21737,动态:22507,动态:7746,动态:20364,动态:21857,动态:21763,动态:21757,动态:21741,动态:22323,动态:22697,动态:20440,动态:22685,动态:21756,动态:22684,动态:22512,动态:22680,动态:20720,动态:22699</t>
+          <t>动态:22146,动态:21780,动态:22680,动态:20720,动态:20364,动态:21727,动态:21757,动态:21737,动态:20439,动态:22507,动态:21756,动态:22699,动态:22710,动态:21741,动态:22684,动态:22706,动态:17337,动态:21740,动态:21763,动态:21776,动态:22696,动态:22685,动态:21753,动态:21857,动态:22688,动态:21975,动态:22697,动态:21745,动态:21436,动态:22323,动态:4036,动态:20440,动态:22698,动态:22702,动态:21972,动态:21556,动态:20399,动态:7746,动态:22659,动态:22019,动态:22512,动态:22667,动态:22692</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>动态:4036,动态:22680,动态:22710,动态:22688,动态:22507,动态:20364,动态:21757,动态:22685,动态:22146,动态:21740,动态:21727,动态:22684,动态:22702,动态:22692,动态:21756,动态:22019,动态:22667,动态:22706,动态:21972,动态:21975,动态:21763,动态:20440,动态:21436,动态:20439,动态:21780,动态:21737,动态:21741,动态:21556,动态:22698,动态:22659,动态:17337,动态:22699,动态:21776,动态:22696,动态:22323,动态:7746,动态:21745,动态:20399,动态:20720,动态:22697,动态:21857,动态:21753,动态:22512</t>
+          <t>动态:21753,动态:22685,动态:22019,动态:21727,动态:20440,动态:22688,动态:21776,动态:22696,动态:22699,动态:21556,动态:22702,动态:21745,动态:21436,动态:22507,动态:21975,动态:22692,动态:20720,动态:22680,动态:22710,动态:4036,动态:22146,动态:22323,动态:20399,动态:22667,动态:22512,动态:20364,动态:22659,动态:21741,动态:20439,动态:17337,动态:22697,动态:22698,动态:21972,动态:21740,动态:21780,动态:21737,动态:21763,动态:22684,动态:21756,动态:7746,动态:22706,动态:21757,动态:21857</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22692,动态:21436,动态:21756,动态:22019,动态:22659,动态:17337,动态:21972,动态:22512,动态:21857,动态:22507,动态:20364,动态:22667,动态:22698,动态:22697,动态:21975,动态:21727,动态:22680,动态:22702,动态:21745,动态:21780,动态:22696,动态:21757,动态:22323,动态:20440,动态:20399,动态:7746,动态:21740,动态:22699,动态:22710,动态:4036,动态:20720,动态:21556,动态:22684,动态:21776,动态:22706,动态:21741,动态:22688,动态:20439,动态:21763,动态:21737,动态:22685,动态:21753</t>
+          <t>动态:22688,动态:22659,动态:21556,动态:21972,动态:22697,动态:22680,动态:22507,动态:20720,动态:22710,动态:22692,动态:22019,动态:20439,动态:21776,动态:22696,动态:21436,动态:21753,动态:22702,动态:22685,动态:21756,动态:22684,动态:21737,动态:21757,动态:22512,动态:22699,动态:21741,动态:21763,动态:4036,动态:22706,动态:21857,动态:21975,动态:7746,动态:22698,动态:21745,动态:22323,动态:20399,动态:22667,动态:21780,动态:20440,动态:20364,动态:21740,动态:17337,动态:21727,动态:22146</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>动态:22685,动态:22323,动态:22019,动态:22697,动态:22512,动态:22688,动态:21740,动态:21556,动态:21737,动态:21741,动态:20364,动态:21756,动态:21763,动态:20720,动态:21753,动态:21975,动态:20399,动态:21857,动态:22507,动态:21776,动态:22684,动态:22699,动态:22667,动态:22698,动态:22680,动态:22706,动态:21745,动态:22692,动态:21436,动态:4036,动态:22702,动态:7746,动态:20439,动态:22146,动态:21972,动态:22696,动态:22710,动态:22659,动态:17337,动态:21727,动态:20440,动态:21780,动态:21757</t>
+          <t>动态:17337,动态:20399,动态:21975,动态:20364,动态:21780,动态:22667,动态:21741,动态:22697,动态:22699,动态:20440,动态:21972,动态:22688,动态:22323,动态:20439,动态:22512,动态:21727,动态:22685,动态:21737,动态:21556,动态:21745,动态:4036,动态:22698,动态:21740,动态:21757,动态:22659,动态:22507,动态:22146,动态:22702,动态:22684,动态:22680,动态:21857,动态:22019,动态:20720,动态:21436,动态:21756,动态:22696,动态:21753,动态:21763,动态:21776,动态:22710,动态:7746,动态:22706,动态:22692</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22699,动态:22659,动态:22697,动态:22667,动态:21857,动态:20440,动态:21556,动态:22507,动态:21727,动态:21741,动态:21756,动态:22685,动态:21737,动态:20364,动态:22680,动态:22696,动态:21776,动态:21972,动态:22698,动态:17337,动态:22692,动态:21780,动态:22019,动态:21975,动态:21753,动态:22688,动态:22684,动态:21740,动态:22706,动态:7746,动态:22702,动态:4036,动态:20399,动态:20720,动态:22512,动态:22323,动态:20439,动态:22146,动态:21745,动态:21763,动态:22710,动态:21757</t>
+          <t>动态:21857,动态:21972,动态:22696,动态:22685,动态:21741,动态:21745,动态:21975,动态:20720,动态:22019,动态:21757,动态:22512,动态:22697,动态:22680,动态:21727,动态:22323,动态:21556,动态:17337,动态:21753,动态:22659,动态:22692,动态:21737,动态:20399,动态:21776,动态:4036,动态:20364,动态:22706,动态:22146,动态:7746,动态:22688,动态:22507,动态:22702,动态:21756,动态:20440,动态:22710,动态:22699,动态:21780,动态:21763,动态:22698,动态:22667,动态:21436,动态:21740,动态:20439,动态:22684</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22684,动态:21741,动态:21972,动态:21556,动态:20399,动态:21756,动态:21740,动态:22692,动态:21436,动态:22699,动态:20364,动态:22685,动态:20440,动态:17337,动态:22688,动态:22697,动态:21757,动态:22323,动态:21745,动态:22019,动态:21780,动态:21776,动态:22706,动态:21857,动态:22146,动态:21727,动态:22698,动态:22512,动态:21975,动态:22696,动态:22659,动态:21753,动态:7746,动态:22507,动态:21763,动态:20439,动态:4036,动态:22710,动态:20720,动态:22667,动态:21737,动态:22702</t>
+          <t>动态:22659,动态:20399,动态:22702,动态:22019,动态:22710,动态:22507,动态:22680,动态:22696,动态:21972,动态:20364,动态:21556,动态:22692,动态:21740,动态:21780,动态:17337,动态:21753,动态:22706,动态:21737,动态:21436,动态:21757,动态:22146,动态:22699,动态:21763,动态:21756,动态:21741,动态:22697,动态:21745,动态:21857,动态:22698,动态:20440,动态:21727,动态:22512,动态:21975,动态:20720,动态:22688,动态:22667,动态:4036,动态:22685,动态:20439,动态:21776,动态:7746,动态:22684,动态:22323</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>动态:21972,动态:22019,动态:22659,动态:20364,动态:22323,动态:21741,动态:4036,动态:22667,动态:21857,动态:21757,动态:22710,动态:21780,动态:20399,动态:22702,动态:7746,动态:20439,动态:22692,动态:21745,动态:21756,动态:20720,动态:22697,动态:22699,动态:21737,动态:22684,动态:22685,动态:21556,动态:22146,动态:22680,动态:22512,动态:21975,动态:21727,动态:17337,动态:22507,动态:21753,动态:22706,动态:21740,动态:20440,动态:21763,动态:22688,动态:21436,动态:21776,动态:22698,动态:22696</t>
+          <t>动态:22697,动态:22698,动态:22710,动态:22684,动态:22685,动态:20399,动态:22146,动态:22680,动态:20440,动态:22699,动态:22692,动态:21780,动态:22702,动态:21740,动态:21727,动态:21857,动态:21737,动态:21753,动态:20720,动态:22323,动态:22507,动态:22512,动态:22019,动态:21763,动态:21741,动态:20439,动态:21556,动态:4036,动态:21776,动态:21745,动态:21757,动态:22706,动态:21972,动态:21975,动态:20364,动态:22696,动态:21436,动态:21756,动态:17337,动态:22688,动态:22667,动态:7746,动态:22659</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动态:22667,动态:22146,动态:22696,动态:21757,动态:22710,动态:22512,动态:20399,动态:4036,动态:22699,动态:21740,动态:21857,动态:22019,动态:21556,动态:21745,动态:21763,动态:22698,动态:20439,动态:22659,动态:20364,动态:21436,动态:22702,动态:22706,动态:22680,动态:17337,动态:21756,动态:21975,动态:7746,动态:20720,动态:21972,动态:22697,动态:21776,动态:20440,动态:22684,动态:22692,动态:21727,动态:21741,动态:21737,动态:22685,动态:22688,动态:22507,动态:21753,动态:22323,动态:21780</t>
+          <t>动态:21556,动态:22710,动态:21741,动态:21776,动态:22507,动态:21972,动态:21753,动态:22512,动态:21975,动态:22659,动态:22684,动态:21737,动态:4036,动态:22696,动态:20440,动态:22702,动态:21763,动态:22692,动态:21757,动态:22019,动态:22667,动态:22685,动态:7746,动态:22706,动态:22146,动态:21745,动态:21436,动态:17337,动态:21857,动态:20720,动态:22699,动态:21740,动态:20364,动态:22697,动态:22323,动态:21780,动态:22688,动态:22698,动态:20439,动态:21727,动态:22680,动态:20399,动态:21756</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22698,动态:21745,动态:22680,动态:20439,动态:20720,动态:22696,动态:21740,动态:17337,动态:22684,动态:21753,动态:22685,动态:21727,动态:21763,动态:21776,动态:22710,动态:22512,动态:22019,动态:22699,动态:22507,动态:22667,动态:21857,动态:22146,动态:20440,动态:22323,动态:7746,动态:21556,动态:21737,动态:21756,动态:20364,动态:21741,动态:20399,动态:22692,动态:21972,动态:22702,动态:4036,动态:21780,动态:21436,动态:21975,动态:22697,动态:21757,动态:22706,动态:22688</t>
+          <t>动态:22698,动态:21780,动态:21436,动态:20720,动态:21745,动态:21757,动态:21756,动态:22680,动态:22019,动态:21556,动态:22688,动态:20440,动态:21741,动态:22659,动态:22667,动态:22697,动态:21763,动态:21740,动态:21972,动态:20399,动态:20439,动态:21776,动态:7746,动态:22706,动态:22507,动态:21753,动态:22696,动态:21727,动态:4036,动态:22692,动态:21737,动态:22699,动态:22323,动态:22146,动态:20364,动态:22702,动态:22685,动态:21857,动态:22684,动态:22710,动态:17337,动态:21975,动态:22512</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22692,动态:21763,动态:17337,动态:22684,动态:21776,动态:21757,动态:20440,动态:22702,动态:4036,动态:21436,动态:21727,动态:22688,动态:21745,动态:22659,动态:22323,动态:22146,动态:20364,动态:21740,动态:22699,动态:20399,动态:22019,动态:21975,动态:21857,动态:21972,动态:22696,动态:22710,动态:22667,动态:21753,动态:22706,动态:22507,动态:21556,动态:7746,动态:22680,动态:21756,动态:22685,动态:21741,动态:22698,动态:22697,动态:20439,动态:21780,动态:21737,动态:22512</t>
+          <t>动态:20720,动态:20364,动态:22507,动态:21737,动态:22696,动态:22680,动态:22323,动态:22684,动态:22697,动态:21975,动态:22692,动态:22698,动态:21776,动态:22688,动态:4036,动态:21756,动态:22706,动态:22512,动态:22019,动态:17337,动态:21436,动态:21857,动态:21780,动态:22659,动态:21757,动态:21740,动态:20440,动态:22146,动态:22699,动态:21727,动态:21763,动态:21972,动态:22702,动态:21753,动态:21745,动态:21556,动态:7746,动态:22685,动态:21741,动态:22710,动态:22667,动态:20399,动态:20439</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22684,动态:22692,动态:22680,动态:21727,动态:22696,动态:21737,动态:22702,动态:21745,动态:22706,动态:20720,动态:21776,动态:22710,动态:21756,动态:22685,动态:22659,动态:21780,动态:21740,动态:21757,动态:21975,动态:21741,动态:17337,动态:22667,动态:7746,动态:21763,动态:22699,动态:22512,动态:22323,动态:22697,动态:21753,动态:22698,动态:20364,动态:22507,动态:21857,动态:22688,动态:22146,动态:20399,动态:21972,动态:22019,动态:21556</t>
+          <t>动态:7746,动态:22706,动态:22680,动态:22667,动态:21436,动态:20399,动态:22698,动态:21857,动态:21975,动态:21740,动态:22699,动态:21972,动态:22146,动态:21745,动态:20364,动态:21776,动态:22659,动态:21780,动态:21756,动态:22507,动态:22692,动态:20720,动态:22702,动态:22019,动态:22688,动态:22684,动态:22512,动态:21556,动态:21757,动态:21753,动态:22696,动态:21763,动态:22710,动态:22697,动态:17337,动态:22685,动态:21737,动态:22323,动态:21727,动态:21741</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>动态:21975,动态:21757,动态:20440,动态:22688,动态:22692,动态:21776,动态:20399,动态:22507,动态:21753,动态:21556,动态:20439,动态:21972,动态:22680,动态:20720,动态:17337,动态:22698,动态:22697,动态:22710,动态:22696,动态:21737,动态:21780,动态:21763,动态:21745,动态:22659,动态:22667,动态:20364,动态:22146,动态:21741,动态:22702,动态:7746,动态:22685,动态:22512,动态:21756,动态:22019,动态:22706,动态:4036,动态:21740,动态:21727,动态:22323,动态:22699,动态:21857,动态:21436,动态:22684</t>
+          <t>动态:21737,动态:4036,动态:22685,动态:21741,动态:7746,动态:22667,动态:21857,动态:21740,动态:22702,动态:22507,动态:21745,动态:21436,动态:21727,动态:20399,动态:20720,动态:21756,动态:21972,动态:21753,动态:22697,动态:22698,动态:22706,动态:22692,动态:22710,动态:22696,动态:22659,动态:22680,动态:21776,动态:21757,动态:22146,动态:22688,动态:22019,动态:22323,动态:21780,动态:22699,动态:20364,动态:17337,动态:22684,动态:21763,动态:22512,动态:21975,动态:20439,动态:20440,动态:21556</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>动态:20439,动态:21756,动态:22507,动态:22688,动态:20440,动态:22706,动态:4036,动态:21757,动态:20364,动态:21763,动态:7746,动态:21737,动态:22684,动态:22698,动态:22659,动态:21857,动态:21975,动态:21776,动态:21753,动态:22710,动态:22697,动态:20720,动态:17337,动态:22323,动态:22680,动态:22512,动态:22702,动态:20399,动态:22146,动态:21436,动态:21780,动态:21727,动态:22696,动态:21972,动态:21740,动态:22685,动态:22019,动态:21556,动态:22667,动态:22692,动态:21741,动态:22699,动态:21745</t>
+          <t>动态:22699,动态:22697,动态:21975,动态:17337,动态:21556,动态:22512,动态:22684,动态:21741,动态:7746,动态:21745,动态:20399,动态:21763,动态:22680,动态:21757,动态:22019,动态:20364,动态:22706,动态:20720,动态:22323,动态:21753,动态:21727,动态:22698,动态:21972,动态:22685,动态:22696,动态:20440,动态:22710,动态:22688,动态:22702,动态:21756,动态:21780,动态:20439,动态:21857,动态:22667,动态:21740,动态:4036,动态:21776,动态:22146,动态:22507,动态:21737,动态:22692,动态:22659,动态:21436</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22692,动态:22698,动态:21756,动态:20364,动态:22710,动态:22688,动态:17337,动态:22685,动态:22702,动态:21737,动态:20439,动态:21745,动态:20720,动态:21757,动态:22680,动态:22706,动态:20440,动态:22323,动态:22684,动态:22146,动态:21753,动态:22699,动态:22507,动态:22019,动态:22512,动态:21556,动态:22659,动态:22696,动态:21972,动态:21740,动态:21741,动态:4036,动态:21763,动态:7746,动态:22667,动态:21975,动态:21780,动态:21776,动态:21727,动态:22697,动态:20399,动态:21857</t>
+          <t>动态:21436,动态:22692,动态:21740,动态:21857,动态:22699,动态:22698,动态:22323,动态:21745,动态:20440,动态:21972,动态:21780,动态:21776,动态:22696,动态:21737,动态:22685,动态:22667,动态:22659,动态:20439,动态:21753,动态:21975,动态:7746,动态:22697,动态:20399,动态:22688,动态:22019,动态:22684,动态:22146,动态:21727,动态:20364,动态:22706,动态:22710,动态:22512,动态:21741,动态:20720,动态:21756,动态:4036,动态:21556,动态:22702,动态:22680,动态:21757,动态:17337,动态:22507,动态:21763</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>动态:22706,动态:21436,动态:22702,动态:21763,动态:22685,动态:21741,动态:4036,动态:21757,动态:21780,动态:22146,动态:21753,动态:21745,动态:22698,动态:20364,动态:22697,动态:22696,动态:22323,动态:22692,动态:21975,动态:17337,动态:21972,动态:22019,动态:21857,动态:22710,动态:20440,动态:22684,动态:22507,动态:20399,动态:22680,动态:21756,动态:20720,动态:22688,动态:21776,动态:21737,动态:22667,动态:21556,动态:7746,动态:21727,动态:22659,动态:22699,动态:22512,动态:20439,动态:21740</t>
+          <t>动态:22685,动态:22659,动态:21727,动态:22507,动态:21740,动态:21975,动态:21857,动态:22702,动态:22019,动态:20364,动态:21776,动态:22512,动态:22680,动态:20440,动态:21757,动态:22684,动态:17337,动态:4036,动态:22692,动态:21780,动态:20399,动态:21737,动态:22698,动态:21741,动态:22667,动态:21972,动态:22697,动态:20720,动态:21556,动态:22710,动态:22699,动态:21756,动态:21745,动态:22323,动态:22706,动态:7746,动态:22146,动态:22696,动态:21753,动态:21763,动态:21436,动态:20439,动态:22688</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>动态:22146,动态:21780,动态:21776,动态:21753,动态:17337,动态:22696,动态:4036,动态:21763,动态:21740,动态:22684,动态:22685,动态:21556,动态:22323,动态:22507,动态:22706,动态:21857,动态:20399,动态:20440,动态:21975,动态:21756,动态:22698,动态:7746,动态:22659,动态:21741,动态:22692,动态:20720,动态:22699,动态:21972,动态:22667,动态:21727,动态:22710,动态:22688,动态:21436,动态:21757,动态:21737,动态:20364,动态:22680,动态:20439,动态:21745,动态:22702,动态:22019,动态:22512,动态:22697</t>
+          <t>动态:22507,动态:22667,动态:22146,动态:22684,动态:21975,动态:22698,动态:22702,动态:21780,动态:21972,动态:22699,动态:21740,动态:22685,动态:21763,动态:22696,动态:22659,动态:22697,动态:21556,动态:21737,动态:21756,动态:21745,动态:20440,动态:22706,动态:21727,动态:22710,动态:20399,动态:4036,动态:21753,动态:21776,动态:20720,动态:21741,动态:22019,动态:21436,动态:22692,动态:22688,动态:17337,动态:20439,动态:22323,动态:7746,动态:22512,动态:21757,动态:21857,动态:22680,动态:20364</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22684,动态:22019,动态:22685,动态:7746,动态:22512,动态:22696,动态:22688,动态:20439,动态:21780,动态:20440,动态:21763,动态:21745,动态:21741,动态:22323,动态:17337,动态:21556,动态:4036,动态:21436,动态:22146,动态:22659,动态:21776,动态:22680,动态:21972,动态:20720,动态:22692,动态:22698,动态:22702,动态:21740,动态:22697,动态:21757,动态:22507,动态:21727,动态:20364,动态:22710,动态:21737,动态:20399,动态:21756,动态:22667,动态:21857,动态:22699,动态:22706,动态:21753</t>
+          <t>动态:21780,动态:22698,动态:22699,动态:21737,动态:21753,动态:21745,动态:20440,动态:22697,动态:21741,动态:21556,动态:21436,动态:22659,动态:21975,动态:22323,动态:20399,动态:22667,动态:21756,动态:20364,动态:22692,动态:7746,动态:22019,动态:22680,动态:21740,动态:21972,动态:22702,动态:22706,动态:21857,动态:22688,动态:22507,动态:20720,动态:22684,动态:22685,动态:21776,动态:21763,动态:21757,动态:22146,动态:4036,动态:20439,动态:21727,动态:17337,动态:22696,动态:22512,动态:22710</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>动态:21436,动态:20399,动态:21556,动态:21745,动态:22512,动态:20364,动态:21975,动态:7746,动态:21727,动态:22684,动态:21737,动态:22696,动态:20440,动态:22507,动态:22323,动态:22706,动态:22698,动态:22685,动态:22146,动态:21753,动态:21763,动态:22699,动态:17337,动态:20720,动态:21780,动态:21972,动态:21740,动态:22680,动态:22667,动态:22692,动态:22702,动态:22688,动态:20439,动态:22697,动态:21776,动态:22019,动态:4036,动态:21857,动态:22659,动态:22710,动态:21756,动态:21741,动态:21757</t>
+          <t>动态:20439,动态:22146,动态:22684,动态:20440,动态:22680,动态:21727,动态:21780,动态:21972,动态:22019,动态:21741,动态:21857,动态:21763,动态:21556,动态:21753,动态:22692,动态:21436,动态:21756,动态:20720,动态:20399,动态:7746,动态:22698,动态:21740,动态:22702,动态:22699,动态:22697,动态:21975,动态:22512,动态:22667,动态:22507,动态:22710,动态:21776,动态:22685,动态:4036,动态:17337,动态:22323,动态:22696,动态:22706,动态:22659,动态:20364,动态:21737,动态:22688,动态:21745,动态:21757</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>动态:22667,动态:21776,动态:21756,动态:21972,动态:22696,动态:20440,动态:21741,动态:22697,动态:22699,动态:21737,动态:22688,动态:21857,动态:22698,动态:22702,动态:22659,动态:22323,动态:20439,动态:21556,动态:17337,动态:20399,动态:22684,动态:21757,动态:21740,动态:20720,动态:4036,动态:22692,动态:21753,动态:22706,动态:21745,动态:22512,动态:22685,动态:21727,动态:21780,动态:21975,动态:22680,动态:21436,动态:22146,动态:7746,动态:22710,动态:21763,动态:20364,动态:22507,动态:22019</t>
+          <t>动态:21745,动态:21753,动态:22512,动态:4036,动态:22702,动态:21757,动态:22692,动态:21556,动态:22699,动态:22146,动态:22688,动态:21776,动态:22706,动态:22507,动态:7746,动态:22696,动态:20720,动态:21737,动态:17337,动态:20440,动态:22697,动态:20399,动态:22019,动态:21780,动态:22323,动态:22667,动态:21727,动态:20439,动态:22684,动态:22710,动态:21741,动态:22680,动态:21857,动态:21972,动态:21436,动态:22685,动态:21740,动态:21756,动态:20364,动态:21975,动态:21763,动态:22659,动态:22698</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>动态:21857,动态:21757,动态:22692,动态:22685,动态:20439,动态:21753,动态:21737,动态:22706,动态:21763,动态:20364,动态:22659,动态:20399,动态:22688,动态:22512,动态:7746,动态:21780,动态:21745,动态:21556,动态:22323,动态:21756,动态:21740,动态:17337,动态:22710,动态:21727,动态:22696,动态:21975,动态:22702,动态:22019,动态:22698,动态:22146,动态:4036,动态:21741,动态:21972,动态:20720,动态:22697,动态:21436,动态:22507,动态:22667,动态:20440,动态:22680,动态:21776,动态:22699,动态:22684</t>
+          <t>动态:21740,动态:22696,动态:21727,动态:17337,动态:22667,动态:22692,动态:21741,动态:21737,动态:21753,动态:20439,动态:21975,动态:22699,动态:20440,动态:22680,动态:21436,动态:22512,动态:21756,动态:21776,动态:7746,动态:22688,动态:22507,动态:22685,动态:4036,动态:21745,动态:21763,动态:21556,动态:21857,动态:22323,动态:22146,动态:22697,动态:20720,动态:22706,动态:22702,动态:21757,动态:20399,动态:22684,动态:22659,动态:21780,动态:22710,动态:20364,动态:21972,动态:22698,动态:22019</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21727,动态:22659,动态:20439,动态:21972,动态:21740,动态:22684,动态:22710,动态:22706,动态:20399,动态:21741,动态:22667,动态:22512,动态:20720,动态:22692,动态:7746,动态:21753,动态:21756,动态:22698,动态:21745,动态:22507,动态:21975,动态:21763,动态:21776,动态:21556,动态:22697,动态:22688,动态:21757,动态:22323,动态:22699,动态:17337,动态:4036,动态:22019,动态:22680,动态:22696,动态:21436,动态:20440,动态:21857,动态:22702,动态:22685,动态:22146,动态:20364,动态:21780</t>
+          <t>动态:22698,动态:22688,动态:22680,动态:22512,动态:22702,动态:22659,动态:21556,动态:21757,动态:21756,动态:4036,动态:22667,动态:21753,动态:20720,动态:20364,动态:22696,动态:22710,动态:21436,动态:20439,动态:22507,动态:22692,动态:21727,动态:21975,动态:22699,动态:22697,动态:21745,动态:21972,动态:22019,动态:7746,动态:21857,动态:20440,动态:22706,动态:22684,动态:21763,动态:21741,动态:22323,动态:21776,动态:21780,动态:22146,动态:21737,动态:20399,动态:17337,动态:21740,动态:22685</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21857,动态:22019,动态:21975,动态:21753,动态:21972,动态:22512,动态:22680,动态:21756,动态:22688,动态:21763,动态:21776,动态:17337,动态:22710,动态:20720,动态:22697,动态:21740,动态:20399,动态:22146,动态:22659,动态:22684,动态:21745,动态:4036,动态:7746,动态:22699,动态:22667,动态:21757,动态:20364,动态:22706,动态:22698,动态:22692,动态:22685,动态:22507,动态:20439,动态:21436,动态:21737,动态:22323,动态:20440,动态:22702,动态:21556,动态:21727,动态:21780,动态:22696</t>
+          <t>动态:22507,动态:22146,动态:20720,动态:22659,动态:21757,动态:22696,动态:22323,动态:4036,动态:21857,动态:21763,动态:21753,动态:21972,动态:21745,动态:21436,动态:22019,动态:20399,动态:22680,动态:22685,动态:21556,动态:20440,动态:22684,动态:22702,动态:21776,动态:22512,动态:21740,动态:22698,动态:21756,动态:20364,动态:22688,动态:21780,动态:7746,动态:21741,动态:21727,动态:20439,动态:17337,动态:21737,动态:22667,动态:22710,动态:22706,动态:22699,动态:22692,动态:22697,动态:21975</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>动态:21756,动态:20720,动态:21776,动态:21753,动态:22659,动态:21745,动态:22019,动态:22323,动态:22667,动态:21972,动态:22507,动态:22684,动态:20440,动态:21727,动态:22692,动态:22685,动态:20399,动态:22698,动态:7746,动态:22699,动态:4036,动态:21741,动态:21780,动态:22706,动态:22146,动态:22688,动态:21436,动态:21740,动态:22512,动态:22696,动态:22710,动态:22697,动态:21556,动态:21975,动态:20439,动态:21757,动态:17337,动态:21763,动态:20364,动态:22680,动态:21737,动态:22702,动态:21857</t>
+          <t>动态:21857,动态:21740,动态:22507,动态:22699,动态:4036,动态:22692,动态:21741,动态:21753,动态:21776,动态:22698,动态:20440,动态:22512,动态:21756,动态:21757,动态:21972,动态:20439,动态:22702,动态:22680,动态:20364,动态:22688,动态:7746,动态:22019,动态:22697,动态:22706,动态:22685,动态:22710,动态:22667,动态:20399,动态:22146,动态:21436,动态:22323,动态:21975,动态:21745,动态:21763,动态:20720,动态:21737,动态:17337,动态:21727,动态:22684,动态:21780,动态:22696,动态:22659,动态:21556</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22706,动态:21737,动态:22667,动态:22688,动态:22507,动态:21972,动态:21975,动态:21753,动态:20439,动态:22698,动态:20440,动态:21756,动态:22697,动态:21857,动态:22512,动态:21780,动态:22684,动态:22323,动态:21436,动态:21556,动态:7746,动态:22702,动态:22019,动态:17337,动态:22659,动态:20399,动态:22696,动态:21727,动态:21763,动态:22692,动态:22680,动态:21745,动态:21740,动态:21776,动态:22710,动态:21757,动态:20364,动态:4036,动态:22146,动态:22685,动态:21741,动态:22699</t>
+          <t>动态:22323,动态:20720,动态:17337,动态:20399,动态:22507,动态:21727,动态:22667,动态:22684,动态:22146,动态:21737,动态:21740,动态:21556,动态:21745,动态:22512,动态:21972,动态:20440,动态:21857,动态:21436,动态:22697,动态:21753,动态:22659,动态:21763,动态:21756,动态:22696,动态:21757,动态:21780,动态:22710,动态:22688,动态:20439,动态:20364,动态:22692,动态:22680,动态:21741,动态:21975,动态:4036,动态:22698,动态:22702,动态:22685,动态:22019,动态:22699,动态:21776,动态:7746,动态:22706</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>动态:20720,动态:21776,动态:22702,动态:21556,动态:22019,动态:22706,动态:22698,动态:21780,动态:22680,动态:21857,动态:21727,动态:22710,动态:21741,动态:22692,动态:21737,动态:21745,动态:20440,动态:22507,动态:21436,动态:21740,动态:22512,动态:20439,动态:22323,动态:22697,动态:21753,动态:22684,动态:21763,动态:4036,动态:22146,动态:22696,动态:22699,动态:21757,动态:21756,动态:17337,动态:22659,动态:20364,动态:22667,动态:21972,动态:7746,动态:21975,动态:22685,动态:20399,动态:22688</t>
+          <t>动态:21741,动态:20439,动态:20364,动态:20440,动态:21756,动态:22706,动态:4036,动态:22696,动态:22697,动态:7746,动态:22019,动态:22699,动态:20399,动态:20720,动态:22146,动态:21757,动态:22512,动态:21740,动态:22684,动态:21745,动态:22710,动态:22692,动态:22507,动态:22702,动态:21737,动态:21780,动态:22323,动态:21975,动态:17337,动态:21763,动态:21556,动态:21972,动态:22688,动态:22659,动态:21436,动态:22698,动态:22685,动态:21776,动态:21753,动态:21727,动态:22667,动态:22680,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>动态:21436,动态:20440,动态:22688,动态:22019,动态:17337,动态:21776,动态:22698,动态:7746,动态:22699,动态:21972,动态:22512,动态:21780,动态:21753,动态:21757,动态:22680,动态:22702,动态:21857,动态:21756,动态:21740,动态:22146,动态:22685,动态:22692,动态:21737,动态:22507,动态:21763,动态:21556,动态:22710,动态:20364,动态:22659,动态:21741,动态:20439,动态:22706,动态:4036,动态:20399,动态:22667,动态:21975,动态:21727,动态:22696,动态:20720,动态:21745,动态:22697,动态:22323,动态:22684</t>
+          <t>动态:21763,动态:21857,动态:22697,动态:21436,动态:20440,动态:22019,动态:22706,动态:21757,动态:22699,动态:22710,动态:22688,动态:22698,动态:21737,动态:21745,动态:21753,动态:21741,动态:20720,动态:22667,动态:22696,动态:17337,动态:21727,动态:21556,动态:22692,动态:21780,动态:20364,动态:22680,动态:22685,动态:22684,动态:22659,动态:21756,动态:4036,动态:21972,动态:22323,动态:20399,动态:20439,动态:22702,动态:21975,动态:21776,动态:22512,动态:21740,动态:7746,动态:22146,动态:22507</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22697,动态:22323,动态:21727,动态:22688,动态:21857,动态:21975,动态:22692,动态:21737,动态:21972,动态:22507,动态:22684,动态:21741,动态:22667,动态:22019,动态:22685,动态:7746,动态:21776,动态:21740,动态:21757,动态:20720,动态:22512,动态:21753,动态:20440,动态:21745,动态:21763,动态:22696,动态:21556,动态:22659,动态:22702,动态:22710,动态:22698,动态:21756,动态:20364,动态:17337,动态:22706,动态:4036,动态:20439,动态:21780,动态:22699,动态:22680,动态:22146,动态:20399</t>
+          <t>动态:22019,动态:22710,动态:21763,动态:22507,动态:22699,动态:22667,动态:22659,动态:21756,动态:21436,动态:20720,动态:21727,动态:22512,动态:22323,动态:21745,动态:21972,动态:21556,动态:22680,动态:17337,动态:22684,动态:20440,动态:21757,动态:21741,动态:7746,动态:21737,动态:21753,动态:22696,动态:21975,动态:22688,动态:21780,动态:22706,动态:22702,动态:22685,动态:20439,动态:22698,动态:22146,动态:21740,动态:20399,动态:22697,动态:20364,动态:21776,动态:22692,动态:4036,动态:21857</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22710,动态:21745,动态:22684,动态:21776,动态:21753,动态:7746,动态:20440,动态:21727,动态:22659,动态:21741,动态:21757,动态:17337,动态:22323,动态:21972,动态:22667,动态:20399,动态:21556,动态:21737,动态:22706,动态:21756,动态:21740,动态:21857,动态:22688,动态:22146,动态:22507,动态:20720,动态:20439,动态:22699,动态:21763,动态:21975,动态:22685,动态:22512,动态:22019,动态:21780,动态:21436,动态:20364,动态:4036,动态:22697,动态:22696,动态:22698,动态:22692,动态:22702</t>
+          <t>动态:22323,动态:21737,动态:20440,动态:22667,动态:22710,动态:21436,动态:22696,动态:20399,动态:21776,动态:22702,动态:21556,动态:4036,动态:21757,动态:22685,动态:20720,动态:22692,动态:7746,动态:21972,动态:22512,动态:21727,动态:21740,动态:21756,动态:22706,动态:21745,动态:22698,动态:22146,动态:22680,动态:20439,动态:22659,动态:22688,动态:22507,动态:21780,动态:20364,动态:22684,动态:21741,动态:22019,动态:21763,动态:17337,动态:22699,动态:21857,动态:21753,动态:21975,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>动态:22698,动态:20364,动态:22684,动态:21972,动态:21727,动态:22685,动态:22512,动态:22697,动态:21975,动态:22019,动态:21757,动态:21756,动态:21436,动态:21780,动态:22696,动态:21741,动态:21737,动态:20720,动态:20399,动态:22659,动态:22146,动态:22702,动态:21740,动态:22323,动态:22699,动态:22680,动态:21745,动态:21776,动态:17337,动态:22710,动态:22507,动态:22692,动态:22688,动态:20439,动态:21556,动态:7746,动态:22706,动态:21857,动态:22667,动态:4036,动态:21763,动态:21753,动态:20440</t>
+          <t>动态:21753,动态:22667,动态:22696,动态:22685,动态:21741,动态:20399,动态:21763,动态:22512,动态:22323,动态:22019,动态:21740,动态:4036,动态:21756,动态:22702,动态:21975,动态:22688,动态:21745,动态:21556,动态:20364,动态:21436,动态:20440,动态:21776,动态:22699,动态:20720,动态:22706,动态:22698,动态:22684,动态:21737,动态:7746,动态:21757,动态:20439,动态:22659,动态:21857,动态:21780,动态:22680,动态:22692,动态:22697,动态:22507,动态:21972,动态:22710,动态:22146,动态:17337,动态:21727</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22323,动态:22685,动态:22680,动态:22706,动态:22019,动态:21757,动态:22697,动态:22696,动态:21972,动态:21763,动态:22702,动态:22667,动态:20439,动态:22692,动态:20364,动态:21753,动态:22710,动态:21975,动态:22688,动态:22699,动态:21740,动态:21737,动态:21745,动态:7746,动态:21780,动态:17337,动态:22146,动态:4036,动态:21857,动态:21436,动态:21741,动态:21756,动态:22684,动态:21727,动态:21556,动态:20399,动态:22512,动态:21776,动态:22659,动态:22698,动态:20720,动态:22507</t>
+          <t>动态:21975,动态:21727,动态:21776,动态:22323,动态:21780,动态:20364,动态:22684,动态:21753,动态:22696,动态:22680,动态:4036,动态:22507,动态:22710,动态:21436,动态:21737,动态:22019,动态:21740,动态:20399,动态:22706,动态:21972,动态:22699,动态:22697,动态:20440,动态:22702,动态:21756,动态:22698,动态:20720,动态:22512,动态:20439,动态:17337,动态:21857,动态:22667,动态:21745,动态:21556,动态:22692,动态:21741,动态:21757,动态:22688,动态:7746,动态:22659,动态:22685,动态:21763,动态:22146</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21776,动态:20720,动态:21556,动态:21741,动态:7746,动态:20440,动态:22702,动态:21740,动态:22680,动态:22146,动态:20399,动态:22507,动态:22685,动态:21737,动态:22323,动态:22696,动态:21975,动态:21727,动态:21753,动态:17337,动态:22698,动态:21857,动态:21780,动态:22667,动态:22697,动态:21756,动态:21745,动态:21436,动态:22659,动态:22706,动态:22019,动态:22699,动态:22684,动态:22710,动态:21757,动态:20439,动态:4036,动态:22688,动态:21972,动态:21763,动态:22512,动态:20364</t>
+          <t>动态:21756,动态:22146,动态:21776,动态:22684,动态:22699,动态:21757,动态:20364,动态:4036,动态:22512,动态:20399,动态:22706,动态:7746,动态:21753,动态:22710,动态:21740,动态:22697,动态:20439,动态:21972,动态:21436,动态:22019,动态:20720,动态:21556,动态:21780,动态:22688,动态:22696,动态:21741,动态:21857,动态:22680,动态:21745,动态:21727,动态:22685,动态:17337,动态:21975,动态:21737,动态:22507,动态:20440,动态:22323,动态:21763,动态:22659,动态:22667,动态:22698,动态:22692,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>动态:22692,动态:22146,动态:21727,动态:20720,动态:22684,动态:20439,动态:21753,动态:22512,动态:21975,动态:21972,动态:22710,动态:22699,动态:20399,动态:20364,动态:22667,动态:21756,动态:21780,动态:21745,动态:22706,动态:22659,动态:22323,动态:22680,动态:22698,动态:21757,动态:22685,动态:22702,动态:21556,动态:21763,动态:21776,动态:21857,动态:17337,动态:22019,动态:22688,动态:22696,动态:21741,动态:7746,动态:20440,动态:21436,动态:22697,动态:22507,动态:21737,动态:4036,动态:21740</t>
+          <t>动态:22706,动态:22507,动态:20364,动态:21780,动态:22684,动态:21740,动态:4036,动态:22685,动态:21556,动态:22323,动态:22667,动态:21436,动态:21972,动态:22680,动态:22688,动态:22699,动态:22697,动态:21753,动态:21756,动态:7746,动态:22692,动态:21857,动态:21757,动态:21745,动态:22696,动态:21776,动态:22019,动态:20720,动态:20440,动态:20439,动态:21727,动态:21741,动态:21975,动态:22659,动态:22710,动态:20399,动态:21737,动态:17337,动态:22702,动态:22512,动态:22698,动态:22146,动态:21763</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>动态:22702,动态:20439,动态:21757,动态:22688,动态:21776,动态:21756,动态:22680,动态:21780,动态:22698,动态:22019,动态:21741,动态:22699,动态:21972,动态:17337,动态:22696,动态:21763,动态:20720,动态:21745,动态:21436,动态:22684,动态:21740,动态:22323,动态:22507,动态:22667,动态:22692,动态:22706,动态:21753,动态:22512,动态:22146,动态:22710,动态:22685,动态:20440,动态:22659,动态:21857,动态:22697,动态:20399,动态:20364,动态:21556,动态:21975,动态:21737,动态:21727</t>
+          <t>动态:21857,动态:21763,动态:21757,动态:22323,动态:22667,动态:21737,动态:22685,动态:22684,动态:21436,动态:20364,动态:20399,动态:17337,动态:22146,动态:21745,动态:21753,动态:20439,动态:22692,动态:22699,动态:22019,动态:22659,动态:21556,动态:22680,动态:22507,动态:22706,动态:21975,动态:22696,动态:22697,动态:22710,动态:21727,动态:21756,动态:21780,动态:21740,动态:21776,动态:22512,动态:22688,动态:20440,动态:21741,动态:22702,动态:21972,动态:20720,动态:22698</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>动态:21727,动态:20364,动态:22680,动态:22684,动态:20439,动态:22685,动态:21972,动态:22697,动态:21763,动态:22710,动态:21757,动态:20440,动态:21740,动态:4036,动态:22146,动态:21776,动态:22696,动态:20399,动态:21857,动态:21756,动态:21556,动态:17337,动态:21436,动态:22019,动态:22323,动态:7746,动态:21975,动态:22692,动态:22706,动态:22667,动态:22699,动态:22688,动态:22702,动态:20720,动态:21780,动态:21737,动态:21745,动态:21741,动态:22507,动态:21753,动态:22698,动态:22512,动态:22659</t>
+          <t>动态:21727,动态:22667,动态:7746,动态:21737,动态:22699,动态:22680,动态:22685,动态:21745,动态:21436,动态:20720,动态:21757,动态:22698,动态:22696,动态:22323,动态:20364,动态:20440,动态:22659,动态:21753,动态:21740,动态:22507,动态:22146,动态:21556,动态:22702,动态:22512,动态:22019,动态:22710,动态:21975,动态:21756,动态:4036,动态:22706,动态:21780,动态:20439,动态:17337,动态:22688,动态:21776,动态:22692,动态:22697,动态:22684,动态:21741,动态:20399,动态:21857,动态:21763,动态:21972</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>动态:22696,动态:22507,动态:22692,动态:21972,动态:20364,动态:22512,动态:4036,动态:22323,动态:21436,动态:21756,动态:21740,动态:22685,动态:21727,动态:22688,动态:22146,动态:22667,动态:22684,动态:21737,动态:21975,动态:21857,动态:22698,动态:7746,动态:20440,动态:22019,动态:22697,动态:17337,动态:20399,动态:21753,动态:22706,动态:22702,动态:20720,动态:21556,动态:21780,动态:21763,动态:22680,动态:22710,动态:21757,动态:22659,动态:21776,动态:21741,动态:20439,动态:21745,动态:22699</t>
+          <t>动态:20364,动态:7746,动态:22659,动态:22706,动态:22710,动态:22507,动态:21556,动态:21745,动态:21972,动态:4036,动态:21780,动态:22512,动态:22667,动态:22688,动态:22702,动态:22680,动态:21756,动态:22019,动态:21763,动态:22323,动态:21753,动态:21975,动态:22697,动态:21857,动态:21776,动态:21727,动态:20399,动态:21436,动态:22698,动态:20720,动态:21740,动态:21757,动态:17337,动态:22696,动态:20439,动态:22699,动态:22684,动态:21737,动态:21741,动态:22692,动态:22146,动态:20440,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>动态:7746,动态:22702,动态:22667,动态:22507,动态:22019,动态:21763,动态:22706,动态:17337,动态:22692,动态:21436,动态:21741,动态:21756,动态:21972,动态:21745,动态:22710,动态:22698,动态:21776,动态:20720,动态:21737,动态:22684,动态:22697,动态:22696,动态:22685,动态:22688,动态:22323,动态:21975,动态:20399,动态:22512,动态:21780,动态:4036,动态:21556,动态:21857,动态:20364,动态:21727,动态:22146,动态:22659,动态:21757,动态:22699,动态:21753,动态:21740,动态:22680</t>
+          <t>动态:20399,动态:21737,动态:21556,动态:22507,动态:21756,动态:22019,动态:22698,动态:22667,动态:17337,动态:22685,动态:22688,动态:21972,动态:21727,动态:22512,动态:7746,动态:21740,动态:22692,动态:22146,动态:21776,动态:4036,动态:22323,动态:20364,动态:21757,动态:21436,动态:22702,动态:22696,动态:22710,动态:21745,动态:22706,动态:22680,动态:21857,动态:22699,动态:22697,动态:21763,动态:22684,动态:21975,动态:20720,动态:21780,动态:21753,动态:21741,动态:22659</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21727,动态:21753,动态:21780,动态:21763,动态:22507,动态:22697,动态:21756,动态:20399,动态:21737,动态:22698,动态:22706,动态:21745,动态:7746,动态:22696,动态:21741,动态:22667,动态:22702,动态:21975,动态:22659,动态:22512,动态:21857,动态:21757,动态:20439,动态:20720,动态:21556,动态:17337,动态:21776,动态:22692,动态:22146,动态:22680,动态:21972,动态:22684,动态:20364,动态:22019,动态:21740,动态:4036,动态:22688,动态:21436,动态:22699,动态:22685,动态:22710</t>
+          <t>动态:17337,动态:22507,动态:21727,动态:22685,动态:22692,动态:20364,动态:21975,动态:22684,动态:21857,动态:22667,动态:22698,动态:7746,动态:22680,动态:21757,动态:21740,动态:21436,动态:21763,动态:22688,动态:21556,动态:20399,动态:4036,动态:22706,动态:22697,动态:22696,动态:22710,动态:22146,动态:22323,动态:21745,动态:20720,动态:22699,动态:22702,动态:21737,动态:21741,动态:21756,动态:21972,动态:20439,动态:21780,动态:22659,动态:21753,动态:22019,动态:21776,动态:22512</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>动态:22684,动态:21776,动态:21740,动态:22702,动态:22697,动态:21757,动态:21737,动态:21975,动态:22667,动态:22692,动态:22706,动态:20364,动态:21763,动态:22507,动态:21727,动态:22659,动态:22019,动态:20440,动态:21756,动态:22146,动态:20720,动态:21556,动态:22323,动态:22698,动态:21741,动态:21745,动态:21857,动态:21780,动态:22680,动态:20439,动态:22685,动态:21972,动态:22710,动态:21753,动态:22512,动态:7746,动态:21436,动态:22699,动态:4036,动态:17337,动态:20399,动态:22696,动态:22688</t>
+          <t>动态:20364,动态:20720,动态:21740,动态:22697,动态:21972,动态:22692,动态:22688,动态:22685,动态:22696,动态:21727,动态:21556,动态:22706,动态:21753,动态:17337,动态:21763,动态:22702,动态:22680,动态:21757,动态:21745,动态:22699,动态:7746,动态:22507,动态:22667,动态:22146,动态:21737,动态:22710,动态:22698,动态:21436,动态:22323,动态:21741,动态:20439,动态:22659,动态:22512,动态:4036,动态:21756,动态:22019,动态:21857,动态:20440,动态:21776,动态:21780,动态:22684,动态:20399,动态:21975</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>动态:20837,动态:12901,动态:18075,动态:6522,动态:12898,动态:20672,动态:12719,动态:12690,动态:21417,动态:17582,动态:8128,动态:20673,动态:12896,动态:12727,动态:12589,动态:18325,动态:12595,动态:12593,动态:12592,动态:18314,动态:12711,动态:20089,动态:22667,动态:16607,动态:19783,动态:22707,动态:22708,动态:20310,动态:20200,动态:7062,动态:18868,动态:6622,动态:19208,动态:18871,动态:19007,动态:16821,动态:16602,动态:19995,动态:19829,动态:16385,动态:19935,动态:16395,动态:16401,动态:6472,动态:20005,动态:6637,动态:21970,动态:17471,动态:21757,动态:4302</t>
+          <t>动态:20837,动态:12901,动态:18075,动态:6522,动态:12898,动态:20672,动态:12719,动态:12690,动态:21417,动态:17582,动态:8128,动态:20673,动态:12896,动态:12727,动态:12589,动态:18325,动态:12595,动态:12593,动态:12592,动态:18314,动态:12711,动态:20089,动态:22667,动态:16607,动态:19783,动态:22707,动态:22708,动态:20310,动态:20200,动态:7062,动态:18868,动态:6622,动态:19208,动态:18871,动态:19007,动态:16821,动态:16602,动态:19995,动态:19829,动态:16385,动态:19935,动态:16395,动态:16401,动态:6472,动态:20005,动态:6547,动态:21436,动态:3795,动态:16914,动态:4302</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>动态:22019,动态:17337,动态:22698,动态:21975,动态:22699,动态:21727,动态:22512,动态:22685,动态:4036,动态:22323,动态:21757,动态:20439,动态:21741,动态:22146,动态:21763,动态:20720,动态:21972,动态:22680,动态:21436,动态:21857,动态:20399,动态:21756,动态:22684,动态:21745,动态:20364,动态:21556,动态:22710,动态:22706,动态:22507,动态:21776,动态:22702,动态:22688,动态:22697,动态:7746,动态:21740,动态:21753,动态:21737,动态:21780,动态:22667,动态:20440,动态:22692,动态:22696,动态:22659</t>
+          <t>动态:22146,动态:21745,动态:20440,动态:22699,动态:22710,动态:22696,动态:4036,动态:21753,动态:21857,动态:21556,动态:22680,动态:22702,动态:22323,动态:21436,动态:22512,动态:20364,动态:21776,动态:21975,动态:22688,动态:22685,动态:22692,动态:7746,动态:21756,动态:17337,动态:21763,动态:21780,动态:22659,动态:22019,动态:21972,动态:20399,动态:22684,动态:21741,动态:21737,动态:21757,动态:22706,动态:20720,动态:22667,动态:21727,动态:21740,动态:22507,动态:22698,动态:20439,动态:22697</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>动态:20399,动态:22698,动态:21737,动态:22019,动态:20364,动态:22696,动态:22146,动态:21757,动态:22685,动态:20440,动态:20439,动态:21753,动态:21556,动态:21436,动态:21740,动态:22323,动态:21780,动态:21745,动态:22507,动态:21857,动态:22697,动态:22684,动态:21763,动态:7746,动态:21727,动态:22699,动态:22702,动态:22706,动态:4036,动态:22692,动态:21972,动态:17337,动态:22710,动态:22512,动态:22680,动态:22667,动态:22688,动态:21776,动态:21741,动态:20720,动态:22659,动态:21975,动态:21756</t>
+          <t>动态:22710,动态:21780,动态:21776,动态:17337,动态:22019,动态:22706,动态:20399,动态:20364,动态:22688,动态:21745,动态:7746,动态:21757,动态:20439,动态:22680,动态:22659,动态:21740,动态:20720,动态:22507,动态:22698,动态:22512,动态:21741,动态:21753,动态:4036,动态:21975,动态:21727,动态:22685,动态:21756,动态:22323,动态:22696,动态:22146,动态:21737,动态:22697,动态:21857,动态:20440,动态:22692,动态:22667,动态:21763,动态:21556,动态:22684,动态:22699,动态:22702,动态:21972,动态:21436</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>动态:17337,动态:22323,动态:21972,动态:22698,动态:21756,动态:21753,动态:22696,动态:21776,动态:21741,动态:22685,动态:22697,动态:4036,动态:20440,动态:21737,动态:21436,动态:21556,动态:20439,动态:20399,动态:21780,动态:22019,动态:22680,动态:22659,动态:21757,动态:22146,动态:21727,动态:22667,动态:22706,动态:20720,动态:22512,动态:21975,动态:22692,动态:20364,动态:22699,动态:21857,动态:7746,动态:22702,动态:21745,动态:21740,动态:22684,动态:22507,动态:22710,动态:21763,动态:22688</t>
+          <t>动态:20440,动态:22692,动态:22667,动态:21757,动态:22019,动态:21740,动态:22699,动态:20439,动态:21737,动态:22688,动态:21857,动态:20364,动态:17337,动态:21776,动态:21556,动态:22710,动态:22696,动态:22698,动态:21780,动态:4036,动态:22146,动态:22684,动态:7746,动态:21436,动态:22659,动态:21763,动态:22680,动态:22706,动态:21753,动态:21745,动态:20720,动态:20399,动态:21975,动态:22697,动态:22685,动态:21756,动态:21727,动态:22507,动态:22323,动态:22512,动态:22702,动态:21972,动态:21741</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>动态:21741,动态:22512,动态:21972,动态:22685,动态:21757,动态:21740,动态:21857,动态:21737,动态:22710,动态:21556,动态:22697,动态:7746,动态:22507,动态:22684,动态:22698,动态:22692,动态:21753,动态:22706,动态:22323,动态:20720,动态:21745,动态:22019,动态:20364,动态:22680,动态:20440,动态:20399,动态:17337,动态:22667,动态:22699,动态:21436,动态:21776,动态:21780,动态:21727,动态:22702,动态:22146,动态:21975,动态:20439,动态:4036,动态:22696,动态:22688,动态:21756,动态:21763,动态:22659</t>
+          <t>动态:17337,动态:22685,动态:20720,动态:21972,动态:22692,动态:20440,动态:21776,动态:22146,动态:21556,动态:20439,动态:22696,动态:21745,动态:22710,动态:21756,动态:22688,动态:22706,动态:22684,动态:22507,动态:22019,动态:21741,动态:21727,动态:21753,动态:7746,动态:4036,动态:22698,动态:22697,动态:21857,动态:21780,动态:22699,动态:22680,动态:22659,动态:21737,动态:22323,动态:20364,动态:21975,动态:21740,动态:20399,动态:22512,动态:21763,动态:22702,动态:21757,动态:22667,动态:21436</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>动态:21745,动态:22688,动态:22698,动态:21753,动态:21757,动态:17337,动态:22692,动态:22667,动态:22706,动态:4036,动态:20364,动态:22699,动态:20720,动态:7746,动态:22697,动态:21776,动态:21975,动态:21972,动态:22685,动态:21857,动态:22323,动态:22684,动态:21740,动态:20440,动态:22507,动态:21763,动态:21741,动态:22696,动态:21780,动态:20399,动态:22019,动态:22710,动态:21756,动态:22702,动态:21436,动态:22512,动态:21556,动态:22659,动态:21727,动态:20439,动态:21737,动态:22146,动态:22680</t>
+          <t>动态:21780,动态:21436,动态:21741,动态:22710,动态:22685,动态:22697,动态:20720,动态:21972,动态:20399,动态:22702,动态:22680,动态:21737,动态:22323,动态:21857,动态:22699,动态:22696,动态:22698,动态:20440,动态:20364,动态:4036,动态:21745,动态:22659,动态:22684,动态:22507,动态:22512,动态:17337,动态:21776,动态:21975,动态:7746,动态:22146,动态:22667,动态:20439,动态:21753,动态:21556,动态:22019,动态:21763,动态:21756,动态:21740,动态:22692,动态:22688,动态:21727,动态:21757,动态:22706</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>动态:20440,动态:22692,动态:20364,动态:21745,动态:22512,动态:21972,动态:21975,动态:4036,动态:22146,动态:20439,动态:22667,动态:22688,动态:22323,动态:22706,动态:21757,动态:21753,动态:22696,动态:22680,动态:21741,动态:21737,动态:17337,动态:21763,动态:21436,动态:22685,动态:22659,动态:22699,动态:21857,动态:21740,动态:21776,动态:22684,动态:22710,动态:21556,动态:20399,动态:22698,动态:21756,动态:20720,动态:22697,动态:21727,动态:7746,动态:22507,动态:22702,动态:21780,动态:22019</t>
+          <t>动态:20364,动态:22710,动态:17337,动态:21753,动态:22688,动态:21436,动态:20720,动态:22692,动态:21857,动态:22696,动态:22507,动态:20440,动态:21741,动态:22146,动态:7746,动态:22699,动态:20439,动态:22659,动态:21740,动态:21737,动态:22698,动态:22512,动态:4036,动态:22019,动态:21745,动态:21975,动态:20399,动态:21780,动态:21757,动态:21727,动态:21756,动态:21556,动态:21763,动态:22667,动态:22684,动态:22680,动态:22685,动态:21972,动态:22323,动态:22706,动态:22697,动态:21776,动态:22702</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21975,动态:21780,动态:22698,动态:21436,动态:22667,动态:21763,动态:22507,动态:21740,动态:17337,动态:20720,动态:22696,动态:21756,动态:22688,动态:22684,动态:20440,动态:21556,动态:22512,动态:21972,动态:20399,动态:4036,动态:22659,动态:22702,动态:21727,动态:22323,动态:20439,动态:21741,动态:21737,动态:22146,动态:22699,动态:7746,动态:20364,动态:22710,动态:21776,动态:22685,动态:22019,动态:22697,动态:21757,动态:22706,动态:21857,动态:21753,动态:22680,动态:22692</t>
+          <t>动态:22684,动态:21776,动态:22507,动态:20439,动态:22685,动态:22688,动态:21756,动态:22019,动态:22698,动态:21857,动态:21757,动态:21436,动态:7746,动态:22667,动态:22710,动态:21556,动态:21740,动态:21972,动态:21975,动态:21780,动态:21745,动态:22699,动态:22696,动态:22659,动态:21741,动态:21727,动态:22706,动态:20399,动态:22692,动态:22697,动态:21763,动态:22323,动态:22146,动态:22680,动态:4036,动态:20364,动态:21753,动态:21737,动态:22512,动态:22702,动态:20440,动态:17337,动态:20720</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>动态:21757,动态:20439,动态:17337,动态:22699,动态:7746,动态:21737,动态:22685,动态:22688,动态:22710,动态:22684,动态:22697,动态:22507,动态:22692,动态:22323,动态:21763,动态:20720,动态:21436,动态:22698,动态:21745,动态:22146,动态:21972,动态:22667,动态:22512,动态:22019,动态:21857,动态:21740,动态:20399,动态:21556,动态:22696,动态:21776,动态:22702,动态:21741,动态:22706,动态:4036,动态:21756,动态:22659,动态:21753,动态:20364,动态:21727,动态:22680,动态:21975,动态:20440,动态:21780</t>
+          <t>动态:20439,动态:22688,动态:20720,动态:21436,动态:21857,动态:22702,动态:20364,动态:22146,动态:21975,动态:21776,动态:21727,动态:22512,动态:22680,动态:21745,动态:22667,动态:22692,动态:17337,动态:22697,动态:21972,动态:22698,动态:22706,动态:21756,动态:21740,动态:22659,动态:21780,动态:20399,动态:21757,动态:21737,动态:22507,动态:4036,动态:22019,动态:22699,动态:7746,动态:21753,动态:22685,动态:21556,动态:21741,动态:22696,动态:22684,动态:22323,动态:21763,动态:22710,动态:20440</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22706,动态:21436,动态:22702,动态:21556,动态:22696,动态:21740,动态:22684,动态:22685,动态:22659,动态:21857,动态:21753,动态:22699,动态:21727,动态:21745,动态:21737,动态:21756,动态:20440,动态:22512,动态:21780,动态:20439,动态:17337,动态:21776,动态:21763,动态:21972,动态:22019,动态:22697,动态:22688,动态:22680,动态:20720,动态:22698,动态:22507,动态:22146,动态:21757,动态:22692,动态:4036,动态:21741,动态:22667,动态:22323,动态:7746,动态:20399,动态:21975,动态:22710</t>
+          <t>动态:21753,动态:20439,动态:22698,动态:4036,动态:22688,动态:21757,动态:22692,动态:7746,动态:17337,动态:21436,动态:22699,动态:22323,动态:21740,动态:21972,动态:21780,动态:21763,动态:22146,动态:20364,动态:21737,动态:21556,动态:22512,动态:22706,动态:22019,动态:21756,动态:22696,动态:22507,动态:21857,动态:21727,动态:21776,动态:22710,动态:21745,动态:22702,动态:20720,动态:22684,动态:20399,动态:22680,动态:20440,动态:21975,动态:22697,动态:21741,动态:22659,动态:22685,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>动态:22698,动态:21972,动态:22146,动态:21741,动态:20439,动态:21556,动态:7746,动态:22684,动态:22702,动态:20440,动态:21753,动态:21975,动态:22019,动态:20720,动态:22667,动态:22699,动态:21757,动态:20364,动态:20399,动态:21763,动态:22323,动态:21436,动态:22685,动态:22659,动态:22697,动态:22688,动态:21776,动态:22696,动态:21745,动态:22706,动态:22512,动态:21740,动态:21780,动态:4036,动态:22692,动态:21727,动态:17337,动态:21737,动态:22680,动态:21756,动态:21857,动态:22710,动态:22507</t>
+          <t>动态:22692,动态:22512,动态:22680,动态:22697,动态:20440,动态:21763,动态:22507,动态:22698,动态:22702,动态:21556,动态:20399,动态:22667,动态:20720,动态:17337,动态:21757,动态:22688,动态:22684,动态:21975,动态:20364,动态:22710,动态:21740,动态:22699,动态:22696,动态:21753,动态:20439,动态:21780,动态:7746,动态:21737,动态:22146,动态:21745,动态:21972,动态:22019,动态:21436,动态:21776,动态:22685,动态:4036,动态:21756,动态:22706,动态:21857,动态:21741,动态:21727,动态:22659,动态:22323</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>动态:22680,动态:22685,动态:22699,动态:21745,动态:17337,动态:22688,动态:21753,动态:22710,动态:22512,动态:22323,动态:22667,动态:4036,动态:21780,动态:22698,动态:21436,动态:22702,动态:7746,动态:21975,动态:21857,动态:21763,动态:21556,动态:22507,动态:22659,动态:20364,动态:20720,动态:22697,动态:20399,动态:21741,动态:22684,动态:22019,动态:21727,动态:21740,动态:21756,动态:21757,动态:21737,动态:22696,动态:21972,动态:21776,动态:22706,动态:22146,动态:22692,动态:20439,动态:20440</t>
+          <t>动态:21763,动态:22512,动态:21740,动态:22323,动态:17337,动态:22685,动态:22019,动态:22667,动态:20439,动态:22507,动态:21737,动态:22696,动态:22702,动态:21756,动态:22659,动态:21857,动态:22699,动态:21556,动态:22706,动态:21745,动态:7746,动态:21727,动态:20399,动态:22146,动态:21972,动态:22688,动态:22692,动态:21776,动态:22680,动态:22698,动态:20364,动态:22684,动态:20440,动态:21757,动态:21741,动态:4036,动态:21780,动态:22697,动态:20720,动态:22710,动态:21975,动态:21753,动态:21436</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>动态:22696,动态:21780,动态:20720,动态:21556,动态:21975,动态:20440,动态:21757,动态:21776,动态:21727,动态:21753,动态:22019,动态:21972,动态:21436,动态:20439,动态:7746,动态:22323,动态:22512,动态:17337,动态:22685,动态:21745,动态:22706,动态:22507,动态:22680,动态:22688,动态:21737,动态:22146,动态:21740,动态:22699,动态:21763,动态:22698,动态:22692,动态:21857,动态:22710,动态:21741,动态:22702,动态:4036,动态:22684,动态:22659,动态:22667,动态:22697,动态:21756,动态:20399,动态:20364</t>
+          <t>动态:21556,动态:21756,动态:22680,动态:22659,动态:20399,动态:21975,动态:22684,动态:20439,动态:22507,动态:20440,动态:7746,动态:22698,动态:22710,动态:21737,动态:22019,动态:22685,动态:21741,动态:21757,动态:17337,动态:22706,动态:21727,动态:22696,动态:22699,动态:20720,动态:22692,动态:21436,动态:21857,动态:21740,动态:21780,动态:22667,动态:21972,动态:4036,动态:22323,动态:22697,动态:21753,动态:22146,动态:22688,动态:21763,动态:22702,动态:20364,动态:21776,动态:22512,动态:21745</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22512,动态:21753,动态:22146,动态:21741,动态:21780,动态:22685,动态:22659,动态:4036,动态:22702,动态:21740,动态:22698,动态:21972,动态:22019,动态:21975,动态:22667,动态:22696,动态:22697,动态:21756,动态:21776,动态:20439,动态:21763,动态:21727,动态:20720,动态:22507,动态:22692,动态:22699,动态:21745,动态:7746,动态:20364,动态:21757,动态:17337,动态:21436,动态:22684,动态:21857,动态:21737,动态:22706,动态:22680,动态:21556,动态:20440,动态:22688,动态:20399,动态:22710</t>
+          <t>动态:21756,动态:20720,动态:7746,动态:21975,动态:22146,动态:21972,动态:22685,动态:21780,动态:22699,动态:20439,动态:22710,动态:21556,动态:17337,动态:20364,动态:21763,动态:21436,动态:22706,动态:22659,动态:21776,动态:21741,动态:22323,动态:21740,动态:22667,动态:22702,动态:20440,动态:21857,动态:22019,动态:20399,动态:22688,动态:22698,动态:21727,动态:22692,动态:21737,动态:22696,动态:22512,动态:4036,动态:21745,动态:22684,动态:22697,动态:22507,动态:21753,动态:21757,动态:22680</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>动态:22692,动态:20440,动态:21737,动态:20364,动态:22680,动态:21556,动态:21763,动态:20439,动态:21436,动态:22019,动态:21753,动态:22706,动态:21740,动态:22512,动态:22684,动态:21727,动态:22688,动态:22659,动态:21972,动态:21975,动态:22698,动态:22323,动态:21745,动态:20399,动态:22699,动态:22710,动态:7746,动态:22697,动态:22696,动态:4036,动态:22685,动态:22667,动态:17337,动态:21857,动态:21757,动态:22146,动态:20720,动态:21780,动态:21776,动态:22702,动态:21741,动态:22507</t>
+          <t>动态:20439,动态:20364,动态:22702,动态:22507,动态:22512,动态:21740,动态:21753,动态:22685,动态:21556,动态:22706,动态:22323,动态:4036,动态:22699,动态:22688,动态:22698,动态:7746,动态:22659,动态:21741,动态:20720,动态:22680,动态:21975,动态:21776,动态:20399,动态:22667,动态:22692,动态:22684,动态:22019,动态:21857,动态:21763,动态:21972,动态:21780,动态:20440,动态:17337,动态:22697,动态:21737,动态:22710,动态:21757,动态:21745,动态:22696,动态:21727,动态:21436,动态:22146</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>动态:22664,动态:22658,动态:22146,动态:22609,动态:22642,动态:22625,动态:22659,动态:22657,动态:22654,动态:22656,动态:22653,动态:21737,动态:21857,动态:17337,动态:22710,动态:22667,动态:22684,动态:21436,动态:21780,动态:21757,动态:22680,动态:21740,动态:22019,动态:22323,动态:22702,动态:21745,动态:22692,动态:7746,动态:21727,动态:22706,动态:22697,动态:21975,动态:20440,动态:21741,动态:21763,动态:21972,动态:20399,动态:20364,动态:22698,动态:22685,动态:21753,动态:22507,动态:21776,动态:20720,动态:22696,动态:21556,动态:20439</t>
+          <t>动态:22664,动态:22658,动态:22146,动态:22609,动态:22642,动态:22625,动态:22659,动态:22657,动态:22654,动态:22656,动态:22653,动态:21737,动态:22697,动态:21780,动态:21753,动态:4036,动态:21556,动态:21975,动态:21776,动态:22702,动态:22696,动态:22323,动态:22685,动态:22692,动态:21757,动态:22706,动态:21972,动态:17337,动态:7746,动态:22019,动态:21727,动态:21763,动态:20364,动态:22699,动态:20440,动态:21740,动态:20439,动态:21745,动态:22680,动态:22684,动态:21741,动态:22688,动态:22667,动态:22512,动态:22710,动态:21756,动态:21436,动态:21857,动态:20720</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>动态:20364,动态:22702,动态:22697,动态:21763,动态:21741,动态:21975,动态:21972,动态:17337,动态:21756,动态:21776,动态:22323,动态:22512,动态:22019,动态:22706,动态:4036,动态:22699,动态:22684,动态:21737,动态:22696,动态:7746,动态:21436,动态:20399,动态:22710,动态:22688,动态:22692,动态:20720,动态:22507,动态:22667,动态:22685,动态:21857,动态:20440,动态:21757,动态:21727,动态:21740,动态:21753,动态:21556,动态:22680,动态:22659,动态:20439,动态:22698,动态:22146,动态:21745,动态:21780</t>
+          <t>动态:22699,动态:21737,动态:21776,动态:22507,动态:21745,动态:20399,动态:22684,动态:22019,动态:21972,动态:21727,动态:20439,动态:22659,动态:21740,动态:20364,动态:22697,动态:22696,动态:21756,动态:22685,动态:7746,动态:21857,动态:20720,动态:21780,动态:22702,动态:21757,动态:20440,动态:22680,动态:22323,动态:22146,动态:21741,动态:4036,动态:22706,动态:22688,动态:22710,动态:22667,动态:21436,动态:22698,动态:21556,动态:17337,动态:22692,动态:22512,动态:21763,动态:21975,动态:21753</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>动态:22697,动态:22323,动态:22659,动态:21753,动态:20720,动态:21745,动态:22684,动态:21757,动态:21776,动态:20364,动态:22706,动态:22710,动态:21780,动态:21972,动态:22680,动态:21436,动态:21975,动态:22685,动态:21857,动态:21737,动态:22696,动态:22512,动态:21556,动态:4036,动态:22692,动态:22699,动态:22702,动态:22688,动态:21727,动态:20440,动态:22667,动态:21756,动态:22019,动态:20399,动态:21763,动态:20439,动态:7746,动态:22698,动态:22146,动态:21740,动态:22507,动态:17337,动态:21741</t>
+          <t>动态:20364,动态:22692,动态:22146,动态:20720,动态:21763,动态:22698,动态:20439,动态:21757,动态:22688,动态:7746,动态:21857,动态:21436,动态:4036,动态:22685,动态:21780,动态:22697,动态:21756,动态:22706,动态:22019,动态:21741,动态:21727,动态:22684,动态:22696,动态:22507,动态:21745,动态:21776,动态:20440,动态:22680,动态:20399,动态:21975,动态:22659,动态:17337,动态:21737,动态:21753,动态:22512,动态:22667,动态:21972,动态:21740,动态:22699,动态:22710,动态:22323,动态:22702,动态:21556</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>动态:22323,动态:20364,动态:21753,动态:21741,动态:22146,动态:22692,动态:21556,动态:21740,动态:22512,动态:22685,动态:21756,动态:22688,动态:21776,动态:22684,动态:22697,动态:20439,动态:22702,动态:17337,动态:22680,动态:20399,动态:20440,动态:4036,动态:22706,动态:22710,动态:21737,动态:22699,动态:22507,动态:21757,动态:21975,动态:22698,动态:22019,动态:22696,动态:21763,动态:21780,动态:22659,动态:22667,动态:21857,动态:21436,动态:21745,动态:21972,动态:21727,动态:7746,动态:20720</t>
+          <t>动态:20720,动态:22696,动态:21757,动态:4036,动态:22323,动态:21436,动态:20399,动态:22698,动态:21740,动态:21975,动态:21857,动态:21780,动态:22019,动态:22688,动态:21763,动态:22659,动态:22697,动态:22680,动态:21727,动态:22507,动态:22706,动态:22710,动态:21556,动态:21776,动态:22146,动态:21972,动态:22684,动态:21737,动态:22702,动态:20364,动态:20439,动态:22512,动态:20440,动态:7746,动态:17337,动态:22692,动态:22667,动态:21756,动态:21753,动态:21741,动态:22699,动态:21745,动态:22685</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>动态:22685,动态:21972,动态:22688,动态:21780,动态:22698,动态:22146,动态:22667,动态:22507,动态:20364,动态:22710,动态:22699,动态:20399,动态:21436,动态:22697,动态:22684,动态:21741,动态:20439,动态:21556,动态:22019,动态:21745,动态:22512,动态:21753,动态:21737,动态:21740,动态:17337,动态:22323,动态:20440,动态:21857,动态:22706,动态:22659,动态:22702,动态:22692,动态:21975,动态:22696,动态:20720,动态:21756,动态:21763,动态:7746,动态:21727,动态:4036,动态:22680,动态:21776,动态:21757</t>
+          <t>动态:21757,动态:21737,动态:20399,动态:7746,动态:22692,动态:22685,动态:22688,动态:22146,动态:22019,动态:22696,动态:20440,动态:21756,动态:22710,动态:4036,动态:22659,动态:20720,动态:21745,动态:22699,动态:21972,动态:21776,动态:21556,动态:21741,动态:22323,动态:22507,动态:22512,动态:22706,动态:21753,动态:21436,动态:21780,动态:22697,动态:22684,动态:22702,动态:22698,动态:17337,动态:21727,动态:20364,动态:21857,动态:22680,动态:20439,动态:21763,动态:21740,动态:21975,动态:22667</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>动态:21756,动态:21776,动态:17337,动态:7746,动态:22698,动态:21972,动态:22696,动态:4036,动态:22710,动态:22323,动态:20440,动态:22692,动态:22146,动态:20399,动态:21857,动态:21436,动态:22706,动态:20720,动态:21727,动态:22688,动态:21757,动态:22659,动态:22702,动态:21975,动态:22667,动态:21780,动态:22684,动态:21753,动态:22685,动态:22699,动态:22680,动态:22512,动态:21763,动态:21740,动态:21741,动态:22697,动态:22019,动态:22507,动态:21745,动态:20439</t>
+          <t>动态:22667,动态:20720,动态:22698,动态:22706,动态:21975,动态:21757,动态:21727,动态:22699,动态:20439,动态:22696,动态:22659,动态:21972,动态:22019,动态:22680,动态:22146,动态:22507,动态:22323,动态:21763,动态:21745,动态:22512,动态:21756,动态:22685,动态:21780,动态:20399,动态:21741,动态:4036,动态:21753,动态:22684,动态:20440,动态:21776,动态:22702,动态:22697,动态:22692,动态:21857,动态:21436,动态:22710,动态:22688,动态:21740,动态:17337,动态:7746</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>动态:21727,动态:22507,动态:22659,动态:21436,动态:22680,动态:21857,动态:21740,动态:22685,动态:21972,动态:21753,动态:22146,动态:21757,动态:21556,动态:20720,动态:22323,动态:22512,动态:22706,动态:20399,动态:22667,动态:7746,动态:22697,动态:21737,动态:22019,动态:20440,动态:22684,动态:20364,动态:22702,动态:21741,动态:21745,动态:21756,动态:22710,动态:21975,动态:22698,动态:22699,动态:22692,动态:21780,动态:21776,动态:22688,动态:21763,动态:4036,动态:17337,动态:20439,动态:22696</t>
+          <t>动态:21756,动态:21757,动态:22706,动态:22659,动态:21975,动态:4036,动态:22688,动态:20364,动态:17337,动态:20439,动态:21740,动态:21737,动态:21556,动态:21776,动态:22512,动态:22697,动态:22696,动态:22684,动态:7746,动态:22702,动态:22680,动态:21753,动态:22507,动态:21727,动态:21741,动态:21745,动态:22699,动态:22323,动态:21972,动态:22146,动态:21780,动态:22667,动态:20440,动态:20720,动态:21436,动态:20399,动态:21763,动态:22698,动态:21857,动态:22685,动态:22019,动态:22692,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>动态:22710,动态:20720,动态:21727,动态:22697,动态:22019,动态:17337,动态:21857,动态:21780,动态:21757,动态:22685,动态:22507,动态:21776,动态:22699,动态:22692,动态:20439,动态:21556,动态:21756,动态:22696,动态:21737,动态:21975,动态:22680,动态:22688,动态:22667,动态:20440,动态:4036,动态:21972,动态:22706,动态:22698,动态:21740,动态:7746,动态:22702,动态:22512,动态:21745,动态:22146,动态:22323,动态:21436,动态:22659,动态:21753,动态:22684,动态:21741,动态:20399,动态:21763,动态:20364</t>
+          <t>动态:22698,动态:20439,动态:20440,动态:21436,动态:22680,动态:22702,动态:22710,动态:22696,动态:22688,动态:7746,动态:22512,动态:21757,动态:21727,动态:21776,动态:22659,动态:21780,动态:21737,动态:21857,动态:22507,动态:21741,动态:21756,动态:22684,动态:22685,动态:21556,动态:21972,动态:4036,动态:17337,动态:22697,动态:22692,动态:20399,动态:22019,动态:22323,动态:22699,动态:20364,动态:21745,动态:22706,动态:21740,动态:21763,动态:21753,动态:22667,动态:22146,动态:21975,动态:20720</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>动态:21975,动态:22680,动态:22706,动态:21556,动态:21737,动态:21745,动态:22019,动态:20364,动态:22667,动态:22692,动态:4036,动态:21436,动态:21857,动态:21757,动态:22146,动态:22696,动态:20399,动态:20440,动态:22512,动态:20439,动态:22685,动态:21740,动态:21763,动态:21780,动态:21972,动态:22702,动态:22684,动态:22698,动态:21753,动态:22699,动态:7746,动态:22710,动态:21741,动态:22688,动态:21756,动态:17337,动态:21776,动态:22323,动态:22697,动态:22659,动态:20720,动态:22507,动态:21727</t>
+          <t>动态:22697,动态:22512,动态:22699,动态:21975,动态:21740,动态:22019,动态:22146,动态:22688,动态:21757,动态:4036,动态:22685,动态:21780,动态:22680,动态:21763,动态:21737,动态:21776,动态:21756,动态:21972,动态:21745,动态:21727,动态:20364,动态:7746,动态:22323,动态:22710,动态:21741,动态:20399,动态:22706,动态:17337,动态:22659,动态:22696,动态:20439,动态:22667,动态:21556,动态:20440,动态:22702,动态:22692,动态:21753,动态:22684,动态:22698,动态:22507,动态:20720,动态:21857,动态:21436</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>动态:21757,动态:22706,动态:21727,动态:22146,动态:22659,动态:22680,动态:20440,动态:21975,动态:22507,动态:22692,动态:22702,动态:22697,动态:21745,动态:20439,动态:20364,动态:22698,动态:21763,动态:22323,动态:21740,动态:22710,动态:22512,动态:21776,动态:17337,动态:22688,动态:21741,动态:22685,动态:21556,动态:7746,动态:22667,动态:21753,动态:21780,动态:22699,动态:20399,动态:22684,动态:21737,动态:20720,动态:21756,动态:21857,动态:22019,动态:21436,动态:4036,动态:22696,动态:21972</t>
+          <t>动态:22702,动态:21741,动态:22512,动态:20399,动态:21727,动态:21740,动态:22680,动态:22710,动态:21972,动态:22019,动态:22692,动态:21757,动态:4036,动态:7746,动态:17337,动态:22706,动态:21737,动态:22684,动态:20364,动态:22688,动态:21436,动态:21776,动态:21556,动态:22323,动态:21756,动态:21857,动态:21780,动态:22696,动态:21975,动态:21753,动态:20720,动态:22698,动态:22685,动态:22659,动态:22507,动态:22697,动态:22146,动态:22699,动态:20440,动态:21745,动态:20439,动态:22667,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22323,动态:21763,动态:22019,动态:21741,动态:20720,动态:21975,动态:21737,动态:22685,动态:4036,动态:22688,动态:21776,动态:22667,动态:21745,动态:22696,动态:22507,动态:21436,动态:21556,动态:21972,动态:22680,动态:20399,动态:22706,动态:21753,动态:22697,动态:22710,动态:22692,动态:21756,动态:17337,动态:22512,动态:21780,动态:22659,动态:7746,动态:21857,动态:21727,动态:22146,动态:21757,动态:20364,动态:20439,动态:22699,动态:22684,动态:22702,动态:20440,动态:22698</t>
+          <t>动态:22699,动态:22323,动态:22019,动态:22684,动态:4036,动态:21436,动态:22706,动态:22696,动态:21737,动态:22698,动态:21857,动态:22702,动态:22507,动态:22685,动态:22697,动态:22688,动态:21972,动态:21745,动态:21757,动态:22667,动态:20439,动态:21776,动态:22146,动态:21756,动态:22710,动态:20364,动态:21780,动态:20399,动态:20720,动态:20440,动态:22692,动态:21556,动态:22659,动态:21763,动态:22512,动态:21741,动态:21727,动态:22680,动态:21975,动态:17337,动态:21740,动态:7746,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>动态:22659,动态:21753,动态:22697,动态:21436,动态:22019,动态:20440,动态:20364,动态:22667,动态:22146,动态:21975,动态:21780,动态:22706,动态:17337,动态:22507,动态:20399,动态:7746,动态:20720,动态:21763,动态:21556,动态:21737,动态:22512,动态:21857,动态:21756,动态:22688,动态:20439,动态:21740,动态:4036,动态:22696,动态:22692,动态:22684,动态:21741,动态:22680,动态:22699,动态:21972,动态:22698,动态:21727,动态:22710,动态:21745,动态:22323,动态:22702,动态:22685,动态:21776,动态:21757</t>
+          <t>动态:20440,动态:21727,动态:22702,动态:20720,动态:22696,动态:4036,动态:20399,动态:22680,动态:21753,动态:22684,动态:22323,动态:21741,动态:22697,动态:21763,动态:21776,动态:22698,动态:20439,动态:21757,动态:22710,动态:21780,动态:21975,动态:21972,动态:22507,动态:22685,动态:22019,动态:7746,动态:21436,动态:22512,动态:21857,动态:21556,动态:21740,动态:22659,动态:22699,动态:22692,动态:22667,动态:21745,动态:17337,动态:21737,动态:22688,动态:22146,动态:21756,动态:22706,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22688,动态:22146,动态:20439,动态:22706,动态:20440,动态:22697,动态:21756,动态:22667,动态:21740,动态:21972,动态:17337,动态:22692,动态:21745,动态:22659,动态:22019,动态:20720,动态:21776,动态:20399,动态:21737,动态:22684,动态:22699,动态:21727,动态:22507,动态:21556,动态:21780,动态:21436,动态:22323,动态:21975,动态:22685,动态:22710,动态:22512,动态:21753,动态:21757,动态:22702,动态:21741,动态:20364,动态:7746,动态:22696,动态:21857,动态:22680,动态:22698,动态:4036</t>
+          <t>动态:21745,动态:22699,动态:21737,动态:22696,动态:21753,动态:21857,动态:20440,动态:21741,动态:22698,动态:21780,动态:22659,动态:21756,动态:22688,动态:22146,动态:21972,动态:20364,动态:21740,动态:21727,动态:20399,动态:22692,动态:21757,动态:7746,动态:22512,动态:20720,动态:22710,动态:21975,动态:22019,动态:22702,动态:21556,动态:20439,动态:22507,动态:22706,动态:21763,动态:22667,动态:22684,动态:21776,动态:4036,动态:22697,动态:21436,动态:22685,动态:22323,动态:17337,动态:22680</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21756,动态:22706,动态:21753,动态:20439,动态:21737,动态:21776,动态:21763,动态:22684,动态:21556,动态:4036,动态:22667,动态:7746,动态:20720,动态:22659,动态:21741,动态:22680,动态:22685,动态:21780,动态:20399,动态:17337,动态:22697,动态:21757,动态:21975,动态:21727,动态:22512,动态:22692,动态:22146,动态:21745,动态:22696,动态:21857,动态:22019,动态:22323,动态:20364,动态:20440,动态:22699,动态:22688,动态:22507,动态:21740,动态:21436,动态:22698,动态:21972,动态:22702</t>
+          <t>动态:21776,动态:21756,动态:21727,动态:22696,动态:22698,动态:22507,动态:22667,动态:20399,动态:21763,动态:22146,动态:22699,动态:21737,动态:21436,动态:21857,动态:22684,动态:22710,动态:17337,动态:22512,动态:7746,动态:21741,动态:22706,动态:21745,动态:21972,动态:21556,动态:22702,动态:22680,动态:4036,动态:21740,动态:20720,动态:22659,动态:20364,动态:21757,动态:21975,动态:22685,动态:20440,动态:21780,动态:22697,动态:20439,动态:22019,动态:22323,动态:21753,动态:22688,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>动态:20440,动态:20720,动态:17337,动态:21972,动态:22698,动态:21857,动态:22685,动态:22019,动态:22323,动态:22684,动态:21757,动态:21780,动态:20364,动态:22696,动态:7746,动态:21740,动态:21753,动态:21975,动态:22702,动态:21776,动态:21741,动态:21745,动态:21436,动态:21556,动态:4036,动态:22692,动态:22680,动态:22507,动态:21763,动态:21737,动态:22667,动态:22146,动态:20399,动态:21756,动态:22697,动态:22699,动态:21727,动态:22688,动态:20439,动态:22710,动态:22659,动态:22512,动态:22706</t>
+          <t>动态:22684,动态:22699,动态:20440,动态:20364,动态:22659,动态:21757,动态:22696,动态:4036,动态:21753,动态:22710,动态:22697,动态:22667,动态:21972,动态:22698,动态:22507,动态:20720,动态:22680,动态:20439,动态:22702,动态:21556,动态:21436,动态:7746,动态:21780,动态:21741,动态:21745,动态:21776,动态:21727,动态:22512,动态:22692,动态:21857,动态:20399,动态:22706,动态:22685,动态:21740,动态:22323,动态:21737,动态:21756,动态:21763,动态:22688,动态:22146,动态:17337,动态:21975,动态:22019</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>动态:22688,动态:21972,动态:20364,动态:22019,动态:21757,动态:20399,动态:21740,动态:21737,动态:22696,动态:21556,动态:20720,动态:22680,动态:22512,动态:4036,动态:22146,动态:7746,动态:22684,动态:22659,动态:21436,动态:22702,动态:21745,动态:20439,动态:22323,动态:21776,动态:22706,动态:22507,动态:21741,动态:22699,动态:21727,动态:21857,动态:21763,动态:17337,动态:21780,动态:22698,动态:22692,动态:22697,动态:21756,动态:20440,动态:21975,动态:22685,动态:22710,动态:22667,动态:21753</t>
+          <t>动态:22702,动态:21741,动态:21780,动态:22667,动态:22019,动态:21776,动态:22512,动态:22698,动态:22146,动态:20440,动态:22706,动态:21737,动态:22680,动态:17337,动态:22659,动态:21757,动态:21436,动态:21975,动态:22688,动态:21745,动态:20399,动态:21727,动态:4036,动态:22697,动态:21740,动态:22684,动态:21763,动态:7746,动态:21857,动态:22692,动态:20364,动态:22696,动态:21756,动态:21753,动态:20720,动态:22710,动态:21972,动态:20439,动态:21556,动态:22685,动态:22699,动态:22507,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22706,动态:21436,动态:21745,动态:20720,动态:21780,动态:21757,动态:21857,动态:22699,动态:20399,动态:21756,动态:20439,动态:7746,动态:21741,动态:22680,动态:22696,动态:22688,动态:22710,动态:22659,动态:21972,动态:22323,动态:21556,动态:22019,动态:21975,动态:21740,动态:21727,动态:21753,动态:17337,动态:21737,动态:22667,动态:22507,动态:22702,动态:4036,动态:22685,动态:21776,动态:22512,动态:22698,动态:20364,动态:20440,动态:21763,动态:22692,动态:22684,动态:22697</t>
+          <t>动态:22684,动态:21737,动态:21740,动态:22696,动态:21757,动态:21727,动态:4036,动态:21745,动态:20720,动态:22512,动态:21972,动态:20440,动态:21556,动态:22659,动态:22706,动态:22699,动态:22688,动态:21753,动态:21975,动态:21780,动态:21763,动态:22667,动态:21741,动态:21776,动态:21436,动态:22019,动态:22710,动态:7746,动态:22685,动态:22146,动态:22702,动态:22692,动态:22323,动态:20439,动态:21756,动态:22507,动态:22697,动态:17337,动态:20399,动态:22680,动态:21857,动态:22698,动态:20364</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>动态:22696,动态:21737,动态:22710,动态:21763,动态:22706,动态:21776,动态:21972,动态:21857,动态:21756,动态:22698,动态:21727,动态:22667,动态:21757,动态:22699,动态:4036,动态:22019,动态:22688,动态:22323,动态:22702,动态:22507,动态:21436,动态:20364,动态:21745,动态:17337,动态:21741,动态:22680,动态:21975,动态:22685,动态:20399,动态:22659,动态:22692,动态:21556,动态:22697,动态:21780,动态:20440,动态:22684,动态:21753,动态:7746,动态:20720,动态:22512,动态:21740,动态:20439,动态:22146</t>
+          <t>动态:21753,动态:7746,动态:22659,动态:21737,动态:21780,动态:22667,动态:22697,动态:22680,动态:21763,动态:22512,动态:21741,动态:21756,动态:22323,动态:20720,动态:21757,动态:22019,动态:21727,动态:4036,动态:22685,动态:21776,动态:21745,动态:22702,动态:20440,动态:21556,动态:20364,动态:22684,动态:17337,动态:21857,动态:22698,动态:22696,动态:21975,动态:21740,动态:21436,动态:22146,动态:22688,动态:22692,动态:20439,动态:22507,动态:22699,动态:22706,动态:21972,动态:22710,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>动态:6784,动态:6782,动态:6694,动态:6786,动态:6693,动态:6902,动态:6872,动态:6845,动态:6777,动态:6773,动态:6779,动态:6767,动态:6666,动态:6790,动态:6692,动态:6752,动态:6755,动态:6761,动态:6762,动态:6848,动态:6652,动态:6770,动态:6764,动态:6691,动态:22684,动态:22507,动态:21776,动态:21780,动态:22323,动态:7746,动态:21757,动态:21975,动态:22667,动态:20364,动态:21436,动态:22699,动态:22697,动态:21857,动态:20399,动态:4036,动态:21972,动态:22696,动态:21556,动态:21756,动态:22706,动态:20440,动态:22019,动态:21727,动态:21763,动态:22146</t>
+          <t>动态:6784,动态:6782,动态:6694,动态:6786,动态:6693,动态:6902,动态:6872,动态:6845,动态:6777,动态:6773,动态:6779,动态:6767,动态:6666,动态:6790,动态:6692,动态:6752,动态:6755,动态:6761,动态:6762,动态:6848,动态:6652,动态:6770,动态:6764,动态:6691,动态:21741,动态:20399,动态:22323,动态:22512,动态:21857,动态:7746,动态:21556,动态:21972,动态:21763,动态:22659,动态:21753,动态:20720,动态:20439,动态:20364,动态:22680,动态:22667,动态:22702,动态:20440,动态:21436,动态:21776,动态:22696,动态:22019,动态:4036,动态:21740,动态:22698,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22659,动态:22146,动态:22323,动态:21745,动态:21763,动态:21436,动态:22684,动态:21857,动态:20399,动态:21727,动态:22507,动态:21756,动态:21975,动态:22019,动态:20440,动态:22710,动态:22667,动态:20439,动态:21757,动态:22680,动态:7746,动态:22692,动态:21740,动态:17337,动态:22696,动态:4036,动态:21556,动态:22702,动态:22698,动态:22688,动态:20364,动态:22697,动态:22685,动态:21741,动态:22699,动态:21780,动态:22512,动态:21753,动态:22706,动态:21737,动态:21972,动态:20720</t>
+          <t>动态:22710,动态:21753,动态:22323,动态:20720,动态:22659,动态:20439,动态:22698,动态:21727,动态:22696,动态:21740,动态:20399,动态:21556,动态:22697,动态:21745,动态:22706,动态:21741,动态:21972,动态:20440,动态:17337,动态:22688,动态:7746,动态:21780,动态:22699,动态:22692,动态:22684,动态:20364,动态:21737,动态:22146,动态:4036,动态:22019,动态:22680,动态:22667,动态:21756,动态:22507,动态:22702,动态:22685,动态:21763,动态:21776,动态:21975,动态:22512,动态:21857,动态:21757,动态:21436</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>动态:22146,动态:20364,动态:22323,动态:21776,动态:22692,动态:17337,动态:22698,动态:7746,动态:21556,动态:21972,动态:21436,动态:21740,动态:22019,动态:21857,动态:22702,动态:22507,动态:21741,动态:22710,动态:21757,动态:21745,动态:22699,动态:22706,动态:22696,动态:22684,动态:20720,动态:21763,动态:22659,动态:22697,动态:4036,动态:21753,动态:21737,动态:22688,动态:20440,动态:22685,动态:21727,动态:20399,动态:22667,动态:22680,动态:21975,动态:22512,动态:21780,动态:20439,动态:21756</t>
+          <t>动态:22710,动态:22692,动态:21857,动态:21741,动态:20720,动态:21776,动态:4036,动态:21740,动态:20364,动态:22667,动态:22507,动态:7746,动态:22685,动态:21753,动态:21975,动态:17337,动态:22146,动态:22697,动态:21436,动态:22702,动态:22706,动态:22512,动态:20399,动态:21737,动态:22688,动态:21972,动态:21727,动态:21756,动态:22684,动态:21745,动态:22323,动态:22696,动态:21757,动态:22698,动态:20439,动态:22019,动态:21556,动态:22680,动态:21780,动态:20440,动态:21763,动态:22699,动态:22659</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22323,动态:22698,动态:22706,动态:22680,动态:17337,动态:22699,动态:21776,动态:22697,动态:21780,动态:22019,动态:21745,动态:21740,动态:22512,动态:21757,动态:20720,动态:22146,动态:22702,动态:21727,动态:20440,动态:21737,动态:21741,动态:22685,动态:22692,动态:22659,动态:20364,动态:22696,动态:22667,动态:21975,动态:21857,动态:7746,动态:21763,动态:21972,动态:20399,动态:21753,动态:21556,动态:22688,动态:22710,动态:20439,动态:22684,动态:21436,动态:4036,动态:21756</t>
+          <t>动态:22507,动态:22512,动态:21975,动态:20720,动态:22659,动态:21972,动态:20440,动态:22710,动态:21756,动态:22680,动态:21776,动态:21857,动态:22146,动态:22685,动态:20399,动态:4036,动态:22688,动态:22697,动态:21745,动态:21753,动态:20439,动态:21727,动态:22696,动态:21737,动态:22019,动态:21780,动态:22684,动态:22706,动态:21757,动态:17337,动态:7746,动态:22702,动态:20364,动态:21556,动态:22323,动态:21741,动态:21436,动态:22692,动态:22698,动态:21740,动态:22699,动态:22667,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>动态:21741,动态:21972,动态:20364,动态:22685,动态:22667,动态:22688,动态:21763,动态:21857,动态:22706,动态:22699,动态:21727,动态:22512,动态:21780,动态:22697,动态:22684,动态:22659,动态:20720,动态:20440,动态:21745,动态:21776,动态:21756,动态:7746,动态:22702,动态:21740,动态:20399,动态:22692,动态:22710,动态:22680,动态:21753,动态:21757,动态:4036,动态:22019,动态:22696,动态:21436,动态:22323,动态:21975,动态:17337,动态:20439,动态:22507,动态:21737,动态:21556,动态:22698,动态:22146</t>
+          <t>动态:21740,动态:22512,动态:20364,动态:7746,动态:21972,动态:22019,动态:21763,动态:22667,动态:21737,动态:22680,动态:21745,动态:22698,动态:22692,动态:22684,动态:21780,动态:22659,动态:22507,动态:22702,动态:21756,动态:22323,动态:22710,动态:21556,动态:22696,动态:17337,动态:21436,动态:21741,动态:21975,动态:22685,动态:21776,动态:21857,动态:21753,动态:21757,动态:20399,动态:20440,动态:22688,动态:22146,动态:22699,动态:22706,动态:20720,动态:4036,动态:22697,动态:21727,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>动态:20440,动态:20364,动态:22146,动态:7746,动态:21436,动态:21741,动态:21757,动态:22512,动态:21780,动态:21763,动态:21756,动态:22019,动态:22507,动态:22692,动态:22698,动态:22323,动态:21857,动态:22685,动态:22696,动态:22702,动态:22680,动态:22706,动态:22697,动态:21972,动态:21753,动态:22684,动态:21737,动态:4036,动态:21975,动态:21740,动态:21727,动态:20399,动态:22710,动态:20720,动态:20439,动态:22659,动态:21745,动态:22667,动态:22688,动态:21556,动态:21776,动态:22699,动态:17337</t>
+          <t>动态:22512,动态:20439,动态:4036,动态:22706,动态:7746,动态:22685,动态:21745,动态:22710,动态:21763,动态:21436,动态:22684,动态:22659,动态:22323,动态:21756,动态:22688,动态:22699,动态:21753,动态:22702,动态:22697,动态:22667,动态:21757,动态:21727,动态:21737,动态:21857,动态:21780,动态:21556,动态:22680,动态:21975,动态:22698,动态:20440,动态:22146,动态:21776,动态:21972,动态:17337,动态:22696,动态:22507,动态:20720,动态:21740,动态:22692,动态:22019,动态:20364,动态:21741,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22146,动态:22512,动态:21776,动态:21753,动态:20720,动态:21745,动态:22684,动态:22667,动态:22659,动态:20440,动态:20439,动态:22698,动态:22507,动态:7746,动态:22688,动态:22680,动态:22692,动态:21975,动态:22019,动态:21972,动态:21727,动态:21556,动态:22696,动态:21757,动态:20399,动态:21780,动态:21763,动态:22699,动态:4036,动态:21737,动态:21857,动态:22323,动态:22697,动态:21741,动态:21756,动态:22706,动态:22710,动态:22685,动态:17337,动态:20364,动态:21436,动态:22702</t>
+          <t>动态:4036,动态:7746,动态:21972,动态:21753,动态:21727,动态:22019,动态:21857,动态:21780,动态:21737,动态:21975,动态:21776,动态:21436,动态:22667,动态:21740,动态:22688,动态:22702,动态:22507,动态:22680,动态:22323,动态:22659,动态:21757,动态:20440,动态:20720,动态:20364,动态:21741,动态:22685,动态:20439,动态:21556,动态:22710,动态:22699,动态:20399,动态:22146,动态:22692,动态:22698,动态:22706,动态:22696,动态:22697,动态:21745,动态:22684,动态:21756,动态:21763,动态:17337,动态:22512</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>动态:20440,动态:20399,动态:22512,动态:22659,动态:17337,动态:22685,动态:21776,动态:22692,动态:22146,动态:21975,动态:4036,动态:21740,动态:21727,动态:21753,动态:21745,动态:21972,动态:20364,动态:21780,动态:22702,动态:20720,动态:21857,动态:22698,动态:21737,动态:20439,动态:22710,动态:22680,动态:22697,动态:21741,动态:21436,动态:22667,动态:22019,动态:21556,动态:22696,动态:22507,动态:22688,动态:7746,动态:22699,动态:22706,动态:21757,动态:21763,动态:22684,动态:22323,动态:21756</t>
+          <t>动态:22696,动态:21745,动态:21857,动态:20399,动态:21737,动态:21436,动态:17337,动态:21740,动态:21780,动态:22323,动态:22692,动态:22710,动态:22706,动态:22680,动态:4036,动态:20364,动态:22667,动态:7746,动态:22512,动态:22684,动态:22507,动态:21757,动态:21756,动态:22019,动态:20720,动态:22702,动态:22659,动态:21727,动态:22685,动态:21741,动态:22699,动态:22146,动态:20440,动态:21975,动态:22697,动态:22688,动态:21753,动态:22698,动态:21972,动态:21776,动态:20439,动态:21556,动态:21763</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21756,动态:21436,动态:22019,动态:22667,动态:22684,动态:20364,动态:7746,动态:21972,动态:22659,动态:22696,动态:22146,动态:21727,动态:22699,动态:22323,动态:22706,动态:20399,动态:21556,动态:21753,动态:20440,动态:21741,动态:22507,动态:21737,动态:21740,动态:21780,动态:4036,动态:22698,动态:22702,动态:21757,动态:21776,动态:21763,动态:21745,动态:21857,动态:22685,动态:22512,动态:22692,动态:22688,动态:22697,动态:20439,动态:20720,动态:22680,动态:17337,动态:21975</t>
+          <t>动态:20720,动态:20439,动态:4036,动态:22685,动态:22684,动态:21556,动态:21972,动态:22323,动态:17337,动态:21741,动态:21740,动态:22688,动态:21776,动态:22659,动态:21857,动态:22710,动态:21753,动态:22512,动态:21763,动态:21745,动态:22696,动态:7746,动态:21756,动态:22692,动态:22697,动态:21737,动态:22146,动态:20440,动态:22680,动态:21780,动态:21436,动态:22019,动态:22699,动态:21757,动态:22667,动态:22507,动态:21727,动态:22698,动态:21975,动态:22702,动态:20364,动态:20399,动态:22706</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>动态:21745,动态:20399,动态:22684,动态:22323,动态:21737,动态:22507,动态:22512,动态:20439,动态:22019,动态:20720,动态:21741,动态:21740,动态:22697,动态:22698,动态:20364,动态:21972,动态:21556,动态:21780,动态:21753,动态:4036,动态:21436,动态:22667,动态:21763,动态:22688,动态:22699,动态:22685,动态:17337,动态:21757,动态:7746,动态:20440,动态:21857,动态:22710,动态:22692,动态:22702,动态:21776,动态:22696,动态:22146,动态:21756,动态:21975,动态:22680,动态:22706,动态:22659,动态:21727</t>
+          <t>动态:22710,动态:22698,动态:20399,动态:21857,动态:22685,动态:22692,动态:21745,动态:20439,动态:21727,动态:4036,动态:22688,动态:22706,动态:17337,动态:20440,动态:21975,动态:22697,动态:21780,动态:20364,动态:21753,动态:22680,动态:22507,动态:21776,动态:21757,动态:21436,动态:21972,动态:22146,动态:20720,动态:22019,动态:21756,动态:22512,动态:22702,动态:21741,动态:22699,动态:21740,动态:22696,动态:22684,动态:21763,动态:7746,动态:22659,动态:22667,动态:21737,动态:21556,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>动态:21757,动态:7746,动态:22698,动态:22685,动态:21740,动态:21972,动态:22688,动态:21763,动态:21737,动态:20399,动态:21776,动态:20440,动态:21745,动态:22697,动态:4036,动态:22699,动态:21436,动态:22146,动态:22696,动态:21857,动态:22680,动态:21780,动态:17337,动态:21556,动态:22019,动态:22702,动态:21756,动态:22323,动态:22684,动态:20439,动态:22706,动态:21741,动态:20720,动态:20364,动态:22659,动态:22512,动态:22507,动态:21727,动态:21975,动态:22710,动态:22667,动态:21753,动态:22692</t>
+          <t>动态:22019,动态:21975,动态:7746,动态:22702,动态:21745,动态:22659,动态:22680,动态:21756,动态:21757,动态:22710,动态:20364,动态:21436,动态:21776,动态:20720,动态:21763,动态:21741,动态:21740,动态:22696,动态:22688,动态:22684,动态:22699,动态:22706,动态:20440,动态:22667,动态:22685,动态:22512,动态:21727,动态:22507,动态:22698,动态:21972,动态:22697,动态:22692,动态:21857,动态:17337,动态:22146,动态:21737,动态:21780,动态:20439,动态:20399,动态:21556,动态:21753,动态:4036,动态:22323</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22659,动态:22323,动态:21756,动态:21753,动态:22507,动态:21737,动态:20364,动态:20440,动态:22702,动态:22697,动态:21745,动态:17337,动态:22667,动态:22688,动态:21741,动态:22684,动态:22706,动态:22692,动态:21556,动态:21780,动态:21857,动态:22019,动态:22710,动态:21763,动态:20399,动态:21727,动态:7746,动态:20439,动态:21975,动态:22696,动态:22698,动态:21740,动态:20720,动态:22685,动态:4036,动态:22680,动态:21972,动态:21757,动态:21436,动态:21776,动态:22512,动态:22699</t>
+          <t>动态:20364,动态:22685,动态:22702,动态:22667,动态:22323,动态:22699,动态:22696,动态:22697,动态:22684,动态:22680,动态:22706,动态:21727,动态:22019,动态:22659,动态:21763,动态:21737,动态:20440,动态:22692,动态:7746,动态:21745,动态:17337,动态:21756,动态:21776,动态:21857,动态:21753,动态:22688,动态:22512,动态:21740,动态:21556,动态:21975,动态:20439,动态:21741,动态:22698,动态:20720,动态:21780,动态:21436,动态:22507,动态:22710,动态:21757,动态:4036,动态:21972,动态:22146,动态:20399</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>动态:21972,动态:21727,动态:22323,动态:20364,动态:22512,动态:20399,动态:22699,动态:22659,动态:21737,动态:21753,动态:21740,动态:7746,动态:21975,动态:21556,动态:22507,动态:17337,动态:22697,动态:22688,动态:21757,动态:21741,动态:21745,动态:22146,动态:21780,动态:20440,动态:22710,动态:21436,动态:21776,动态:22702,动态:22706,动态:4036,动态:22685,动态:21857,动态:21756,动态:20720,动态:22692,动态:22667,动态:22019,动态:22680,动态:22696,动态:22684,动态:21763,动态:22698,动态:20439</t>
+          <t>动态:21727,动态:20720,动态:21975,动态:21780,动态:22702,动态:22699,动态:22146,动态:21756,动态:22706,动态:22696,动态:21556,动态:22323,动态:21763,动态:21737,动态:20364,动态:22512,动态:20440,动态:21740,动态:22692,动态:21753,动态:22688,动态:22698,动态:21776,动态:22667,动态:21741,动态:22659,动态:22507,动态:21757,动态:22697,动态:22019,动态:7746,动态:21857,动态:4036,动态:17337,动态:21436,动态:22684,动态:20399,动态:21745,动态:22710,动态:22685,动态:22680,动态:21972,动态:20439</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22697,动态:22698,动态:22019,动态:22692,动态:21975,动态:7746,动态:22323,动态:21763,动态:22702,动态:20399,动态:21740,动态:17337,动态:21776,动态:21972,动态:21857,动态:22696,动态:22507,动态:22710,动态:22512,动态:21741,动态:21757,动态:22685,动态:22667,动态:21753,动态:21756,动态:21727,动态:22688,动态:21556,动态:20720,动态:20364,动态:21737,动态:21745,动态:22699,动态:22680,动态:22659,动态:21436,动态:21780,动态:22706,动态:4036,动态:22684</t>
+          <t>动态:21737,动态:20364,动态:20720,动态:21436,动态:17337,动态:4036,动态:21727,动态:22688,动态:22323,动态:21975,动态:22696,动态:22684,动态:22019,动态:21741,动态:22698,动态:21756,动态:22680,动态:21857,动态:22507,动态:22692,动态:22685,动态:21763,动态:22146,动态:20399,动态:7746,动态:21780,动态:21745,动态:21753,动态:21757,动态:22710,动态:21740,动态:21776,动态:22699,动态:22667,动态:21972,动态:22512,动态:22706,动态:22702,动态:21556,动态:22659,动态:22697</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>动态:22684,动态:22680,动态:20720,动态:22706,动态:22710,动态:20439,动态:22512,动态:21763,动态:22019,动态:21727,动态:22696,动态:22698,动态:22692,动态:21740,动态:21753,动态:22659,动态:20399,动态:21776,动态:22507,动态:22146,动态:20364,动态:22697,动态:21857,动态:21741,动态:7746,动态:21972,动态:20440,动态:22667,动态:22699,动态:21975,动态:17337,动态:21737,动态:22685,动态:22688,动态:21780,动态:21756,动态:21556,动态:21745,动态:21436,动态:22702,动态:4036,动态:22323,动态:21757</t>
+          <t>动态:20364,动态:22019,动态:21972,动态:21740,动态:21857,动态:22706,动态:21763,动态:22680,动态:22507,动态:22685,动态:17337,动态:22702,动态:7746,动态:20399,动态:21757,动态:21756,动态:20439,动态:22512,动态:21975,动态:21556,动态:22692,动态:21436,动态:22698,动态:21753,动态:4036,动态:20440,动态:22710,动态:22697,动态:22667,动态:21741,动态:22696,动态:21776,动态:22699,动态:22659,动态:22146,动态:22323,动态:21780,动态:22688,动态:22684,动态:20720,动态:21727,动态:21737,动态:21745</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>动态:21756,动态:22698,动态:22680,动态:22323,动态:21763,动态:22696,动态:22688,动态:21857,动态:21753,动态:21556,动态:22146,动态:21780,动态:17337,动态:22706,动态:21745,动态:22692,动态:20440,动态:4036,动态:22702,动态:21757,动态:21737,动态:21972,动态:22699,动态:22697,动态:22512,动态:22659,动态:20364,动态:22019,动态:7746,动态:21740,动态:22667,动态:21741,动态:21436,动态:22684,动态:20720,动态:21776,动态:20439,动态:20399,动态:22685,动态:21975,动态:22507,动态:21727,动态:22710</t>
+          <t>动态:22697,动态:22698,动态:20364,动态:20399,动态:21753,动态:21972,动态:22696,动态:21436,动态:22706,动态:20440,动态:22323,动态:22680,动态:21975,动态:4036,动态:21737,动态:22710,动态:22507,动态:22019,动态:20720,动态:22684,动态:22688,动态:21727,动态:21756,动态:17337,动态:21745,动态:20439,动态:22699,动态:22685,动态:21780,动态:21757,动态:21763,动态:22667,动态:21740,动态:21857,动态:22512,动态:7746,动态:21776,动态:21741,动态:22692,动态:22702,动态:22146,动态:22659,动态:21556</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>动态:22659,动态:22699,动态:22710,动态:22512,动态:21972,动态:22706,动态:21741,动态:22685,动态:22323,动态:22019,动态:22697,动态:4036,动态:21740,动态:21556,动态:7746,动态:20440,动态:22146,动态:21436,动态:22507,动态:21745,动态:22698,动态:21763,动态:21780,动态:17337,动态:22692,动态:21753,动态:21776,动态:21756,动态:20439,动态:20720,动态:21857,动态:20364,动态:21757,动态:22688,动态:22696,动态:20399,动态:22702,动态:21737,动态:21975,动态:22684,动态:22680,动态:21727,动态:22667</t>
+          <t>动态:21740,动态:21780,动态:20364,动态:22667,动态:21727,动态:22680,动态:21753,动态:4036,动态:7746,动态:22659,动态:22323,动态:22688,动态:22019,动态:22146,动态:17337,动态:21741,动态:21763,动态:22512,动态:22699,动态:20399,动态:22698,动态:21436,动态:22696,动态:21757,动态:21745,动态:22706,动态:22684,动态:21857,动态:20720,动态:22685,动态:21972,动态:21776,动态:22692,动态:22702,动态:21756,动态:22507,动态:22697,动态:22710,动态:20439,动态:21556,动态:20440,动态:21975,动态:21737</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>动态:21745,动态:21740,动态:22512,动态:22684,动态:22706,动态:20399,动态:22698,动态:21436,动态:22688,动态:22680,动态:7746,动态:20364,动态:21741,动态:4036,动态:21780,动态:20720,动态:21975,动态:21756,动态:21753,动态:22667,动态:22697,动态:21763,动态:22699,动态:22019,动态:22146,动态:22323,动态:22692,动态:22507,动态:21556,动态:21857,动态:22710,动态:17337,动态:22696,动态:21972,动态:22659,动态:20439,动态:22702,动态:22685,动态:21776,动态:21737,动态:20440,动态:21757,动态:21727</t>
+          <t>动态:21741,动态:20439,动态:21780,动态:21753,动态:22697,动态:20399,动态:21737,动态:21727,动态:22699,动态:21857,动态:4036,动态:22685,动态:22667,动态:22702,动态:22512,动态:7746,动态:22684,动态:20720,动态:21776,动态:21556,动态:21972,动态:17337,动态:22680,动态:22659,动态:22323,动态:21757,动态:22692,动态:21740,动态:22698,动态:20440,动态:22688,动态:21436,动态:22146,动态:22706,动态:22696,动态:22019,动态:21745,动态:21756,动态:20364,动态:21975,动态:22507,动态:21763,动态:22710</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22667,动态:20364,动态:22692,动态:21972,动态:20440,动态:22685,动态:21780,动态:22710,动态:22019,动态:22684,动态:21741,动态:21745,动态:7746,动态:21556,动态:22680,动态:4036,动态:20720,动态:21740,动态:22323,动态:22659,动态:22146,动态:20399,动态:21756,动态:21857,动态:22696,动态:22702,动态:21763,动态:17337,动态:22507,动态:21727,动态:22699,动态:21975,动态:21436,动态:22512,动态:20439,动态:21757,动态:22698,动态:22688,动态:22706,动态:21737,动态:21753,动态:22697</t>
+          <t>动态:20399,动态:21857,动态:22706,动态:22685,动态:21972,动态:21975,动态:22692,动态:20439,动态:22507,动态:21556,动态:21745,动态:22684,动态:17337,动态:7746,动态:21741,动态:21737,动态:21763,动态:22659,动态:22512,动态:22680,动态:21753,动态:20440,动态:22699,动态:21776,动态:22702,动态:4036,动态:20720,动态:22019,动态:22146,动态:21756,动态:20364,动态:21740,动态:21757,动态:22697,动态:22688,动态:21780,动态:21436,动态:22667,动态:22698,动态:22710,动态:22323,动态:21727,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>动态:21727,动态:21753,动态:21556,动态:22146,动态:21436,动态:20364,动态:22706,动态:22710,动态:21972,动态:22019,动态:20399,动态:22698,动态:22685,动态:21737,动态:22667,动态:21745,动态:22697,动态:20720,动态:22692,动态:21756,动态:22688,动态:17337,动态:22684,动态:22507,动态:21763,动态:22680,动态:22699,动态:21741,动态:21740,动态:21857,动态:20440,动态:22323,动态:20439,动态:4036,动态:21780,动态:22702,动态:22659,动态:22512,动态:7746,动态:21975,动态:21776,动态:22696,动态:21757</t>
+          <t>动态:20440,动态:21436,动态:22697,动态:22685,动态:17337,动态:22702,动态:22019,动态:20399,动态:21757,动态:22688,动态:20720,动态:21753,动态:22667,动态:21741,动态:21737,动态:22512,动态:22710,动态:21763,动态:22323,动态:22684,动态:21727,动态:22680,动态:22507,动态:22699,动态:21972,动态:22706,动态:21975,动态:21556,动态:7746,动态:21756,动态:21776,动态:22698,动态:4036,动态:22696,动态:22146,动态:21740,动态:20364,动态:22692,动态:21745,动态:21780,动态:22659,动态:20439,动态:21857</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22507,动态:22702,动态:20440,动态:17337,动态:22680,动态:22696,动态:22706,动态:21740,动态:22667,动态:20439,动态:21975,动态:21756,动态:22512,动态:21727,动态:22688,动态:22659,动态:20399,动态:21780,动态:22685,动态:21436,动态:22699,动态:21745,动态:21753,动态:21972,动态:21556,动态:22692,动态:22698,动态:21741,动态:21737,动态:21763,动态:20364,动态:21857,动态:22323,动态:22710,动态:22684,动态:4036,动态:21776,动态:22697,动态:21757,动态:20720,动态:22146,动态:7746</t>
+          <t>动态:20364,动态:22512,动态:22680,动态:22692,动态:7746,动态:22710,动态:21975,动态:22019,动态:21753,动态:22696,动态:21756,动态:22146,动态:22688,动态:22667,动态:21972,动态:20399,动态:20440,动态:21741,动态:20439,动态:21776,动态:22706,动态:22697,动态:21780,动态:21436,动态:21763,动态:21737,动态:22659,动态:21745,动态:22685,动态:21757,动态:22684,动态:20720,动态:22507,动态:21727,动态:17337,动态:22699,动态:21556,动态:22702,动态:21857,动态:22698,动态:22323,动态:21740,动态:4036</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>动态:21745,动态:20440,动态:20399,动态:22512,动态:21757,动态:22698,动态:22507,动态:21972,动态:20720,动态:21737,动态:21436,动态:22696,动态:22680,动态:21556,动态:21741,动态:7746,动态:22692,动态:20364,动态:21780,动态:21753,动态:21740,动态:22659,动态:21776,动态:22323,动态:21727,动态:22684,动态:21763,动态:22019,动态:22697,动态:21756,动态:22146,动态:22699,动态:20439,动态:17337,动态:21857,动态:22702,动态:22706,动态:22688,动态:21975,动态:22667,动态:4036,动态:22710,动态:22685</t>
+          <t>动态:21727,动态:17337,动态:21757,动态:22699,动态:21763,动态:22146,动态:21753,动态:21741,动态:21780,动态:22698,动态:22692,动态:20399,动态:21737,动态:22688,动态:22667,动态:22697,动态:21740,动态:22685,动态:20439,动态:22659,动态:21556,动态:21436,动态:21975,动态:7746,动态:4036,动态:22680,动态:22696,动态:22706,动态:22710,动态:22323,动态:22512,动态:21756,动态:22684,动态:20440,动态:22702,动态:22507,动态:20364,动态:21972,动态:21745,动态:21857,动态:21776,动态:20720,动态:22019</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>动态:22667,动态:17337,动态:22680,动态:20364,动态:22696,动态:20440,动态:4036,动态:22692,动态:21857,动态:20399,动态:22706,动态:22507,动态:22710,动态:21776,动态:21737,动态:22323,动态:21745,动态:22685,动态:22702,动态:22146,动态:21727,动态:22699,动态:21780,动态:22512,动态:7746,动态:21740,动态:20720,动态:21753,动态:22659,动态:22688,动态:21975,动态:22684,动态:20439,动态:21741,动态:22698,动态:21972,动态:22697,动态:21436,动态:21556,动态:21756,动态:21757,动态:22019,动态:21763</t>
+          <t>动态:22696,动态:17337,动态:20720,动态:22710,动态:22697,动态:21737,动态:21436,动态:22698,动态:21741,动态:22684,动态:21745,动态:22512,动态:21740,动态:21763,动态:21776,动态:22692,动态:22323,动态:20364,动态:22680,动态:22706,动态:22659,动态:20399,动态:22685,动态:4036,动态:22702,动态:21972,动态:21756,动态:20440,动态:21753,动态:22146,动态:21757,动态:22507,动态:21780,动态:21857,动态:22019,动态:21975,动态:22688,动态:7746,动态:21727,动态:21556,动态:20439,动态:22667,动态:22699</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>动态:22507,动态:22692,动态:22702,动态:22680,动态:21776,动态:22146,动态:22688,动态:22696,动态:20440,动态:22667,动态:22698,动态:22684,动态:21857,动态:21436,动态:20720,动态:21740,动态:20399,动态:21745,动态:22697,动态:21753,动态:21556,动态:4036,动态:22659,动态:21727,动态:20439,动态:22512,动态:17337,动态:22699,动态:21757,动态:21763,动态:20364,动态:7746,动态:21737,动态:22710,动态:22706,动态:22323,动态:22019,动态:21741,动态:21780,动态:22685,动态:21975,动态:21756,动态:21972</t>
+          <t>动态:22019,动态:21763,动态:22684,动态:22146,动态:21756,动态:21556,动态:22680,动态:4036,动态:17337,动态:22659,动态:20399,动态:22706,动态:22702,动态:21737,动态:22710,动态:21753,动态:20439,动态:21745,动态:21857,动态:21780,动态:22696,动态:22507,动态:20364,动态:21741,动态:22685,动态:22667,动态:7746,动态:22698,动态:22699,动态:21727,动态:21740,动态:20720,动态:20440,动态:22697,动态:22323,动态:22688,动态:21436,动态:22512,动态:21975,动态:21776,动态:21757,动态:21972,动态:22692</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>动态:21776,动态:22512,动态:21741,动态:22699,动态:21757,动态:21727,动态:22019,动态:20439,动态:22706,动态:21556,动态:21857,动态:21740,动态:21737,动态:22680,动态:22696,动态:20364,动态:21780,动态:4036,动态:21745,动态:22692,动态:21763,动态:21436,动态:20720,动态:21972,动态:20399,动态:17337,动态:22507,动态:22659,动态:22688,动态:22667,动态:22146,动态:22698,动态:22697,动态:22684,动态:22323,动态:21753,动态:7746,动态:22710,动态:20440,动态:22685,动态:21975,动态:22702,动态:21756</t>
+          <t>动态:21780,动态:21436,动态:22507,动态:21740,动态:4036,动态:21737,动态:22323,动态:21753,动态:21556,动态:21756,动态:22699,动态:22697,动态:22692,动态:21975,动态:20364,动态:20440,动态:20720,动态:22019,动态:22698,动态:22702,动态:21972,动态:20399,动态:21776,动态:21745,动态:21763,动态:21741,动态:22710,动态:21727,动态:22688,动态:17337,动态:7746,动态:20439,动态:22659,动态:21757,动态:22684,动态:21857,动态:22667,动态:22146,动态:22696,动态:22706,动态:22512,动态:22680,动态:22685</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>动态:21737,动态:21357,动态:20759,动态:20364,动态:20178,动态:20836,动态:20840,动态:20837,动态:20839,动态:21084,动态:22097,动态:21556,动态:21103,动态:22507,动态:22702,动态:21763,动态:7746,动态:21857,动态:21740,动态:22692,动态:22710,动态:21756,动态:22706,动态:22512,动态:21436,动态:21972,动态:21741,动态:21975,动态:20439,动态:4036,动态:21727,动态:22688,动态:22698,动态:22667,动态:22146,动态:21753,动态:22684,动态:22697,动态:21780,动态:20720,动态:17337,动态:22659,动态:22680,动态:21776,动态:22019,动态:21757,动态:22323</t>
+          <t>动态:21737,动态:21357,动态:20759,动态:20364,动态:20178,动态:20836,动态:20840,动态:20837,动态:20839,动态:21084,动态:22097,动态:21556,动态:21103,动态:21757,动态:20439,动态:22512,动态:17337,动态:22706,动态:20720,动态:22019,动态:21857,动态:21756,动态:22680,动态:7746,动态:21776,动态:21741,动态:21763,动态:21780,动态:4036,动态:20440,动态:20399,动态:22699,动态:22702,动态:21745,动态:22688,动态:22698,动态:22507,动态:22692,动态:22667,动态:22710,动态:21975,动态:21436,动态:21740,动态:22697,动态:22684,动态:21727,动态:21972,动态:21753</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22507,动态:22698,动态:22512,动态:21972,动态:20364,动态:22019,动态:4036,动态:22684,动态:22699,动态:20399,动态:22697,动态:20439,动态:21780,动态:22680,动态:21436,动态:20720,动态:21737,动态:17337,动态:21776,动态:22146,动态:22688,动态:21740,动态:22702,动态:21763,动态:7746,动态:21857,动态:22710,动态:22685,动态:21727,动态:22696,动态:22692,动态:21741,动态:21975,动态:21745,动态:21757,动态:21753,动态:21556,动态:22706,动态:21756,动态:20440,动态:22659,动态:22667</t>
+          <t>动态:22699,动态:22667,动态:21756,动态:7746,动态:22680,动态:20720,动态:22146,动态:20364,动态:20440,动态:22684,动态:22019,动态:21757,动态:20439,动态:21740,动态:21975,动态:22692,动态:21745,动态:22659,动态:22507,动态:22688,动态:20399,动态:22685,动态:22706,动态:22323,动态:21741,动态:22697,动态:21727,动态:4036,动态:21776,动态:21857,动态:22710,动态:17337,动态:22698,动态:21753,动态:21780,动态:21556,动态:21737,动态:22512,动态:21972,动态:21763,动态:21436,动态:22702,动态:22696</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>动态:21436,动态:22667,动态:20720,动态:22688,动态:22706,动态:22698,动态:21776,动态:7746,动态:21727,动态:22019,动态:22685,动态:22702,动态:22512,动态:22699,动态:21857,动态:22696,动态:20440,动态:21756,动态:21740,动态:20364,动态:21556,动态:17337,动态:4036,动态:21741,动态:21763,动态:22710,动态:21757,动态:22507,动态:21780,动态:22659,动态:22697,动态:22684,动态:22323,动态:22680,动态:21975,动态:22146,动态:22692,动态:21972,动态:20399,动态:21737,动态:20439</t>
+          <t>动态:21740,动态:22698,动态:20364,动态:21780,动态:22692,动态:21757,动态:21975,动态:22706,动态:4036,动态:22697,动态:22710,动态:22507,动态:22146,动态:22680,动态:21556,动态:22019,动态:22323,动态:21741,动态:21763,动态:21436,动态:22696,动态:22685,动态:22667,动态:21776,动态:7746,动态:20399,动态:20720,动态:22512,动态:20439,动态:22659,动态:21972,动态:22699,动态:21727,动态:20440,动态:22684,动态:22702,动态:21756,动态:22688,动态:21737,动态:17337,动态:21857</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>动态:22323,动态:22019,动态:22680,动态:21975,动态:22684,动态:21753,动态:22146,动态:22659,动态:4036,动态:21727,动态:21737,动态:20440,动态:21745,动态:21776,动态:21556,动态:21780,动态:22512,动态:21740,动态:22692,动态:22698,动态:22702,动态:22699,动态:22697,动态:7746,动态:21763,动态:22667,动态:20720,动态:22688,动态:22706,动态:22710,动态:20364,动态:22507,动态:21972,动态:17337,动态:21757,动态:20399,动态:21741,动态:21436,动态:22696,动态:20439,动态:21857,动态:22685</t>
+          <t>动态:22659,动态:22688,动态:22685,动态:20399,动态:22699,动态:22019,动态:22323,动态:22667,动态:20364,动态:21753,动态:22698,动态:22680,动态:22702,动态:22684,动态:22710,动态:21857,动态:21745,动态:20440,动态:22146,动态:22692,动态:20720,动态:21436,动态:21776,动态:21975,动态:21556,动态:7746,动态:21740,动态:21757,动态:21780,动态:22696,动态:22706,动态:21737,动态:21741,动态:17337,动态:20439,动态:22507,动态:21763,动态:21972,动态:22512,动态:22697,动态:4036,动态:21727</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>动态:22146,动态:22697,动态:22507,动态:22692,动态:20439,动态:21757,动态:22706,动态:20364,动态:22019,动态:22698,动态:21780,动态:21740,动态:22710,动态:22667,动态:21756,动态:21741,动态:21753,动态:4036,动态:22684,动态:7746,动态:22512,动态:22699,动态:21975,动态:21436,动态:22696,动态:21727,动态:20440,动态:22685,动态:21972,动态:21556,动态:20720,动态:21776,动态:21857,动态:22323,动态:17337,动态:20399,动态:22659,动态:21737,动态:21745,动态:22702,动态:21763</t>
+          <t>动态:22685,动态:21741,动态:7746,动态:21753,动态:21972,动态:21727,动态:21780,动态:21740,动态:21757,动态:22710,动态:22699,动态:21857,动态:21975,动态:22692,动态:20439,动态:20440,动态:4036,动态:21737,动态:22697,动态:20399,动态:21745,动态:21763,动态:22323,动态:22019,动态:22507,动态:17337,动态:20364,动态:20720,动态:22702,动态:21436,动态:22512,动态:22667,动态:22698,动态:22696,动态:21556,动态:21756,动态:22146,动态:22684,动态:22706,动态:22659,动态:21776</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>动态:4036,动态:21753,动态:22684,动态:22698,动态:21756,动态:20364,动态:22323,动态:22688,动态:21763,动态:20439,动态:22685,动态:7746,动态:22659,动态:21740,动态:22680,动态:21757,动态:21436,动态:21857,动态:22696,动态:22710,动态:22019,动态:21975,动态:22512,动态:22146,动态:21556,动态:22699,动态:20440,动态:22706,动态:21776,动态:22507,动态:22702,动态:20399,动态:22667,动态:21727,动态:21741,动态:22697,动态:17337,动态:21745,动态:21737,动态:20720,动态:21972,动态:21780,动态:22692</t>
+          <t>动态:20399,动态:21745,动态:17337,动态:21757,动态:22667,动态:7746,动态:22688,动态:20439,动态:21776,动态:21740,动态:20720,动态:22696,动态:22507,动态:22706,动态:21756,动态:21737,动态:22323,动态:22697,动态:21763,动态:20440,动态:21975,动态:22512,动态:20364,动态:21436,动态:21741,动态:22698,动态:22684,动态:22019,动态:21727,动态:22710,动态:22699,动态:22146,动态:22659,动态:21972,动态:22680,动态:21857,动态:21556,动态:22685,动态:21780,动态:22702,动态:22692,动态:4036,动态:21753</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21741,动态:22680,动态:22688,动态:22684,动态:22697,动态:17337,动态:21436,动态:20364,动态:22659,动态:22323,动态:4036,动态:20439,动态:22706,动态:21972,动态:22698,动态:22512,动态:21975,动态:20440,动态:21753,动态:21740,动态:22699,动态:21857,动态:21556,动态:21780,动态:22146,动态:22696,动态:22710,动态:20399,动态:22019,动态:21737,动态:22507,动态:22702,动态:20720,动态:21727,动态:22685,动态:21763,动态:7746,动态:21757,动态:21745,动态:22667</t>
+          <t>动态:21556,动态:21741,动态:22685,动态:21740,动态:7746,动态:21753,动态:4036,动态:22667,动态:22323,动态:22680,动态:22706,动态:22688,动态:21780,动态:21763,动态:21975,动态:22698,动态:22699,动态:22146,动态:21972,动态:20399,动态:22710,动态:22696,动态:21737,动态:22507,动态:22684,动态:20364,动态:21436,动态:22697,动态:21745,动态:20439,动态:22692,动态:21727,动态:21857,动态:20440,动态:22512,动态:22702,动态:17337,动态:22659,动态:20720,动态:21757,动态:22019</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>动态:21741,动态:17337,动态:21753,动态:22507,动态:22710,动态:4036,动态:22698,动态:22702,动态:21972,动态:22680,动态:21756,动态:22699,动态:21776,动态:21745,动态:21780,动态:21857,动态:21975,动态:22667,动态:20720,动态:21727,动态:22659,动态:22688,动态:22146,动态:22019,动态:21763,动态:22685,动态:21436,动态:22696,动态:22323,动态:22706,动态:22692,动态:22697,动态:20439,动态:20440,动态:21740,动态:20399,动态:7746,动态:20364,动态:21556,动态:22512,动态:21757,动态:21737</t>
+          <t>动态:21763,动态:21745,动态:20440,动态:22688,动态:22692,动态:20720,动态:22685,动态:22667,动态:22702,动态:7746,动态:22696,动态:22710,动态:21776,动态:22697,动态:21737,动态:21757,动态:22512,动态:21436,动态:21753,动态:22019,动态:20399,动态:21780,动态:21741,动态:17337,动态:21975,动态:22323,动态:22706,动态:22507,动态:22146,动态:22698,动态:21857,动态:22699,动态:21972,动态:21727,动态:20439,动态:22680,动态:22659,动态:4036,动态:21556,动态:21756,动态:20364,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>动态:17337,动态:21757,动态:22688,动态:22659,动态:22697,动态:20399,动态:22019,动态:22692,动态:21780,动态:22146,动态:21740,动态:22706,动态:22667,动态:22684,动态:22507,动态:20439,动态:22710,动态:21556,动态:20720,动态:21763,动态:7746,动态:22699,动态:21741,动态:22696,动态:22323,动态:21776,动态:4036,动态:22698,动态:20440,动态:22512,动态:21727,动态:21975,动态:21972,动态:21745,动态:22685,动态:21737,动态:21857,动态:20364,动态:22680,动态:21756,动态:21436</t>
+          <t>动态:21763,动态:22146,动态:22696,动态:22685,动态:22684,动态:22680,动态:17337,动态:22019,动态:22688,动态:20720,动态:22710,动态:20440,动态:20439,动态:22667,动态:21745,动态:21776,动态:22706,动态:21975,动态:22323,动态:22659,动态:22699,动态:22692,动态:21727,动态:22512,动态:20364,动态:21436,动态:21756,动态:21741,动态:22698,动态:7746,动态:22507,动态:21740,动态:21737,动态:21556,动态:21780,动态:4036,动态:21972,动态:20399,动态:22697,动态:21857,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>动态:22710,动态:22696,动态:20720,动态:21737,动态:22697,动态:22684,动态:22692,动态:22699,动态:22688,动态:4036,动态:22659,动态:21780,动态:21727,动态:20439,动态:21757,动态:21975,动态:21436,动态:20364,动态:21972,动态:7746,动态:21857,动态:20440,动态:22685,动态:22323,动态:22667,动态:22512,动态:21740,动态:21753,动态:21741,动态:22019,动态:22146,动态:22706,动态:22680,动态:17337,动态:22698,动态:21745,动态:20399,动态:22702,动态:21763,动态:21776</t>
+          <t>动态:21436,动态:20720,动态:21740,动态:21727,动态:22659,动态:21753,动态:22323,动态:21737,动态:22512,动态:17337,动态:22146,动态:21857,动态:22699,动态:21745,动态:20364,动态:22706,动态:22688,动态:20440,动态:22692,动态:21741,动态:4036,动态:22696,动态:22685,动态:22680,动态:21757,动态:22697,动态:21972,动态:22667,动态:22698,动态:20399,动态:21975,动态:20439,动态:21763,动态:22684,动态:22019,动态:22710,动态:21780,动态:7746,动态:21776,动态:22702</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>动态:21780,动态:22685,动态:4036,动态:22702,动态:20440,动态:22696,动态:22692,动态:21745,动态:21972,动态:22699,动态:21757,动态:22697,动态:21741,动态:7746,动态:22323,动态:20720,动态:22710,动态:22698,动态:20439,动态:22507,动态:22684,动态:22706,动态:22688,动态:20399,动态:21740,动态:21737,动态:22019,动态:22680,动态:21857,动态:22512,动态:21776,动态:21975,动态:20364,动态:21727,动态:21763,动态:22659,动态:17337,动态:21436,动态:22146,动态:21556,动态:22667</t>
+          <t>动态:17337,动态:22696,动态:21436,动态:21740,动态:22659,动态:20440,动态:22698,动态:22512,动态:21556,动态:22323,动态:21857,动态:20399,动态:21763,动态:21972,动态:22019,动态:7746,动态:22692,动态:22684,动态:21737,动态:22697,动态:22667,动态:22688,动态:21780,动态:22680,动态:22710,动态:22699,动态:22146,动态:22706,动态:21741,动态:21745,动态:21727,动态:21776,动态:20364,动态:22702,动态:4036,动态:20439,动态:22507,动态:22685,动态:21757,动态:21975,动态:20720</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>动态:20720,动态:22323,动态:22685,动态:20364,动态:21745,动态:22688,动态:22146,动态:21975,动态:22699,动态:7746,动态:22706,动态:21741,动态:20399,动态:22512,动态:21556,动态:20439,动态:22697,动态:20440,动态:21753,动态:22667,动态:21737,动态:22702,动态:22680,动态:17337,动态:22698,动态:21727,动态:21972,动态:22659,动态:21776,动态:21740,动态:21436,动态:22710,动态:22696,动态:22684,动态:21757,动态:22019,动态:21763,动态:22507,动态:21780,动态:21857,动态:4036,动态:22692</t>
+          <t>动态:21780,动态:21776,动态:22706,动态:22667,动态:22684,动态:4036,动态:21972,动态:21745,动态:21727,动态:22323,动态:21975,动态:22696,动态:17337,动态:21857,动态:22702,动态:20399,动态:22512,动态:20440,动态:21763,动态:22680,动态:20720,动态:21740,动态:7746,动态:22019,动态:21753,动态:22698,动态:22710,动态:22697,动态:22692,动态:22507,动态:22685,动态:20364,动态:22699,动态:21436,动态:21737,动态:21741,动态:20439,动态:21556,动态:22146,动态:22659,动态:22688,动态:21757</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>动态:22323,动态:21757,动态:22697,动态:21753,动态:21556,动态:22507,动态:22706,动态:21727,动态:7746,动态:21737,动态:21780,动态:21745,动态:22019,动态:22710,动态:21975,动态:22667,动态:22692,动态:21857,动态:20364,动态:22688,动态:20399,动态:21763,动态:22512,动态:22659,动态:22699,动态:20720,动态:21740,动态:21972,动态:22684,动态:21436,动态:22702,动态:20440,动态:21756,动态:22146,动态:17337,动态:22680,动态:20439,动态:22698,动态:21741,动态:4036,动态:22685,动态:22696,动态:21776</t>
+          <t>动态:21756,动态:22699,动态:22667,动态:20439,动态:21780,动态:22706,动态:21975,动态:21741,动态:4036,动态:22512,动态:21727,动态:20440,动态:21753,动态:21745,动态:22688,动态:7746,动态:22698,动态:22659,动态:21857,动态:22696,动态:21436,动态:20364,动态:22692,动态:21737,动态:20720,动态:22680,动态:22697,动态:21776,动态:21556,动态:22507,动态:17337,动态:22702,动态:22685,动态:21757,动态:22146,动态:22684,动态:22710,动态:22323,动态:20399,动态:21763,动态:22019,动态:21972,动态:21740</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>动态:22692,动态:21556,动态:21972,动态:21780,动态:22684,动态:21753,动态:22680,动态:4036,动态:20364,动态:17337,动态:21741,动态:21763,动态:22667,动态:7746,动态:22507,动态:22146,动态:22696,动态:22706,动态:20440,动态:21756,动态:21857,动态:22323,动态:21776,动态:22688,动态:21727,动态:22702,动态:20720,动态:21436,动态:21757,动态:22512,动态:22019,动态:22659,动态:20439,动态:21737,动态:20399,动态:21975,动态:22698,动态:22697,动态:22685,动态:22699,动态:22710</t>
+          <t>动态:22699,动态:22706,动态:22667,动态:20364,动态:20440,动态:21753,动态:22688,动态:22698,动态:22146,动态:21757,动态:4036,动态:21436,动态:21857,动态:21756,动态:22323,动态:21780,动态:21763,动态:22692,动态:22680,动态:22685,动态:21556,动态:21975,动态:22659,动态:21776,动态:21727,动态:7746,动态:22702,动态:20399,动态:20439,动态:21741,动态:22507,动态:21972,动态:22696,动态:22710,动态:17337,动态:22019,动态:20720,动态:22697,动态:22512,动态:22684,动态:21737</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>动态:22702,动态:22507,动态:21740,动态:21556,动态:4036,动态:22019,动态:21753,动态:21436,动态:22680,动态:21745,动态:22696,动态:22512,动态:22323,动态:17337,动态:21763,动态:21756,动态:22688,动态:21757,动态:21975,动态:20720,动态:20364,动态:21857,动态:22667,动态:21737,动态:22697,动态:21776,动态:22692,动态:22698,动态:22699,动态:21727,动态:22706,动态:22684,动态:20440,动态:22659,动态:20399,动态:7746,动态:22710,动态:21780,动态:22146,动态:21972,动态:20439,动态:21741,动态:22685</t>
+          <t>动态:17337,动态:22696,动态:7746,动态:22667,动态:21972,动态:20364,动态:22699,动态:22684,动态:22507,动态:22698,动态:20720,动态:21436,动态:21556,动态:22146,动态:21741,动态:22659,动态:21763,动态:4036,动态:21757,动态:22692,动态:22706,动态:21776,动态:22688,动态:22697,动态:22685,动态:20440,动态:22710,动态:22702,动态:21756,动态:20399,动态:22019,动态:21727,动态:22512,动态:21740,动态:22323,动态:21737,动态:21780,动态:20439,动态:21975,动态:21753,动态:21857,动态:21745,动态:22680</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>动态:21740,动态:22680,动态:22702,动态:7746,动态:21757,动态:22684,动态:21972,动态:21857,动态:21780,动态:22710,动态:22699,动态:20439,动态:21556,动态:21763,动态:22697,动态:21776,动态:20399,动态:4036,动态:20364,动态:21727,动态:22512,动态:22659,动态:22019,动态:22706,动态:22507,动态:21745,动态:20720,动态:22685,动态:22692,动态:17337,动态:22696,动态:21436,动态:22323,动态:20440,动态:22688,动态:22146,动态:21737,动态:22698,动态:21741,动态:21975,动态:22667,动态:21753,动态:21756</t>
+          <t>动态:21756,动态:22659,动态:21776,动态:20440,动态:21436,动态:22684,动态:17337,动态:21763,动态:20720,动态:20364,动态:22710,动态:22688,动态:21753,动态:21757,动态:22696,动态:22706,动态:22680,动态:21727,动态:4036,动态:22323,动态:21737,动态:22692,动态:21857,动态:22685,动态:22699,动态:21745,动态:21556,动态:21741,动态:22512,动态:21972,动态:22697,动态:22507,动态:22702,动态:22667,动态:21780,动态:22146,动态:22698,动态:22019,动态:21740,动态:21975,动态:7746,动态:20399,动态:20439</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>动态:22019,动态:22706,动态:21745,动态:22692,动态:22512,动态:21737,动态:22667,动态:21753,动态:22696,动态:21757,动态:22685,动态:4036,动态:22323,动态:21436,动态:21740,动态:22684,动态:22680,动态:17337,动态:22146,动态:21776,动态:21857,动态:22710,动态:7746,动态:21780,动态:22698,动态:21756,动态:21556,动态:22659,动态:22697,动态:21763,动态:22702,动态:20439,动态:21727,动态:21741,动态:20399,动态:20440,动态:21975,动态:21972,动态:22507,动态:22699,动态:20364,动态:20720,动态:22688</t>
+          <t>动态:22692,动态:22699,动态:4036,动态:22696,动态:21753,动态:22697,动态:20364,动态:22684,动态:22019,动态:22507,动态:22706,动态:22667,动态:22698,动态:20439,动态:20399,动态:21780,动态:22685,动态:22323,动态:21756,动态:21975,动态:17337,动态:22702,动态:22146,动态:22710,动态:22512,动态:20440,动态:22659,动态:21763,动态:21740,动态:21556,动态:21737,动态:21745,动态:20720,动态:7746,动态:21757,动态:21727,动态:21436,动态:22688,动态:21857,动态:21741,动态:22680,动态:21972,动态:21776</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>动态:22710,动态:21756,动态:21780,动态:22118,动态:22659,动态:22146,动态:22075,动态:22702,动态:22493,动态:22323,动态:21858,动态:21727,动态:21964,动态:22685,动态:7746,动态:21556,动态:22667,动态:17337,动态:22692,动态:22688,动态:21737,动态:20720,动态:20440,动态:22698,动态:22697,动态:21972,动态:4036,动态:21740,动态:22680,动态:21763,动态:22696,动态:22019,动态:21436,动态:22684,动态:20399,动态:21753,动态:22699,动态:21757,动态:22512,动态:21975,动态:21741,动态:20439</t>
+          <t>动态:22710,动态:21756,动态:21780,动态:22118,动态:22659,动态:22146,动态:22075,动态:22702,动态:22493,动态:22323,动态:21858,动态:21727,动态:21964,动态:22019,动态:21975,动态:22688,动态:22680,动态:4036,动态:21556,动态:22697,动态:22507,动态:20720,动态:20439,动态:7746,动态:20399,动态:22698,动态:21753,动态:22706,动态:17337,动态:22696,动态:21745,动态:21757,动态:22692,动态:21737,动态:21740,动态:21776,动态:21436,动态:21972,动态:22512,动态:22685,动态:20364,动态:21741,动态:20440,动态:21857</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>动态:21763,动态:22096,动态:21537,动态:22350,动态:21756,动态:22103,动态:22688,动态:22085,动态:22702,动态:21776,动态:21975,动态:22710,动态:21737,动态:21757,动态:21965,动态:22696,动态:22323,动态:20720,动态:21753,动态:17337,动态:22685,动态:20440,动态:22680,动态:7746,动态:21556,动态:20364,动态:21780,动态:21857,动态:21436,动态:22512,动态:22692,动态:21741,动态:20439,动态:21972,动态:22697,动态:21740,动态:22507,动态:22684,动态:20399,动态:22706,动态:4036,动态:22698,动态:21727</t>
+          <t>动态:21763,动态:22096,动态:21537,动态:22350,动态:21756,动态:22103,动态:22688,动态:22085,动态:22702,动态:21776,动态:21975,动态:22710,动态:21737,动态:21757,动态:21965,动态:22696,动态:17337,动态:21741,动态:21972,动态:20439,动态:21753,动态:22697,动态:21745,动态:21780,动态:21857,动态:20440,动态:22706,动态:22019,动态:21556,动态:22667,动态:22698,动态:22659,动态:21727,动态:7746,动态:21436,动态:4036,动态:20399,动态:22507,动态:22692,动态:21740,动态:20364,动态:22684</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>动态:22667,动态:22699,动态:21757,动态:17337,动态:22507,动态:21436,动态:22684,动态:21776,动态:21756,动态:22680,动态:22688,动态:21972,动态:22692,动态:21753,动态:21763,动态:21737,动态:22696,动态:4036,动态:20364,动态:22512,动态:7746,动态:21556,动态:22702,动态:21745,动态:22698,动态:21857,动态:22146,动态:22019,动态:22710,动态:20720,动态:22706,动态:22323,动态:21975,动态:21727,动态:22697,动态:21741,动态:20440,动态:20399,动态:20439,动态:22685,动态:21740,动态:22659,动态:21780</t>
+          <t>动态:21741,动态:22702,动态:20399,动态:22680,动态:21857,动态:22684,动态:21753,动态:22698,动态:22507,动态:21556,动态:21737,动态:22146,动态:22692,动态:21780,动态:4036,动态:20440,动态:21727,动态:20720,动态:22697,动态:21740,动态:22688,动态:17337,动态:21436,动态:22512,动态:20439,动态:22696,动态:21776,动态:22659,动态:21757,动态:22699,动态:21756,动态:21975,动态:22019,动态:22685,动态:20364,动态:7746,动态:22323,动态:21972,动态:22710,动态:22706,动态:21763,动态:22667,动态:21745</t>
         </is>
       </c>
     </row>
